--- a/ViT_docs/GDBMS_시각화도구_요구사항_정의서.xlsx
+++ b/ViT_docs/GDBMS_시각화도구_요구사항_정의서.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\iitp\gdbms_document\mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E69CA9-20CA-4B26-A345-136493BC018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F65F23-4681-4046-A8C0-B088003C10CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
+    <workbookView xWindow="38400" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="4" r:id="rId1"/>
-    <sheet name="v0.3" sheetId="6" r:id="rId2"/>
-    <sheet name="v0.2" sheetId="5" r:id="rId3"/>
-    <sheet name="v0.1" sheetId="2" r:id="rId4"/>
-    <sheet name="UI" sheetId="3" r:id="rId5"/>
+    <sheet name="v0.4" sheetId="7" r:id="rId2"/>
+    <sheet name="v0.3" sheetId="6" r:id="rId3"/>
+    <sheet name="v0.2" sheetId="5" r:id="rId4"/>
+    <sheet name="v0.1" sheetId="2" r:id="rId5"/>
+    <sheet name="UI" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="309">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1167,6 +1168,124 @@
   <si>
     <t>Context Menu, 
 Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI-SECH-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextBox에 검색어를 입력 후에 실행 버튼을 누르면 질의창에 '질의 실행' 과 동일한 결과가 실행된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query 수행결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execute Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의 실행 계획 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI-QURY-06</t>
+  </si>
+  <si>
+    <t>질의창에 Query를 입력한 후 질의 실행 계획 보기 버튼을 누르면 질의계획을 얻어와 Query Plan View에 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의창에 Query를 입력한 후 실행 버튼을 누르면 질의가 수행된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI-RELT-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image 내보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV 내보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI-FUNC-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertex, Node 선택 시 디자인 변경이 가능하다.
+Vertex 및 Edge 선택시 디자인 변경 뷰를 통해
+변경 할수 있는 디자인 항목은 색상, 크기/두께, 글씨 크기, 색상이 가능하다.
+개별,복수, 범위를 선택하여 변경 할 수 있으며,
+Vertex 기본 색상은 파란색이며, Edge는 검은색이다. 크기 기본값은 추후 정해진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 변경 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design Setting View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 및 query 결과가 Movie와 Actor에 관계로 검색 했을 경우 vertex기준으로 CSV를 저장
+"id","label","propery_title","propety_director","name","born"
+"v1","Movie","matrix","Wachowskis",,
+"v2","Actor",,"Keanu Charles Reeves","1964",
+edge기준으로 저장
+"id","label"
+"e1","acted_in"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV 파일은 검색결과를 Vertex와 Edge 별로 내보낼수 있으며
+해당 정보는 Label, Property정보를 포함한 형태.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단 - 연결탐색기,
+왼쪽 하단(쌓이는 형태) - 속성차트뷰, 상세정보 View,
+가운데 상단은 검색 기능,
+가운데 중단 질의창, 질의 결과창,
+가운데 하단은 시각화 뷰,
+오른쪽 상단은 디자인 변경 기능 (색상 변경,글씨 관련),
+오른쪽 중단은 디자인 변경 기능 (최대 표현 개수, Text Visible 관련),
+오른쪽 하단은 Mini Map,
+모든 창은 이동이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 : VI-SECH-03, VI-QURY-05, VI-QURY-06
+삭제 : VI-UI-02 (Import메뉴), 시각화 VI-VIEW-03 삭제 및 삭제에 따른 ID값 변경(VI-VIEW-*)
+변경 : VI-QURY-05 -&gt; VI-RELT-03, VI-FUNC-03,04 - 요구사항명 변경
+VI-UI-01 - 내용 변경
+순서변경: (검색창 -&gt; 질의창 -&gt; 결과창 -&gt; 시각화 뷰) -&gt; (시각화 뷰 -&gt; 검색창 -&gt; 질의창 -&gt; 결과창)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1299,7 +1418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1807,13 +1926,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2048,6 +2198,21 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2066,11 +2231,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2078,13 +2249,58 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2124,36 +2340,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2268,9 +2454,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2291,6 +2474,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1279070</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3537940</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6370ED5-ABCF-4244-946E-0622D8510604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19444606" y="25064357"/>
+          <a:ext cx="3537941" cy="4327072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4680857</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>367392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854D757D-FB4D-4888-BE82-9B24D5399A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19607893" y="23445107"/>
+          <a:ext cx="4517571" cy="312964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2395,7 +2671,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2500,7 +2776,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2904,18 +3180,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C83389-05E5-4B5F-B445-C5C5AA49E047}">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.08203125" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.125" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -2923,7 +3199,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="17.5" thickBot="1"/>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" thickBot="1">
       <c r="B4" s="55" t="s">
         <v>167</v>
@@ -2975,7 +3251,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="51">
+    <row r="7" spans="2:6" ht="49.5">
       <c r="B7" s="67">
         <v>0.3</v>
       </c>
@@ -2992,11 +3268,19 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="67"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31"/>
+    <row r="8" spans="2:6" ht="115.5">
+      <c r="B8" s="67">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44515</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="F8" s="68"/>
     </row>
     <row r="9" spans="2:6">
@@ -3132,7 +3416,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="70"/>
     </row>
-    <row r="28" spans="2:6" ht="17.5" thickBot="1">
+    <row r="28" spans="2:6" ht="17.25" thickBot="1">
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
       <c r="D28" s="73"/>
@@ -3147,40 +3431,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF8E6D5-6820-4B3F-ABEE-B157CB23A55C}">
-  <dimension ref="B1:K66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A63A04-B32C-4EF7-98CC-E072E813450C}">
+  <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30">
+    <row r="1" spans="2:11" ht="31.5">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="30.5" thickBot="1">
+    <row r="2" spans="2:11" ht="32.25" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="83"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -3258,7 +3542,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.5" thickBot="1">
+    <row r="13" spans="2:11" ht="17.25" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -3266,7 +3550,1555 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" thickBot="1">
+      <c r="B15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="80">
+        <v>1</v>
+      </c>
+      <c r="I16" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J16" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="78">
+        <v>1</v>
+      </c>
+      <c r="I17" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="79"/>
+    </row>
+    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="79"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="78">
+        <v>1</v>
+      </c>
+      <c r="I19" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="79"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="78">
+        <v>1</v>
+      </c>
+      <c r="I20" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="79"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="8">
+        <v>4</v>
+      </c>
+      <c r="I21" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="79"/>
+    </row>
+    <row r="22" spans="2:11" ht="165" customHeight="1">
+      <c r="B22" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="79"/>
+    </row>
+    <row r="23" spans="2:11" ht="69.95" customHeight="1">
+      <c r="B23" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J23" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="79"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="86"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="78">
+        <v>1</v>
+      </c>
+      <c r="I24" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J24" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="79"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="86"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="78">
+        <v>1</v>
+      </c>
+      <c r="I25" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J25" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="79"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="86"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="78">
+        <v>1</v>
+      </c>
+      <c r="I26" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J26" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="79"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="86"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="78">
+        <v>1</v>
+      </c>
+      <c r="I27" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="79"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="86"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+      <c r="I28" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="79"/>
+    </row>
+    <row r="29" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B29" s="86"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B30" s="86"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="79"/>
+    </row>
+    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J31" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="79"/>
+    </row>
+    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B32" s="86"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="79"/>
+    </row>
+    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B33" s="86"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="78">
+        <v>1</v>
+      </c>
+      <c r="I33" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="79"/>
+    </row>
+    <row r="34" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B34" s="86"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2</v>
+      </c>
+      <c r="I34" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="79"/>
+    </row>
+    <row r="35" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B35" s="86"/>
+      <c r="C35" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J35" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="79"/>
+    </row>
+    <row r="36" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B36" s="86"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J36" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="79"/>
+    </row>
+    <row r="37" spans="2:11" ht="56.1" customHeight="1">
+      <c r="B37" s="86"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J37" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="79"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="98"/>
+      <c r="D38" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="78">
+        <v>2</v>
+      </c>
+      <c r="I38" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="79"/>
+    </row>
+    <row r="39" spans="2:11" ht="49.5">
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J39" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="79"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="101"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J40" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="79"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="98"/>
+      <c r="D41" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="78">
+        <v>1</v>
+      </c>
+      <c r="I41" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="79"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="78">
+        <v>3</v>
+      </c>
+      <c r="I42" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="99"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="78">
+        <v>3</v>
+      </c>
+      <c r="I43" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="79"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="99"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="78">
+        <v>4</v>
+      </c>
+      <c r="I44" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="79"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="99"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="78">
+        <v>1</v>
+      </c>
+      <c r="I45" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J45" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="79"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="101"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="78">
+        <v>3</v>
+      </c>
+      <c r="I46" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J46" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="79"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="98"/>
+      <c r="D47" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J47" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="99"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J48" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K48" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="101"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="78">
+        <v>1</v>
+      </c>
+      <c r="I49" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J49" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="78">
+        <v>1</v>
+      </c>
+      <c r="I50" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J50" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="79"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="86"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="78">
+        <v>2</v>
+      </c>
+      <c r="I51" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J51" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="79"/>
+    </row>
+    <row r="52" spans="2:11" ht="33">
+      <c r="B52" s="86"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+      <c r="I52" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J52" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="79"/>
+    </row>
+    <row r="53" spans="2:11" ht="33">
+      <c r="B53" s="86"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J53" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="79"/>
+    </row>
+    <row r="54" spans="2:11" ht="33">
+      <c r="B54" s="86"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J54" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="79"/>
+    </row>
+    <row r="55" spans="2:11" ht="33">
+      <c r="B55" s="86"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J55" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="79"/>
+    </row>
+    <row r="56" spans="2:11" ht="82.5">
+      <c r="B56" s="86"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J56" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="79"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="86"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="16">
+        <v>3</v>
+      </c>
+      <c r="I57" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J57" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="79"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="86"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="78">
+        <v>3</v>
+      </c>
+      <c r="I58" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J58" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="79"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="86"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="78">
+        <v>3</v>
+      </c>
+      <c r="I59" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J59" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="79"/>
+    </row>
+    <row r="60" spans="2:11" ht="33">
+      <c r="B60" s="86"/>
+      <c r="C60" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J60" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="79"/>
+    </row>
+    <row r="61" spans="2:11" ht="33">
+      <c r="B61" s="86"/>
+      <c r="C61" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4</v>
+      </c>
+      <c r="I61" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J61" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="33">
+      <c r="B62" s="86"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J62" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62" s="52"/>
+    </row>
+    <row r="63" spans="2:11" ht="132">
+      <c r="B63" s="86"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
+      <c r="I63" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J63" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="33">
+      <c r="B64" s="86"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3</v>
+      </c>
+      <c r="I64" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J64" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="79"/>
+    </row>
+    <row r="65" spans="2:11" ht="99">
+      <c r="B65" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="87"/>
+      <c r="D65" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="78">
+        <v>1</v>
+      </c>
+      <c r="I65" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J65" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="33">
+      <c r="B66" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="87"/>
+      <c r="D66" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="F66" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J66" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="95"/>
+    </row>
+    <row r="67" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="53">
+        <v>3</v>
+      </c>
+      <c r="I67" s="64">
+        <v>44475</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C35:C37"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF8E6D5-6820-4B3F-ABEE-B157CB23A55C}">
+  <dimension ref="B1:K66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.75" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="76" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="31.5">
+      <c r="B1" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="32.25" thickBot="1">
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1">
+      <c r="B3" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="83"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5"/>
+      <c r="G5" s="1"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B13" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -3302,11 +5134,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="41" t="s">
         <v>180</v>
       </c>
@@ -3328,9 +5160,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="40" t="s">
         <v>181</v>
       </c>
@@ -3351,10 +5183,10 @@
       </c>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="40" t="s">
         <v>182</v>
       </c>
@@ -3376,9 +5208,9 @@
       <c r="K18" s="60"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="40" t="s">
         <v>183</v>
       </c>
@@ -3400,9 +5232,9 @@
       <c r="K19" s="60"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="40" t="s">
         <v>184</v>
       </c>
@@ -3424,9 +5256,9 @@
       <c r="K20" s="60"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="40" t="s">
         <v>185</v>
       </c>
@@ -3448,10 +5280,10 @@
       <c r="K21" s="60"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="40" t="s">
         <v>115</v>
       </c>
@@ -3475,9 +5307,9 @@
       </c>
       <c r="K22" s="60"/>
     </row>
-    <row r="23" spans="2:11" ht="82" customHeight="1">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
+    <row r="23" spans="2:11" ht="81.95" customHeight="1">
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="40" t="s">
         <v>270</v>
       </c>
@@ -3501,14 +5333,14 @@
       </c>
       <c r="K23" s="60"/>
     </row>
-    <row r="24" spans="2:11" ht="70" customHeight="1">
-      <c r="B24" s="81" t="s">
+    <row r="24" spans="2:11" ht="69.95" customHeight="1">
+      <c r="B24" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="88" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="40" t="s">
@@ -3532,9 +5364,9 @@
       <c r="K24" s="60"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="81"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="40" t="s">
         <v>189</v>
       </c>
@@ -3556,9 +5388,9 @@
       <c r="K25" s="60"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="81"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="40" t="s">
         <v>190</v>
       </c>
@@ -3580,9 +5412,9 @@
       <c r="K26" s="60"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="81"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="40" t="s">
@@ -3606,9 +5438,9 @@
       <c r="K27" s="60"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="81"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="40" t="s">
         <v>192</v>
       </c>
@@ -3630,9 +5462,9 @@
       <c r="K28" s="60"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="81"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="40" t="s">
         <v>193</v>
       </c>
@@ -3653,10 +5485,10 @@
       </c>
       <c r="K29" s="60"/>
     </row>
-    <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="81"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="88" t="s">
+    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B30" s="86"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="40" t="s">
@@ -3679,10 +5511,10 @@
       </c>
       <c r="K30" s="60"/>
     </row>
-    <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="81"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="89"/>
+    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="90"/>
       <c r="E31" s="40" t="s">
         <v>195</v>
       </c>
@@ -3703,10 +5535,10 @@
       </c>
       <c r="K31" s="60"/>
     </row>
-    <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="81"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="90"/>
+    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B32" s="86"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="91"/>
       <c r="E32" s="40" t="s">
         <v>196</v>
       </c>
@@ -3727,10 +5559,10 @@
       </c>
       <c r="K32" s="60"/>
     </row>
-    <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="81"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="152" t="s">
+    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B33" s="86"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="92" t="s">
         <v>284</v>
       </c>
       <c r="E33" s="40" t="s">
@@ -3753,10 +5585,10 @@
       </c>
       <c r="K33" s="60"/>
     </row>
-    <row r="34" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B34" s="81"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="90"/>
+    <row r="34" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B34" s="86"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="40" t="s">
         <v>198</v>
       </c>
@@ -3777,9 +5609,9 @@
       </c>
       <c r="K34" s="60"/>
     </row>
-    <row r="35" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B35" s="81"/>
-      <c r="C35" s="83"/>
+    <row r="35" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B35" s="86"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="76" t="s">
         <v>39</v>
       </c>
@@ -3803,9 +5635,9 @@
       </c>
       <c r="K35" s="60"/>
     </row>
-    <row r="36" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B36" s="81"/>
-      <c r="C36" s="83" t="s">
+    <row r="36" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B36" s="86"/>
+      <c r="C36" s="88" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="40" t="s">
@@ -3831,9 +5663,9 @@
       </c>
       <c r="K36" s="60"/>
     </row>
-    <row r="37" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B37" s="81"/>
-      <c r="C37" s="83"/>
+    <row r="37" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B37" s="86"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="40" t="s">
         <v>39</v>
       </c>
@@ -3857,9 +5689,9 @@
       </c>
       <c r="K37" s="60"/>
     </row>
-    <row r="38" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B38" s="81"/>
-      <c r="C38" s="83"/>
+    <row r="38" spans="2:11" ht="56.1" customHeight="1">
+      <c r="B38" s="86"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
@@ -3884,13 +5716,13 @@
       <c r="K38" s="60"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="88" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="40" t="s">
@@ -3914,9 +5746,9 @@
       <c r="K39" s="60"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="81"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="40" t="s">
         <v>223</v>
       </c>
@@ -3937,10 +5769,10 @@
       </c>
       <c r="K40" s="60"/>
     </row>
-    <row r="41" spans="2:11" ht="68">
-      <c r="B41" s="81"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83" t="s">
+    <row r="41" spans="2:11" ht="66">
+      <c r="B41" s="86"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="40" t="s">
@@ -3963,10 +5795,10 @@
       </c>
       <c r="K41" s="60"/>
     </row>
-    <row r="42" spans="2:11" ht="34">
-      <c r="B42" s="81"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
+    <row r="42" spans="2:11" ht="33">
+      <c r="B42" s="86"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
       <c r="E42" s="40" t="s">
         <v>225</v>
       </c>
@@ -3987,10 +5819,10 @@
       </c>
       <c r="K42" s="60"/>
     </row>
-    <row r="43" spans="2:11" ht="34">
-      <c r="B43" s="81"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
+    <row r="43" spans="2:11" ht="33">
+      <c r="B43" s="86"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
       <c r="E43" s="40" t="s">
         <v>226</v>
       </c>
@@ -4011,9 +5843,9 @@
       </c>
       <c r="K43" s="60"/>
     </row>
-    <row r="44" spans="2:11" ht="34">
-      <c r="B44" s="81"/>
-      <c r="C44" s="83"/>
+    <row r="44" spans="2:11" ht="33">
+      <c r="B44" s="86"/>
+      <c r="C44" s="88"/>
       <c r="D44" s="40" t="s">
         <v>112</v>
       </c>
@@ -4037,9 +5869,9 @@
       </c>
       <c r="K44" s="60"/>
     </row>
-    <row r="45" spans="2:11" ht="34">
-      <c r="B45" s="81"/>
-      <c r="C45" s="83"/>
+    <row r="45" spans="2:11" ht="33">
+      <c r="B45" s="86"/>
+      <c r="C45" s="88"/>
       <c r="D45" s="40" t="s">
         <v>111</v>
       </c>
@@ -4063,9 +5895,9 @@
       </c>
       <c r="K45" s="60"/>
     </row>
-    <row r="46" spans="2:11" ht="34">
-      <c r="B46" s="81"/>
-      <c r="C46" s="83"/>
+    <row r="46" spans="2:11" ht="33">
+      <c r="B46" s="86"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="40" t="s">
         <v>107</v>
       </c>
@@ -4090,8 +5922,8 @@
       <c r="K46" s="60"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="81"/>
-      <c r="C47" s="83"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="40" t="s">
         <v>85</v>
       </c>
@@ -4116,8 +5948,8 @@
       <c r="K47" s="60"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="81"/>
-      <c r="C48" s="83"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="40" t="s">
         <v>77</v>
       </c>
@@ -4142,8 +5974,8 @@
       <c r="K48" s="60"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="81"/>
-      <c r="C49" s="83"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="40" t="s">
         <v>77</v>
       </c>
@@ -4167,8 +5999,8 @@
       </c>
       <c r="K49" s="60"/>
     </row>
-    <row r="50" spans="2:11" ht="34">
-      <c r="B50" s="81"/>
+    <row r="50" spans="2:11" ht="33">
+      <c r="B50" s="86"/>
       <c r="C50" s="40" t="s">
         <v>56</v>
       </c>
@@ -4195,9 +6027,9 @@
       </c>
       <c r="K50" s="60"/>
     </row>
-    <row r="51" spans="2:11" ht="34">
-      <c r="B51" s="81"/>
-      <c r="C51" s="83" t="s">
+    <row r="51" spans="2:11" ht="33">
+      <c r="B51" s="86"/>
+      <c r="C51" s="88" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -4225,9 +6057,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="81"/>
-      <c r="C52" s="83"/>
+    <row r="52" spans="2:11" ht="33">
+      <c r="B52" s="86"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="40" t="s">
         <v>39</v>
       </c>
@@ -4251,9 +6083,9 @@
       </c>
       <c r="K52" s="52"/>
     </row>
-    <row r="53" spans="2:11" ht="119">
-      <c r="B53" s="81"/>
-      <c r="C53" s="83"/>
+    <row r="53" spans="2:11" ht="132">
+      <c r="B53" s="86"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="40" t="s">
         <v>39</v>
       </c>
@@ -4279,9 +6111,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="81"/>
-      <c r="C54" s="83"/>
+    <row r="54" spans="2:11" ht="33">
+      <c r="B54" s="86"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="40" t="s">
         <v>39</v>
       </c>
@@ -4306,7 +6138,7 @@
       <c r="K54" s="60"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="81" t="s">
+      <c r="B55" s="86" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -4338,7 +6170,7 @@
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="81"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="40" t="s">
         <v>278</v>
       </c>
@@ -4368,10 +6200,10 @@
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="82"/>
+      <c r="C57" s="87"/>
       <c r="D57" s="40" t="s">
         <v>74</v>
       </c>
@@ -4395,9 +6227,9 @@
       </c>
       <c r="K57" s="60"/>
     </row>
-    <row r="58" spans="2:11" ht="51">
-      <c r="B58" s="81"/>
-      <c r="C58" s="82"/>
+    <row r="58" spans="2:11" ht="49.5">
+      <c r="B58" s="86"/>
+      <c r="C58" s="87"/>
       <c r="D58" s="40" t="s">
         <v>75</v>
       </c>
@@ -4422,7 +6254,7 @@
       <c r="K58" s="60"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="86" t="s">
         <v>267</v>
       </c>
       <c r="C59" s="40" t="s">
@@ -4452,8 +6284,8 @@
       <c r="K59" s="60"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="81"/>
-      <c r="C60" s="83" t="s">
+      <c r="B60" s="86"/>
+      <c r="C60" s="88" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="40" t="s">
@@ -4480,8 +6312,8 @@
       <c r="K60" s="51"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="81"/>
-      <c r="C61" s="83"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="40" t="s">
         <v>118</v>
       </c>
@@ -4506,7 +6338,7 @@
       <c r="K61" s="60"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="81"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="40" t="s">
         <v>124</v>
       </c>
@@ -4534,7 +6366,7 @@
       <c r="K62" s="60"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="81"/>
+      <c r="B63" s="86"/>
       <c r="C63" s="40" t="s">
         <v>276</v>
       </c>
@@ -4563,11 +6395,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="102">
-      <c r="B64" s="81" t="s">
+    <row r="64" spans="2:11" ht="99">
+      <c r="B64" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="82"/>
+      <c r="C64" s="87"/>
       <c r="D64" s="40" t="s">
         <v>30</v>
       </c>
@@ -4593,11 +6425,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="34">
-      <c r="B65" s="81" t="s">
+    <row r="65" spans="2:11" ht="33">
+      <c r="B65" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="82"/>
+      <c r="C65" s="87"/>
       <c r="D65" s="40" t="s">
         <v>137</v>
       </c>
@@ -4619,11 +6451,11 @@
       <c r="J65" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="K65" s="84"/>
-    </row>
-    <row r="66" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B66" s="86"/>
-      <c r="C66" s="87"/>
+      <c r="K65" s="95"/>
+    </row>
+    <row r="66" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
+      <c r="B66" s="93"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="53" t="s">
         <v>75</v>
       </c>
@@ -4645,10 +6477,20 @@
       <c r="J66" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="85"/>
+      <c r="K66" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:B38"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="K65:K66"/>
     <mergeCell ref="B39:B54"/>
     <mergeCell ref="C39:C49"/>
@@ -4661,16 +6503,6 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C66"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:D21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:B38"/>
-    <mergeCell ref="C24:C35"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4679,7 +6511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BD3A42-6A7E-4449-A6C1-52E221A53C86}">
   <dimension ref="B1:K68"/>
   <sheetViews>
@@ -4687,33 +6519,33 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30">
+    <row r="1" spans="2:11" ht="31.5">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="30.5" thickBot="1">
+    <row r="2" spans="2:11" ht="32.25" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="83"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -4791,7 +6623,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.5" thickBot="1">
+    <row r="13" spans="2:11" ht="17.25" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -4799,7 +6631,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -4835,11 +6667,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="35" t="s">
         <v>180</v>
       </c>
@@ -4861,9 +6693,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="36" t="s">
         <v>181</v>
       </c>
@@ -4884,10 +6716,10 @@
       </c>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="36" t="s">
         <v>182</v>
       </c>
@@ -4909,9 +6741,9 @@
       <c r="K18" s="50"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="36" t="s">
         <v>183</v>
       </c>
@@ -4933,9 +6765,9 @@
       <c r="K19" s="50"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="36" t="s">
         <v>184</v>
       </c>
@@ -4957,9 +6789,9 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="36" t="s">
         <v>185</v>
       </c>
@@ -4981,10 +6813,10 @@
       <c r="K21" s="50"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="36" t="s">
         <v>115</v>
       </c>
@@ -5008,9 +6840,9 @@
       </c>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="2:11" ht="82" customHeight="1">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
+    <row r="23" spans="2:11" ht="81.95" customHeight="1">
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="36" t="s">
         <v>270</v>
       </c>
@@ -5034,14 +6866,14 @@
       </c>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="2:11" ht="70" customHeight="1">
-      <c r="B24" s="81" t="s">
+    <row r="24" spans="2:11" ht="69.95" customHeight="1">
+      <c r="B24" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="88" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="36" t="s">
@@ -5065,9 +6897,9 @@
       <c r="K24" s="50"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="81"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="36" t="s">
         <v>189</v>
       </c>
@@ -5089,9 +6921,9 @@
       <c r="K25" s="50"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="81"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="36" t="s">
         <v>190</v>
       </c>
@@ -5113,9 +6945,9 @@
       <c r="K26" s="50"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="81"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="36" t="s">
@@ -5139,9 +6971,9 @@
       <c r="K27" s="50"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="81"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="36" t="s">
         <v>192</v>
       </c>
@@ -5163,9 +6995,9 @@
       <c r="K28" s="50"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="81"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="36" t="s">
         <v>193</v>
       </c>
@@ -5186,10 +7018,10 @@
       </c>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="81"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83" t="s">
+    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B30" s="86"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="36" t="s">
@@ -5212,10 +7044,10 @@
       </c>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="81"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
+    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="36" t="s">
         <v>195</v>
       </c>
@@ -5236,10 +7068,10 @@
       </c>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="81"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
+    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B32" s="86"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="36" t="s">
         <v>196</v>
       </c>
@@ -5260,10 +7092,10 @@
       </c>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="81"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
+    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B33" s="86"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
       <c r="E33" s="36" t="s">
         <v>197</v>
       </c>
@@ -5284,10 +7116,10 @@
       </c>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B34" s="81"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
+    <row r="34" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B34" s="86"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="36" t="s">
         <v>198</v>
       </c>
@@ -5308,10 +7140,10 @@
       </c>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B35" s="81"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83" t="s">
+    <row r="35" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B35" s="86"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="36" t="s">
@@ -5334,10 +7166,10 @@
       </c>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B36" s="81"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
+    <row r="36" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B36" s="86"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="36" t="s">
         <v>200</v>
       </c>
@@ -5358,10 +7190,10 @@
       </c>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B37" s="81"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
+    <row r="37" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B37" s="86"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="36" t="s">
         <v>201</v>
       </c>
@@ -5382,9 +7214,9 @@
       </c>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B38" s="81"/>
-      <c r="C38" s="83" t="s">
+    <row r="38" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B38" s="86"/>
+      <c r="C38" s="88" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="36" t="s">
@@ -5410,9 +7242,9 @@
       </c>
       <c r="K38" s="50"/>
     </row>
-    <row r="39" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B39" s="81"/>
-      <c r="C39" s="83"/>
+    <row r="39" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B39" s="86"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="36" t="s">
         <v>39</v>
       </c>
@@ -5436,9 +7268,9 @@
       </c>
       <c r="K39" s="50"/>
     </row>
-    <row r="40" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B40" s="81"/>
-      <c r="C40" s="83"/>
+    <row r="40" spans="2:11" ht="56.1" customHeight="1">
+      <c r="B40" s="86"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="36" t="s">
         <v>45</v>
       </c>
@@ -5463,13 +7295,13 @@
       <c r="K40" s="50"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="88" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -5493,9 +7325,9 @@
       <c r="K41" s="50"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="81"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
       <c r="E42" s="36" t="s">
         <v>223</v>
       </c>
@@ -5516,10 +7348,10 @@
       </c>
       <c r="K42" s="50"/>
     </row>
-    <row r="43" spans="2:11" ht="68">
-      <c r="B43" s="81"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83" t="s">
+    <row r="43" spans="2:11" ht="66">
+      <c r="B43" s="86"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="36" t="s">
@@ -5542,10 +7374,10 @@
       </c>
       <c r="K43" s="50"/>
     </row>
-    <row r="44" spans="2:11" ht="34">
-      <c r="B44" s="81"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
+    <row r="44" spans="2:11" ht="33">
+      <c r="B44" s="86"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
       <c r="E44" s="36" t="s">
         <v>225</v>
       </c>
@@ -5566,10 +7398,10 @@
       </c>
       <c r="K44" s="50"/>
     </row>
-    <row r="45" spans="2:11" ht="34">
-      <c r="B45" s="81"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
+    <row r="45" spans="2:11" ht="33">
+      <c r="B45" s="86"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
       <c r="E45" s="36" t="s">
         <v>226</v>
       </c>
@@ -5590,9 +7422,9 @@
       </c>
       <c r="K45" s="50"/>
     </row>
-    <row r="46" spans="2:11" ht="34">
-      <c r="B46" s="81"/>
-      <c r="C46" s="83"/>
+    <row r="46" spans="2:11" ht="33">
+      <c r="B46" s="86"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="36" t="s">
         <v>112</v>
       </c>
@@ -5616,9 +7448,9 @@
       </c>
       <c r="K46" s="50"/>
     </row>
-    <row r="47" spans="2:11" ht="34">
-      <c r="B47" s="81"/>
-      <c r="C47" s="83"/>
+    <row r="47" spans="2:11" ht="33">
+      <c r="B47" s="86"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="36" t="s">
         <v>111</v>
       </c>
@@ -5642,9 +7474,9 @@
       </c>
       <c r="K47" s="50"/>
     </row>
-    <row r="48" spans="2:11" ht="34">
-      <c r="B48" s="81"/>
-      <c r="C48" s="83"/>
+    <row r="48" spans="2:11" ht="33">
+      <c r="B48" s="86"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="36" t="s">
         <v>107</v>
       </c>
@@ -5669,8 +7501,8 @@
       <c r="K48" s="50"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="81"/>
-      <c r="C49" s="83"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="36" t="s">
         <v>85</v>
       </c>
@@ -5695,8 +7527,8 @@
       <c r="K49" s="50"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="81"/>
-      <c r="C50" s="83"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="36" t="s">
         <v>77</v>
       </c>
@@ -5721,8 +7553,8 @@
       <c r="K50" s="50"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="81"/>
-      <c r="C51" s="83"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="36" t="s">
         <v>77</v>
       </c>
@@ -5746,8 +7578,8 @@
       </c>
       <c r="K51" s="50"/>
     </row>
-    <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="81"/>
+    <row r="52" spans="2:11" ht="33">
+      <c r="B52" s="86"/>
       <c r="C52" s="36" t="s">
         <v>56</v>
       </c>
@@ -5774,9 +7606,9 @@
       </c>
       <c r="K52" s="50"/>
     </row>
-    <row r="53" spans="2:11" ht="34">
-      <c r="B53" s="81"/>
-      <c r="C53" s="83" t="s">
+    <row r="53" spans="2:11" ht="33">
+      <c r="B53" s="86"/>
+      <c r="C53" s="88" t="s">
         <v>84</v>
       </c>
       <c r="D53" s="36" t="s">
@@ -5804,9 +7636,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="81"/>
-      <c r="C54" s="83"/>
+    <row r="54" spans="2:11" ht="33">
+      <c r="B54" s="86"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="36" t="s">
         <v>39</v>
       </c>
@@ -5830,9 +7662,9 @@
       </c>
       <c r="K54" s="52"/>
     </row>
-    <row r="55" spans="2:11" ht="119">
-      <c r="B55" s="81"/>
-      <c r="C55" s="83"/>
+    <row r="55" spans="2:11" ht="132">
+      <c r="B55" s="86"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="36" t="s">
         <v>39</v>
       </c>
@@ -5858,9 +7690,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="34">
-      <c r="B56" s="81"/>
-      <c r="C56" s="83"/>
+    <row r="56" spans="2:11" ht="33">
+      <c r="B56" s="86"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="36" t="s">
         <v>39</v>
       </c>
@@ -5885,7 +7717,7 @@
       <c r="K56" s="50"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="86" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -5917,7 +7749,7 @@
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="81"/>
+      <c r="B58" s="86"/>
       <c r="C58" s="36" t="s">
         <v>132</v>
       </c>
@@ -5947,10 +7779,10 @@
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="82"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="36" t="s">
         <v>74</v>
       </c>
@@ -5974,9 +7806,9 @@
       </c>
       <c r="K59" s="50"/>
     </row>
-    <row r="60" spans="2:11" ht="51">
-      <c r="B60" s="81"/>
-      <c r="C60" s="82"/>
+    <row r="60" spans="2:11" ht="49.5">
+      <c r="B60" s="86"/>
+      <c r="C60" s="87"/>
       <c r="D60" s="36" t="s">
         <v>75</v>
       </c>
@@ -6001,7 +7833,7 @@
       <c r="K60" s="50"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="86" t="s">
         <v>267</v>
       </c>
       <c r="C61" s="36" t="s">
@@ -6031,8 +7863,8 @@
       <c r="K61" s="50"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="81"/>
-      <c r="C62" s="83" t="s">
+      <c r="B62" s="86"/>
+      <c r="C62" s="88" t="s">
         <v>68</v>
       </c>
       <c r="D62" s="36" t="s">
@@ -6059,8 +7891,8 @@
       <c r="K62" s="51"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="81"/>
-      <c r="C63" s="83"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="36" t="s">
         <v>118</v>
       </c>
@@ -6085,7 +7917,7 @@
       <c r="K63" s="50"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="81"/>
+      <c r="B64" s="86"/>
       <c r="C64" s="36" t="s">
         <v>124</v>
       </c>
@@ -6113,7 +7945,7 @@
       <c r="K64" s="50"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="81"/>
+      <c r="B65" s="86"/>
       <c r="C65" s="36" t="s">
         <v>131</v>
       </c>
@@ -6140,11 +7972,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="102">
-      <c r="B66" s="81" t="s">
+    <row r="66" spans="2:11" ht="99">
+      <c r="B66" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="82"/>
+      <c r="C66" s="87"/>
       <c r="D66" s="36" t="s">
         <v>30</v>
       </c>
@@ -6170,11 +8002,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="34">
-      <c r="B67" s="81" t="s">
+    <row r="67" spans="2:11" ht="33">
+      <c r="B67" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="C67" s="82"/>
+      <c r="C67" s="87"/>
       <c r="D67" s="36" t="s">
         <v>137</v>
       </c>
@@ -6196,11 +8028,11 @@
       <c r="J67" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="84"/>
-    </row>
-    <row r="68" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B68" s="86"/>
-      <c r="C68" s="87"/>
+      <c r="K67" s="95"/>
+    </row>
+    <row r="68" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
+      <c r="B68" s="93"/>
+      <c r="C68" s="94"/>
       <c r="D68" s="53" t="s">
         <v>75</v>
       </c>
@@ -6222,20 +8054,10 @@
       <c r="J68" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K68" s="85"/>
+      <c r="K68" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="C41:C51"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B41:B56"/>
@@ -6248,6 +8070,16 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="C38:C40"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6256,7 +8088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2F09C0-156E-4DA5-A577-69CE2AAC7D43}">
   <dimension ref="A2:H55"/>
   <sheetViews>
@@ -6264,15 +8096,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="101.75" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6303,11 +8135,11 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
       <c r="D3" s="2" t="s">
         <v>180</v>
       </c>
@@ -6323,9 +8155,9 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="30" t="s">
         <v>181</v>
       </c>
@@ -6340,10 +8172,10 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="42.65" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
+    <row r="5" spans="1:8" ht="42.6" customHeight="1">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="30" t="s">
         <v>182</v>
       </c>
@@ -6359,9 +8191,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="30" t="s">
         <v>183</v>
       </c>
@@ -6377,9 +8209,9 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="94"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="96"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="30" t="s">
         <v>184</v>
       </c>
@@ -6395,9 +8227,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="30" t="s">
         <v>185</v>
       </c>
@@ -6413,10 +8245,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="165" customHeight="1">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
@@ -6434,9 +8266,9 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="82" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
+    <row r="10" spans="1:8" ht="81.95" customHeight="1">
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="2" t="s">
         <v>141</v>
       </c>
@@ -6454,14 +8286,14 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="70" customHeight="1">
-      <c r="A11" s="103" t="s">
+    <row r="11" spans="1:8" ht="69.95" customHeight="1">
+      <c r="A11" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="88" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -6479,9 +8311,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="103"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="30" t="s">
         <v>189</v>
       </c>
@@ -6497,9 +8329,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="103"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="30" t="s">
         <v>190</v>
       </c>
@@ -6515,9 +8347,9 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="103"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="88" t="s">
+      <c r="A14" s="125"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="89" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -6535,9 +8367,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="103"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="89"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="30" t="s">
         <v>192</v>
       </c>
@@ -6553,9 +8385,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="103"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="89"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="30" t="s">
         <v>193</v>
       </c>
@@ -6570,10 +8402,10 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="88" t="s">
+    <row r="17" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A17" s="125"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="89" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -6590,10 +8422,10 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A18" s="103"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="89"/>
+    <row r="18" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A18" s="125"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="30" t="s">
         <v>195</v>
       </c>
@@ -6608,10 +8440,10 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A19" s="103"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="89"/>
+    <row r="19" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A19" s="125"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="30" t="s">
         <v>196</v>
       </c>
@@ -6626,10 +8458,10 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="89"/>
+    <row r="20" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A20" s="125"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="30" t="s">
         <v>197</v>
       </c>
@@ -6644,10 +8476,10 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="90"/>
+    <row r="21" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A21" s="125"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="30" t="s">
         <v>198</v>
       </c>
@@ -6662,10 +8494,10 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A22" s="103"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="88" t="s">
+    <row r="22" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A22" s="125"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="89" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -6682,10 +8514,10 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A23" s="103"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="89"/>
+    <row r="23" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A23" s="125"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="30" t="s">
         <v>200</v>
       </c>
@@ -6700,10 +8532,10 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A24" s="103"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="90"/>
+    <row r="24" spans="1:8" ht="39.6" customHeight="1">
+      <c r="A24" s="125"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="30" t="s">
         <v>201</v>
       </c>
@@ -6718,9 +8550,9 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="88" t="s">
+    <row r="25" spans="1:8" ht="39.6" customHeight="1">
+      <c r="A25" s="125"/>
+      <c r="B25" s="89" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -6740,9 +8572,9 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="89"/>
+    <row r="26" spans="1:8" ht="39.6" customHeight="1">
+      <c r="A26" s="125"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
@@ -6760,9 +8592,9 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="56.15" customHeight="1">
-      <c r="A27" s="103"/>
-      <c r="B27" s="90"/>
+    <row r="27" spans="1:8" ht="56.1" customHeight="1">
+      <c r="A27" s="125"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
@@ -6781,13 +8613,13 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="89" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6805,9 +8637,9 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="110"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="30" t="s">
         <v>206</v>
       </c>
@@ -6822,10 +8654,10 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="68">
-      <c r="A30" s="110"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="88" t="s">
+    <row r="30" spans="1:8" ht="66">
+      <c r="A30" s="109"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="89" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="30" t="s">
@@ -6842,10 +8674,10 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="34">
-      <c r="A31" s="110"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
+    <row r="31" spans="1:8" ht="33">
+      <c r="A31" s="109"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="30" t="s">
         <v>208</v>
       </c>
@@ -6860,10 +8692,10 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="34">
-      <c r="A32" s="110"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
+    <row r="32" spans="1:8" ht="33">
+      <c r="A32" s="109"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="30" t="s">
         <v>209</v>
       </c>
@@ -6878,9 +8710,9 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="34">
-      <c r="A33" s="110"/>
-      <c r="B33" s="89"/>
+    <row r="33" spans="1:8" ht="33">
+      <c r="A33" s="109"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="2" t="s">
         <v>112</v>
       </c>
@@ -6898,9 +8730,9 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="34">
-      <c r="A34" s="110"/>
-      <c r="B34" s="89"/>
+    <row r="34" spans="1:8" ht="33">
+      <c r="A34" s="109"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="2" t="s">
         <v>111</v>
       </c>
@@ -6918,9 +8750,9 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="34">
-      <c r="A35" s="110"/>
-      <c r="B35" s="89"/>
+    <row r="35" spans="1:8" ht="33">
+      <c r="A35" s="109"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
@@ -6939,8 +8771,8 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="110"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="2" t="s">
         <v>85</v>
       </c>
@@ -6959,8 +8791,8 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="110"/>
-      <c r="B37" s="89"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="2" t="s">
         <v>77</v>
       </c>
@@ -6979,8 +8811,8 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="110"/>
-      <c r="B38" s="90"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
@@ -6998,8 +8830,8 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="34">
-      <c r="A39" s="110"/>
+    <row r="39" spans="1:8" ht="33">
+      <c r="A39" s="109"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
@@ -7020,9 +8852,9 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="34">
-      <c r="A40" s="110"/>
-      <c r="B40" s="88" t="s">
+    <row r="40" spans="1:8" ht="33">
+      <c r="A40" s="109"/>
+      <c r="B40" s="89" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -7044,9 +8876,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="34">
-      <c r="A41" s="110"/>
-      <c r="B41" s="89"/>
+    <row r="41" spans="1:8" ht="33">
+      <c r="A41" s="109"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
@@ -7064,9 +8896,9 @@
       </c>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" ht="119">
-      <c r="A42" s="110"/>
-      <c r="B42" s="89"/>
+    <row r="42" spans="1:8" ht="132">
+      <c r="A42" s="109"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
@@ -7086,9 +8918,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="34">
-      <c r="A43" s="111"/>
-      <c r="B43" s="90"/>
+    <row r="43" spans="1:8" ht="33">
+      <c r="A43" s="110"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="2" t="s">
         <v>39</v>
       </c>
@@ -7107,7 +8939,7 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="103" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -7133,7 +8965,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="106"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
@@ -7157,10 +8989,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="105"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
@@ -7178,9 +9010,9 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="51">
-      <c r="A47" s="106"/>
-      <c r="B47" s="107"/>
+    <row r="47" spans="1:8" ht="49.5">
+      <c r="A47" s="105"/>
+      <c r="B47" s="106"/>
       <c r="C47" s="2" t="s">
         <v>75</v>
       </c>
@@ -7199,7 +9031,7 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="104" t="s">
+      <c r="A48" s="103" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -7223,8 +9055,8 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="108"/>
-      <c r="B49" s="83" t="s">
+      <c r="A49" s="107"/>
+      <c r="B49" s="88" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -7245,8 +9077,8 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="108"/>
-      <c r="B50" s="83"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="2" t="s">
         <v>118</v>
       </c>
@@ -7265,7 +9097,7 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="108"/>
+      <c r="A51" s="107"/>
       <c r="B51" s="2" t="s">
         <v>124</v>
       </c>
@@ -7287,7 +9119,7 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="106"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
@@ -7308,11 +9140,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="102">
-      <c r="A53" s="112" t="s">
+    <row r="53" spans="1:8" ht="99">
+      <c r="A53" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="113"/>
+      <c r="B53" s="112"/>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
@@ -7332,11 +9164,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="34">
-      <c r="A54" s="104" t="s">
+    <row r="54" spans="1:8" ht="33">
+      <c r="A54" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="105"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="2" t="s">
         <v>137</v>
       </c>
@@ -7352,11 +9184,11 @@
       <c r="G54" s="3">
         <v>3</v>
       </c>
-      <c r="H54" s="88"/>
-    </row>
-    <row r="55" spans="1:8" ht="301" customHeight="1">
-      <c r="A55" s="106"/>
-      <c r="B55" s="107"/>
+      <c r="H54" s="89"/>
+    </row>
+    <row r="55" spans="1:8" ht="300.95" customHeight="1">
+      <c r="A55" s="105"/>
+      <c r="B55" s="106"/>
       <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
@@ -7372,10 +9204,19 @@
       <c r="G55" s="4">
         <v>3</v>
       </c>
-      <c r="H55" s="90"/>
+      <c r="H55" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A3:C8"/>
+    <mergeCell ref="B11:B24"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A11:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A54:B55"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="H54:H55"/>
@@ -7388,15 +9229,6 @@
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A3:C8"/>
-    <mergeCell ref="B11:B24"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A11:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7405,7 +9237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A756F41A-28DD-4412-A372-3C92ED27208E}">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -7413,7 +9245,7 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -7421,158 +9253,158 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="145" t="s">
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="146"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="148"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="140" t="s">
+      <c r="A4" s="128"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="152" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="141"/>
+      <c r="J4" s="153"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="141"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="153"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="141"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="153"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="141"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="153"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="141"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="153"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="141"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="153"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="141"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="153"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="116"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="137" t="s">
+      <c r="A11" s="128"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="141"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="153"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" ht="17.149999999999999" customHeight="1">
-      <c r="A12" s="116"/>
-      <c r="B12" s="117"/>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="128"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -7581,14 +9413,14 @@
       <c r="H12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="142"/>
-      <c r="J12" s="141"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="153"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="19"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -7597,210 +9429,210 @@
       <c r="H13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="142"/>
-      <c r="J13" s="141"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="153"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="130"/>
+      <c r="B14" s="142"/>
       <c r="C14" s="19"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="141"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="153"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="131"/>
-      <c r="B15" s="132"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="19"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="141"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="131"/>
-      <c r="B16" s="132"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="19"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="141"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="153"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="131"/>
-      <c r="B17" s="132"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="19"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="141"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="153"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="131"/>
-      <c r="B18" s="132"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="19"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="144"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="156"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="131"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="149" t="s">
+      <c r="A19" s="143"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="161" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="135" t="s">
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="136"/>
+      <c r="J19" s="148"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="131"/>
-      <c r="B20" s="132"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="19"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="131"/>
-      <c r="B21" s="132"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="19"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="131"/>
-      <c r="B22" s="132"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="19"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="131"/>
-      <c r="B23" s="132"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="19"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="131"/>
-      <c r="B24" s="132"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="19"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="131"/>
-      <c r="B25" s="132"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="19"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="131"/>
-      <c r="B26" s="132"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="19"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>

--- a/ViT_docs/GDBMS_시각화도구_요구사항_정의서.xlsx
+++ b/ViT_docs/GDBMS_시각화도구_요구사항_정의서.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\iitp\gdbms_document\mockup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\gdbms_document\mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F65F23-4681-4046-A8C0-B088003C10CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97557A40-7E67-4E34-AF42-8CA3844368D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
+    <workbookView xWindow="5670" yWindow="2480" windowWidth="28800" windowHeight="15500" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="4" r:id="rId1"/>
-    <sheet name="v0.4" sheetId="7" r:id="rId2"/>
-    <sheet name="v0.3" sheetId="6" r:id="rId3"/>
-    <sheet name="v0.2" sheetId="5" r:id="rId4"/>
-    <sheet name="v0.1" sheetId="2" r:id="rId5"/>
-    <sheet name="UI" sheetId="3" r:id="rId6"/>
+    <sheet name="v0.5" sheetId="8" r:id="rId2"/>
+    <sheet name="v0.4" sheetId="7" r:id="rId3"/>
+    <sheet name="v0.3" sheetId="6" r:id="rId4"/>
+    <sheet name="v0.2" sheetId="5" r:id="rId5"/>
+    <sheet name="v0.1" sheetId="2" r:id="rId6"/>
+    <sheet name="UI" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="318">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1286,6 +1287,50 @@
 변경 : VI-QURY-05 -&gt; VI-RELT-03, VI-FUNC-03,04 - 요구사항명 변경
 VI-UI-01 - 내용 변경
 순서변경: (검색창 -&gt; 질의창 -&gt; 결과창 -&gt; 시각화 뷰) -&gt; (시각화 뷰 -&gt; 검색창 -&gt; 질의창 -&gt; 결과창)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단 – 연결탐색기 (Dbeaver 기본)
+왼쪽 하단 – 프로젝트 View (Dbeaver 기본)
+오른쪽 상단은 변환 기능, 질의창, output 창, Log창이 한 묶음이다.
+상단에서 변환 기능은 상단에 위치하고 질의창은 하단에 위치한다.
+OutputView와 LogView은 질의창 오른쪽에 표시되며, 활성화 비활성화가 가능하다.
+오른쪽 하단은 시각화View, TableView, PlanView, Properties, ChartView, 다지인, 설정 View가 한 묶음이다,
+하단에서 왼쪽에 시각화View와 TableView, PlanView가 위치하며 
+하단에서 오른쪽은 Properties, ChartView, 디자인, 설정이 위치한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의 변환창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 Vertex, properties, edge 중에서 Text를 질의로 변환 할 수 있는 기능을 제공한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertex ,Properties, edge 중 단일, 복수선택하여 해당 범위 내에서만 Text를 질의로 변환하는 기능을 제공한다. _x000B_(DEFAULT : Vertex only)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextBox에 Text를 입력 후에 실행 버튼을 누르면 질의창에 변환한 질의가 입력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 위치 관련 내용 변경 (DBeaver UI 관련)
+기능 변경 : 검색 -&gt; 질의변환 (기능 변경에 따른 질의 변환 내용 변경)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1963,7 +2008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2213,6 +2258,57 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2222,15 +2318,6 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2241,36 +2328,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2474,6 +2531,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1279070</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3537940</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4063B6-3216-4F03-897E-43D972750D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19424195" y="25241250"/>
+          <a:ext cx="3535220" cy="4320268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4680857</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>367392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9F713C-77D3-4565-B65E-CCB53AFE6A16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19584761" y="23619278"/>
+          <a:ext cx="4517571" cy="312964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2566,7 +2716,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2671,7 +2821,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2776,7 +2926,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3181,17 +3331,17 @@
   <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.08203125" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -3199,7 +3349,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:6" ht="17.5" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" thickBot="1">
       <c r="B4" s="55" t="s">
         <v>167</v>
@@ -3251,7 +3401,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="49.5">
+    <row r="7" spans="2:6" ht="51">
       <c r="B7" s="67">
         <v>0.3</v>
       </c>
@@ -3268,7 +3418,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="115.5">
+    <row r="8" spans="2:6" ht="119">
       <c r="B8" s="67">
         <v>0.4</v>
       </c>
@@ -3281,18 +3431,30 @@
       <c r="E8" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="68"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="67"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="68"/>
+      <c r="F8" s="68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="34">
+      <c r="B9" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="67"/>
-      <c r="C10" s="31"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
       <c r="F10" s="68"/>
@@ -3416,7 +3578,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="70"/>
     </row>
-    <row r="28" spans="2:6" ht="17.25" thickBot="1">
+    <row r="28" spans="2:6" ht="17.5" thickBot="1">
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
       <c r="D28" s="73"/>
@@ -3431,6 +3593,1554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94F1E-AEAC-412C-924D-C2896C7D07BA}">
+  <dimension ref="B1:K67"/>
+  <sheetViews>
+    <sheetView topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.75" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="76" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="30">
+      <c r="B1" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1">
+      <c r="B3" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="100"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5"/>
+      <c r="G5" s="1"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
+      <c r="B13" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
+      <c r="B14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" thickBot="1">
+      <c r="B15" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="84">
+        <v>1</v>
+      </c>
+      <c r="I16" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J16" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="83">
+        <v>1</v>
+      </c>
+      <c r="I17" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J17" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="85"/>
+    </row>
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J18" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="85"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="83">
+        <v>1</v>
+      </c>
+      <c r="I19" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J19" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="85"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="83">
+        <v>1</v>
+      </c>
+      <c r="I20" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J20" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="85"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="8">
+        <v>4</v>
+      </c>
+      <c r="I21" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J21" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="85"/>
+    </row>
+    <row r="22" spans="2:11" ht="165" customHeight="1">
+      <c r="B22" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J22" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="85"/>
+    </row>
+    <row r="23" spans="2:11" ht="70" customHeight="1">
+      <c r="B23" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J23" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="85"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="86"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="83">
+        <v>1</v>
+      </c>
+      <c r="I24" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J24" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="85"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="86"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="83">
+        <v>1</v>
+      </c>
+      <c r="I25" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J25" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="85"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="86"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="83">
+        <v>1</v>
+      </c>
+      <c r="I26" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J26" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="85"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="86"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="83">
+        <v>1</v>
+      </c>
+      <c r="I27" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J27" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="85"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="86"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+      <c r="I28" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J28" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="85"/>
+    </row>
+    <row r="29" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B29" s="86"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J29" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="85"/>
+    </row>
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B30" s="86"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J30" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="85"/>
+    </row>
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J31" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="85"/>
+    </row>
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B32" s="86"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J32" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="85"/>
+    </row>
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B33" s="86"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="83">
+        <v>1</v>
+      </c>
+      <c r="I33" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J33" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="85"/>
+    </row>
+    <row r="34" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B34" s="86"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2</v>
+      </c>
+      <c r="I34" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J34" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="85"/>
+    </row>
+    <row r="35" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B35" s="86"/>
+      <c r="C35" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J35" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="85"/>
+    </row>
+    <row r="36" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B36" s="86"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J36" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="85"/>
+    </row>
+    <row r="37" spans="2:11" ht="56.15" customHeight="1">
+      <c r="B37" s="86"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J37" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="85"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="92" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="93"/>
+      <c r="D38" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="H38" s="83">
+        <v>2</v>
+      </c>
+      <c r="I38" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J38" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="85"/>
+    </row>
+    <row r="39" spans="2:11" ht="34">
+      <c r="B39" s="94"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J39" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="85"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="83" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="83" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J40" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="85"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="93"/>
+      <c r="D41" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="83">
+        <v>1</v>
+      </c>
+      <c r="I41" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J41" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="85"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="83">
+        <v>3</v>
+      </c>
+      <c r="I42" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J42" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="83">
+        <v>3</v>
+      </c>
+      <c r="I43" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="85"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="83">
+        <v>4</v>
+      </c>
+      <c r="I44" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J44" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="85"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="83">
+        <v>1</v>
+      </c>
+      <c r="I45" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J45" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="85"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="96"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="83">
+        <v>3</v>
+      </c>
+      <c r="I46" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J46" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="85"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="93"/>
+      <c r="D47" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J47" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="94"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="83" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J48" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="K48" s="85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="96"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="83">
+        <v>1</v>
+      </c>
+      <c r="I49" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J49" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="83">
+        <v>1</v>
+      </c>
+      <c r="I50" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J50" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="85"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="86"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="83">
+        <v>2</v>
+      </c>
+      <c r="I51" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J51" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="85"/>
+    </row>
+    <row r="52" spans="2:11" ht="34">
+      <c r="B52" s="86"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+      <c r="I52" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J52" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="85"/>
+    </row>
+    <row r="53" spans="2:11" ht="34">
+      <c r="B53" s="86"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J53" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="85"/>
+    </row>
+    <row r="54" spans="2:11" ht="34">
+      <c r="B54" s="86"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J54" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="85"/>
+    </row>
+    <row r="55" spans="2:11" ht="34">
+      <c r="B55" s="86"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J55" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="85"/>
+    </row>
+    <row r="56" spans="2:11" ht="85">
+      <c r="B56" s="86"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="83" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="83" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J56" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="85"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="86"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="16">
+        <v>3</v>
+      </c>
+      <c r="I57" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J57" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="85"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="86"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="83">
+        <v>3</v>
+      </c>
+      <c r="I58" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J58" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="85"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="86"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="83">
+        <v>3</v>
+      </c>
+      <c r="I59" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J59" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="85"/>
+    </row>
+    <row r="60" spans="2:11" ht="34">
+      <c r="B60" s="86"/>
+      <c r="C60" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J60" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="85"/>
+    </row>
+    <row r="61" spans="2:11" ht="34">
+      <c r="B61" s="86"/>
+      <c r="C61" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4</v>
+      </c>
+      <c r="I61" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J61" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="34">
+      <c r="B62" s="86"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J62" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62" s="52"/>
+    </row>
+    <row r="63" spans="2:11" ht="119">
+      <c r="B63" s="86"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
+      <c r="I63" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J63" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="34">
+      <c r="B64" s="86"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3</v>
+      </c>
+      <c r="I64" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J64" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="85"/>
+    </row>
+    <row r="65" spans="2:11" ht="102">
+      <c r="B65" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="87"/>
+      <c r="D65" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="83">
+        <v>1</v>
+      </c>
+      <c r="I65" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J65" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="34">
+      <c r="B66" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="87"/>
+      <c r="D66" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="F66" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J66" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="90"/>
+    </row>
+    <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="53">
+        <v>3</v>
+      </c>
+      <c r="I67" s="64">
+        <v>44475</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C61:C64"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A63A04-B32C-4EF7-98CC-E072E813450C}">
   <dimension ref="B1:K67"/>
   <sheetViews>
@@ -3438,33 +5148,33 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="31.5">
+    <row r="1" spans="2:11" ht="30">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="32.25" thickBot="1">
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="83"/>
+      <c r="C3" s="100"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -3542,7 +5252,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1">
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -3550,7 +5260,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -3586,11 +5296,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
+      <c r="B16" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="80" t="s">
         <v>180</v>
       </c>
@@ -3635,7 +5345,7 @@
       </c>
       <c r="K17" s="79"/>
     </row>
-    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
       <c r="B18" s="86"/>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
@@ -3759,14 +5469,14 @@
       </c>
       <c r="K22" s="79"/>
     </row>
-    <row r="23" spans="2:11" ht="69.95" customHeight="1">
+    <row r="23" spans="2:11" ht="70" customHeight="1">
       <c r="B23" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="98" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="78" t="s">
@@ -3791,8 +5501,8 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="86"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="78" t="s">
         <v>189</v>
       </c>
@@ -3815,8 +5525,8 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="86"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="78" t="s">
         <v>190</v>
       </c>
@@ -3839,8 +5549,8 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="86"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88" t="s">
+      <c r="C26" s="98"/>
+      <c r="D26" s="98" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="78" t="s">
@@ -3865,8 +5575,8 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="86"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="78" t="s">
         <v>192</v>
       </c>
@@ -3889,8 +5599,8 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="86"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="78" t="s">
         <v>193</v>
       </c>
@@ -3911,10 +5621,10 @@
       </c>
       <c r="K28" s="79"/>
     </row>
-    <row r="29" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="29" spans="2:11" ht="38.5" customHeight="1">
       <c r="B29" s="86"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89" t="s">
+      <c r="C29" s="98"/>
+      <c r="D29" s="103" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="78" t="s">
@@ -3937,10 +5647,10 @@
       </c>
       <c r="K29" s="79"/>
     </row>
-    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
       <c r="B30" s="86"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="90"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="104"/>
       <c r="E30" s="78" t="s">
         <v>195</v>
       </c>
@@ -3961,10 +5671,10 @@
       </c>
       <c r="K30" s="79"/>
     </row>
-    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
       <c r="B31" s="86"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="91"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="78" t="s">
         <v>196</v>
       </c>
@@ -3985,10 +5695,10 @@
       </c>
       <c r="K31" s="79"/>
     </row>
-    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
       <c r="B32" s="86"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="92" t="s">
+      <c r="C32" s="98"/>
+      <c r="D32" s="106" t="s">
         <v>284</v>
       </c>
       <c r="E32" s="78" t="s">
@@ -4011,10 +5721,10 @@
       </c>
       <c r="K32" s="79"/>
     </row>
-    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
       <c r="B33" s="86"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="91"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="78" t="s">
         <v>198</v>
       </c>
@@ -4035,9 +5745,9 @@
       </c>
       <c r="K33" s="79"/>
     </row>
-    <row r="34" spans="2:11" ht="39.6" customHeight="1">
+    <row r="34" spans="2:11" ht="39.65" customHeight="1">
       <c r="B34" s="86"/>
-      <c r="C34" s="88"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="78" t="s">
         <v>39</v>
       </c>
@@ -4061,9 +5771,9 @@
       </c>
       <c r="K34" s="79"/>
     </row>
-    <row r="35" spans="2:11" ht="39.6" customHeight="1">
+    <row r="35" spans="2:11" ht="39.65" customHeight="1">
       <c r="B35" s="86"/>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="98" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="78" t="s">
@@ -4089,9 +5799,9 @@
       </c>
       <c r="K35" s="79"/>
     </row>
-    <row r="36" spans="2:11" ht="39.6" customHeight="1">
+    <row r="36" spans="2:11" ht="39.65" customHeight="1">
       <c r="B36" s="86"/>
-      <c r="C36" s="88"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="78" t="s">
         <v>39</v>
       </c>
@@ -4115,9 +5825,9 @@
       </c>
       <c r="K36" s="79"/>
     </row>
-    <row r="37" spans="2:11" ht="56.1" customHeight="1">
+    <row r="37" spans="2:11" ht="56.15" customHeight="1">
       <c r="B37" s="86"/>
-      <c r="C37" s="88"/>
+      <c r="C37" s="98"/>
       <c r="D37" s="78" t="s">
         <v>45</v>
       </c>
@@ -4142,10 +5852,10 @@
       <c r="K37" s="79"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="C38" s="98"/>
+      <c r="C38" s="93"/>
       <c r="D38" s="78" t="s">
         <v>74</v>
       </c>
@@ -4169,9 +5879,9 @@
       </c>
       <c r="K38" s="79"/>
     </row>
-    <row r="39" spans="2:11" ht="49.5">
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
+    <row r="39" spans="2:11" ht="51">
+      <c r="B39" s="94"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="78" t="s">
         <v>75</v>
       </c>
@@ -4196,8 +5906,8 @@
       <c r="K39" s="79"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="101"/>
-      <c r="C40" s="102"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
       <c r="D40" s="78" t="s">
         <v>285</v>
       </c>
@@ -4222,10 +5932,10 @@
       <c r="K40" s="79"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="98"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="78" t="s">
         <v>30</v>
       </c>
@@ -4250,8 +5960,8 @@
       <c r="K41" s="79"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="78" t="s">
         <v>117</v>
       </c>
@@ -4276,8 +5986,8 @@
       <c r="K42" s="51"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="99"/>
-      <c r="C43" s="100"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="78" t="s">
         <v>118</v>
       </c>
@@ -4302,8 +6012,8 @@
       <c r="K43" s="79"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="99"/>
-      <c r="C44" s="100"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="78" t="s">
         <v>125</v>
       </c>
@@ -4328,8 +6038,8 @@
       <c r="K44" s="79"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="99"/>
-      <c r="C45" s="100"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
       <c r="D45" s="78" t="s">
         <v>290</v>
       </c>
@@ -4354,8 +6064,8 @@
       <c r="K45" s="79"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="101"/>
-      <c r="C46" s="102"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="97"/>
       <c r="D46" s="78" t="s">
         <v>290</v>
       </c>
@@ -4380,10 +6090,10 @@
       <c r="K46" s="79"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="C47" s="98"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="78" t="s">
         <v>30</v>
       </c>
@@ -4410,8 +6120,8 @@
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="99"/>
-      <c r="C48" s="100"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="95"/>
       <c r="D48" s="78" t="s">
         <v>30</v>
       </c>
@@ -4438,8 +6148,8 @@
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="78" t="s">
         <v>30</v>
       </c>
@@ -4469,10 +6179,10 @@
       <c r="B50" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="88" t="s">
+      <c r="C50" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="88" t="s">
+      <c r="D50" s="98" t="s">
         <v>49</v>
       </c>
       <c r="E50" s="78" t="s">
@@ -4497,8 +6207,8 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="86"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
       <c r="E51" s="81" t="s">
         <v>223</v>
       </c>
@@ -4519,10 +6229,10 @@
       </c>
       <c r="K51" s="79"/>
     </row>
-    <row r="52" spans="2:11" ht="33">
+    <row r="52" spans="2:11" ht="34">
       <c r="B52" s="86"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88" t="s">
+      <c r="C52" s="98"/>
+      <c r="D52" s="98" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="81" t="s">
@@ -4545,10 +6255,10 @@
       </c>
       <c r="K52" s="79"/>
     </row>
-    <row r="53" spans="2:11" ht="33">
+    <row r="53" spans="2:11" ht="34">
       <c r="B53" s="86"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
       <c r="E53" s="81" t="s">
         <v>225</v>
       </c>
@@ -4569,9 +6279,9 @@
       </c>
       <c r="K53" s="79"/>
     </row>
-    <row r="54" spans="2:11" ht="33">
+    <row r="54" spans="2:11" ht="34">
       <c r="B54" s="86"/>
-      <c r="C54" s="88"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="78" t="s">
         <v>112</v>
       </c>
@@ -4595,9 +6305,9 @@
       </c>
       <c r="K54" s="79"/>
     </row>
-    <row r="55" spans="2:11" ht="33">
+    <row r="55" spans="2:11" ht="34">
       <c r="B55" s="86"/>
-      <c r="C55" s="88"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="78" t="s">
         <v>111</v>
       </c>
@@ -4621,9 +6331,9 @@
       </c>
       <c r="K55" s="79"/>
     </row>
-    <row r="56" spans="2:11" ht="82.5">
+    <row r="56" spans="2:11" ht="85">
       <c r="B56" s="86"/>
-      <c r="C56" s="88"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="78" t="s">
         <v>304</v>
       </c>
@@ -4649,7 +6359,7 @@
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="86"/>
-      <c r="C57" s="88"/>
+      <c r="C57" s="98"/>
       <c r="D57" s="78" t="s">
         <v>85</v>
       </c>
@@ -4675,7 +6385,7 @@
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="86"/>
-      <c r="C58" s="88"/>
+      <c r="C58" s="98"/>
       <c r="D58" s="78" t="s">
         <v>77</v>
       </c>
@@ -4701,7 +6411,7 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="86"/>
-      <c r="C59" s="88"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="78" t="s">
         <v>77</v>
       </c>
@@ -4725,7 +6435,7 @@
       </c>
       <c r="K59" s="79"/>
     </row>
-    <row r="60" spans="2:11" ht="33">
+    <row r="60" spans="2:11" ht="34">
       <c r="B60" s="86"/>
       <c r="C60" s="78" t="s">
         <v>56</v>
@@ -4753,9 +6463,9 @@
       </c>
       <c r="K60" s="79"/>
     </row>
-    <row r="61" spans="2:11" ht="33">
+    <row r="61" spans="2:11" ht="34">
       <c r="B61" s="86"/>
-      <c r="C61" s="88" t="s">
+      <c r="C61" s="98" t="s">
         <v>84</v>
       </c>
       <c r="D61" s="78" t="s">
@@ -4783,9 +6493,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="33">
+    <row r="62" spans="2:11" ht="34">
       <c r="B62" s="86"/>
-      <c r="C62" s="88"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="78" t="s">
         <v>39</v>
       </c>
@@ -4809,9 +6519,9 @@
       </c>
       <c r="K62" s="52"/>
     </row>
-    <row r="63" spans="2:11" ht="132">
+    <row r="63" spans="2:11" ht="119">
       <c r="B63" s="86"/>
-      <c r="C63" s="88"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="78" t="s">
         <v>39</v>
       </c>
@@ -4837,9 +6547,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="33">
+    <row r="64" spans="2:11" ht="34">
       <c r="B64" s="86"/>
-      <c r="C64" s="88"/>
+      <c r="C64" s="98"/>
       <c r="D64" s="78" t="s">
         <v>39</v>
       </c>
@@ -4863,7 +6573,7 @@
       </c>
       <c r="K64" s="79"/>
     </row>
-    <row r="65" spans="2:11" ht="99">
+    <row r="65" spans="2:11" ht="102">
       <c r="B65" s="86" t="s">
         <v>16</v>
       </c>
@@ -4893,7 +6603,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="33">
+    <row r="66" spans="2:11" ht="34">
       <c r="B66" s="86" t="s">
         <v>268</v>
       </c>
@@ -4919,11 +6629,11 @@
       <c r="J66" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="95"/>
-    </row>
-    <row r="67" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
+      <c r="K66" s="90"/>
+    </row>
+    <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="53" t="s">
         <v>75</v>
       </c>
@@ -4945,7 +6655,7 @@
       <c r="J67" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="96"/>
+      <c r="K67" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4978,7 +6688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF8E6D5-6820-4B3F-ABEE-B157CB23A55C}">
   <dimension ref="B1:K66"/>
   <sheetViews>
@@ -4986,33 +6696,33 @@
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="31.5">
+    <row r="1" spans="2:11" ht="30">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="32.25" thickBot="1">
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="83"/>
+      <c r="C3" s="100"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -5090,7 +6800,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1">
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -5098,7 +6808,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -5134,11 +6844,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
+      <c r="B16" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="41" t="s">
         <v>180</v>
       </c>
@@ -5183,7 +6893,7 @@
       </c>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
       <c r="B18" s="86"/>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
@@ -5307,7 +7017,7 @@
       </c>
       <c r="K22" s="60"/>
     </row>
-    <row r="23" spans="2:11" ht="81.95" customHeight="1">
+    <row r="23" spans="2:11" ht="82" customHeight="1">
       <c r="B23" s="86"/>
       <c r="C23" s="87"/>
       <c r="D23" s="40" t="s">
@@ -5333,14 +7043,14 @@
       </c>
       <c r="K23" s="60"/>
     </row>
-    <row r="24" spans="2:11" ht="69.95" customHeight="1">
+    <row r="24" spans="2:11" ht="70" customHeight="1">
       <c r="B24" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="98" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="40" t="s">
@@ -5365,8 +7075,8 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="86"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="40" t="s">
         <v>189</v>
       </c>
@@ -5389,8 +7099,8 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="86"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="40" t="s">
         <v>190</v>
       </c>
@@ -5413,8 +7123,8 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="86"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="98" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="40" t="s">
@@ -5439,8 +7149,8 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="86"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="40" t="s">
         <v>192</v>
       </c>
@@ -5463,8 +7173,8 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="86"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="40" t="s">
         <v>193</v>
       </c>
@@ -5485,10 +7195,10 @@
       </c>
       <c r="K29" s="60"/>
     </row>
-    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
       <c r="B30" s="86"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="103" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="40" t="s">
@@ -5511,10 +7221,10 @@
       </c>
       <c r="K30" s="60"/>
     </row>
-    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
       <c r="B31" s="86"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="90"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="104"/>
       <c r="E31" s="40" t="s">
         <v>195</v>
       </c>
@@ -5535,10 +7245,10 @@
       </c>
       <c r="K31" s="60"/>
     </row>
-    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
       <c r="B32" s="86"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="91"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="105"/>
       <c r="E32" s="40" t="s">
         <v>196</v>
       </c>
@@ -5559,10 +7269,10 @@
       </c>
       <c r="K32" s="60"/>
     </row>
-    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
       <c r="B33" s="86"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="92" t="s">
+      <c r="C33" s="98"/>
+      <c r="D33" s="106" t="s">
         <v>284</v>
       </c>
       <c r="E33" s="40" t="s">
@@ -5585,10 +7295,10 @@
       </c>
       <c r="K33" s="60"/>
     </row>
-    <row r="34" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="34" spans="2:11" ht="38.5" customHeight="1">
       <c r="B34" s="86"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="91"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="40" t="s">
         <v>198</v>
       </c>
@@ -5609,9 +7319,9 @@
       </c>
       <c r="K34" s="60"/>
     </row>
-    <row r="35" spans="2:11" ht="39.6" customHeight="1">
+    <row r="35" spans="2:11" ht="39.65" customHeight="1">
       <c r="B35" s="86"/>
-      <c r="C35" s="88"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="76" t="s">
         <v>39</v>
       </c>
@@ -5635,9 +7345,9 @@
       </c>
       <c r="K35" s="60"/>
     </row>
-    <row r="36" spans="2:11" ht="39.6" customHeight="1">
+    <row r="36" spans="2:11" ht="39.65" customHeight="1">
       <c r="B36" s="86"/>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="98" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="40" t="s">
@@ -5663,9 +7373,9 @@
       </c>
       <c r="K36" s="60"/>
     </row>
-    <row r="37" spans="2:11" ht="39.6" customHeight="1">
+    <row r="37" spans="2:11" ht="39.65" customHeight="1">
       <c r="B37" s="86"/>
-      <c r="C37" s="88"/>
+      <c r="C37" s="98"/>
       <c r="D37" s="40" t="s">
         <v>39</v>
       </c>
@@ -5689,9 +7399,9 @@
       </c>
       <c r="K37" s="60"/>
     </row>
-    <row r="38" spans="2:11" ht="56.1" customHeight="1">
+    <row r="38" spans="2:11" ht="56.15" customHeight="1">
       <c r="B38" s="86"/>
-      <c r="C38" s="88"/>
+      <c r="C38" s="98"/>
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
@@ -5719,10 +7429,10 @@
       <c r="B39" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="98" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="40" t="s">
@@ -5747,8 +7457,8 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="86"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
       <c r="E40" s="40" t="s">
         <v>223</v>
       </c>
@@ -5769,10 +7479,10 @@
       </c>
       <c r="K40" s="60"/>
     </row>
-    <row r="41" spans="2:11" ht="66">
+    <row r="41" spans="2:11" ht="68">
       <c r="B41" s="86"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88" t="s">
+      <c r="C41" s="98"/>
+      <c r="D41" s="98" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="40" t="s">
@@ -5795,10 +7505,10 @@
       </c>
       <c r="K41" s="60"/>
     </row>
-    <row r="42" spans="2:11" ht="33">
+    <row r="42" spans="2:11" ht="34">
       <c r="B42" s="86"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="40" t="s">
         <v>225</v>
       </c>
@@ -5819,10 +7529,10 @@
       </c>
       <c r="K42" s="60"/>
     </row>
-    <row r="43" spans="2:11" ht="33">
+    <row r="43" spans="2:11" ht="34">
       <c r="B43" s="86"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
       <c r="E43" s="40" t="s">
         <v>226</v>
       </c>
@@ -5843,9 +7553,9 @@
       </c>
       <c r="K43" s="60"/>
     </row>
-    <row r="44" spans="2:11" ht="33">
+    <row r="44" spans="2:11" ht="34">
       <c r="B44" s="86"/>
-      <c r="C44" s="88"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="40" t="s">
         <v>112</v>
       </c>
@@ -5869,9 +7579,9 @@
       </c>
       <c r="K44" s="60"/>
     </row>
-    <row r="45" spans="2:11" ht="33">
+    <row r="45" spans="2:11" ht="34">
       <c r="B45" s="86"/>
-      <c r="C45" s="88"/>
+      <c r="C45" s="98"/>
       <c r="D45" s="40" t="s">
         <v>111</v>
       </c>
@@ -5895,9 +7605,9 @@
       </c>
       <c r="K45" s="60"/>
     </row>
-    <row r="46" spans="2:11" ht="33">
+    <row r="46" spans="2:11" ht="34">
       <c r="B46" s="86"/>
-      <c r="C46" s="88"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="40" t="s">
         <v>107</v>
       </c>
@@ -5923,7 +7633,7 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="86"/>
-      <c r="C47" s="88"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="40" t="s">
         <v>85</v>
       </c>
@@ -5949,7 +7659,7 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="86"/>
-      <c r="C48" s="88"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="40" t="s">
         <v>77</v>
       </c>
@@ -5975,7 +7685,7 @@
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="86"/>
-      <c r="C49" s="88"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="40" t="s">
         <v>77</v>
       </c>
@@ -5999,7 +7709,7 @@
       </c>
       <c r="K49" s="60"/>
     </row>
-    <row r="50" spans="2:11" ht="33">
+    <row r="50" spans="2:11" ht="34">
       <c r="B50" s="86"/>
       <c r="C50" s="40" t="s">
         <v>56</v>
@@ -6027,9 +7737,9 @@
       </c>
       <c r="K50" s="60"/>
     </row>
-    <row r="51" spans="2:11" ht="33">
+    <row r="51" spans="2:11" ht="34">
       <c r="B51" s="86"/>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="98" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -6057,9 +7767,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="33">
+    <row r="52" spans="2:11" ht="34">
       <c r="B52" s="86"/>
-      <c r="C52" s="88"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="40" t="s">
         <v>39</v>
       </c>
@@ -6083,9 +7793,9 @@
       </c>
       <c r="K52" s="52"/>
     </row>
-    <row r="53" spans="2:11" ht="132">
+    <row r="53" spans="2:11" ht="119">
       <c r="B53" s="86"/>
-      <c r="C53" s="88"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="40" t="s">
         <v>39</v>
       </c>
@@ -6111,9 +7821,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="33">
+    <row r="54" spans="2:11" ht="34">
       <c r="B54" s="86"/>
-      <c r="C54" s="88"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="40" t="s">
         <v>39</v>
       </c>
@@ -6227,7 +7937,7 @@
       </c>
       <c r="K57" s="60"/>
     </row>
-    <row r="58" spans="2:11" ht="49.5">
+    <row r="58" spans="2:11" ht="51">
       <c r="B58" s="86"/>
       <c r="C58" s="87"/>
       <c r="D58" s="40" t="s">
@@ -6285,7 +7995,7 @@
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="86"/>
-      <c r="C60" s="88" t="s">
+      <c r="C60" s="98" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="40" t="s">
@@ -6313,7 +8023,7 @@
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="86"/>
-      <c r="C61" s="88"/>
+      <c r="C61" s="98"/>
       <c r="D61" s="40" t="s">
         <v>118</v>
       </c>
@@ -6395,7 +8105,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="99">
+    <row r="64" spans="2:11" ht="102">
       <c r="B64" s="86" t="s">
         <v>16</v>
       </c>
@@ -6425,7 +8135,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="33">
+    <row r="65" spans="2:11" ht="34">
       <c r="B65" s="86" t="s">
         <v>268</v>
       </c>
@@ -6451,11 +8161,11 @@
       <c r="J65" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="K65" s="95"/>
-    </row>
-    <row r="66" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
-      <c r="B66" s="93"/>
-      <c r="C66" s="94"/>
+      <c r="K65" s="90"/>
+    </row>
+    <row r="66" spans="2:11" ht="301" customHeight="1" thickBot="1">
+      <c r="B66" s="88"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="53" t="s">
         <v>75</v>
       </c>
@@ -6477,7 +8187,7 @@
       <c r="J66" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="96"/>
+      <c r="K66" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -6511,7 +8221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BD3A42-6A7E-4449-A6C1-52E221A53C86}">
   <dimension ref="B1:K68"/>
   <sheetViews>
@@ -6519,33 +8229,33 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="31.5">
+    <row r="1" spans="2:11" ht="30">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="32.25" thickBot="1">
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="83"/>
+      <c r="C3" s="100"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -6623,7 +8333,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1">
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -6631,7 +8341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -6667,11 +8377,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
+      <c r="B16" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="35" t="s">
         <v>180</v>
       </c>
@@ -6716,7 +8426,7 @@
       </c>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
       <c r="B18" s="86"/>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
@@ -6840,7 +8550,7 @@
       </c>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="2:11" ht="81.95" customHeight="1">
+    <row r="23" spans="2:11" ht="82" customHeight="1">
       <c r="B23" s="86"/>
       <c r="C23" s="87"/>
       <c r="D23" s="36" t="s">
@@ -6866,14 +8576,14 @@
       </c>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="2:11" ht="69.95" customHeight="1">
+    <row r="24" spans="2:11" ht="70" customHeight="1">
       <c r="B24" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="98" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="36" t="s">
@@ -6898,8 +8608,8 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="86"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="36" t="s">
         <v>189</v>
       </c>
@@ -6922,8 +8632,8 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="86"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="36" t="s">
         <v>190</v>
       </c>
@@ -6946,8 +8656,8 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="86"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="98" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="36" t="s">
@@ -6972,8 +8682,8 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="86"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="36" t="s">
         <v>192</v>
       </c>
@@ -6996,8 +8706,8 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="86"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="36" t="s">
         <v>193</v>
       </c>
@@ -7018,10 +8728,10 @@
       </c>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
       <c r="B30" s="86"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="98" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="36" t="s">
@@ -7044,10 +8754,10 @@
       </c>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
       <c r="B31" s="86"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="36" t="s">
         <v>195</v>
       </c>
@@ -7068,10 +8778,10 @@
       </c>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
       <c r="B32" s="86"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="36" t="s">
         <v>196</v>
       </c>
@@ -7092,10 +8802,10 @@
       </c>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
       <c r="B33" s="86"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
       <c r="E33" s="36" t="s">
         <v>197</v>
       </c>
@@ -7116,10 +8826,10 @@
       </c>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="34" spans="2:11" ht="38.5" customHeight="1">
       <c r="B34" s="86"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="36" t="s">
         <v>198</v>
       </c>
@@ -7140,10 +8850,10 @@
       </c>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="35" spans="2:11" ht="38.5" customHeight="1">
       <c r="B35" s="86"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88" t="s">
+      <c r="C35" s="98"/>
+      <c r="D35" s="98" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="36" t="s">
@@ -7166,10 +8876,10 @@
       </c>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="36" spans="2:11" ht="38.5" customHeight="1">
       <c r="B36" s="86"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="36" t="s">
         <v>200</v>
       </c>
@@ -7190,10 +8900,10 @@
       </c>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="2:11" ht="39.6" customHeight="1">
+    <row r="37" spans="2:11" ht="39.65" customHeight="1">
       <c r="B37" s="86"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="36" t="s">
         <v>201</v>
       </c>
@@ -7214,9 +8924,9 @@
       </c>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="2:11" ht="39.6" customHeight="1">
+    <row r="38" spans="2:11" ht="39.65" customHeight="1">
       <c r="B38" s="86"/>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="98" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="36" t="s">
@@ -7242,9 +8952,9 @@
       </c>
       <c r="K38" s="50"/>
     </row>
-    <row r="39" spans="2:11" ht="39.6" customHeight="1">
+    <row r="39" spans="2:11" ht="39.65" customHeight="1">
       <c r="B39" s="86"/>
-      <c r="C39" s="88"/>
+      <c r="C39" s="98"/>
       <c r="D39" s="36" t="s">
         <v>39</v>
       </c>
@@ -7268,9 +8978,9 @@
       </c>
       <c r="K39" s="50"/>
     </row>
-    <row r="40" spans="2:11" ht="56.1" customHeight="1">
+    <row r="40" spans="2:11" ht="56.15" customHeight="1">
       <c r="B40" s="86"/>
-      <c r="C40" s="88"/>
+      <c r="C40" s="98"/>
       <c r="D40" s="36" t="s">
         <v>45</v>
       </c>
@@ -7298,10 +9008,10 @@
       <c r="B41" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="88" t="s">
+      <c r="D41" s="98" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -7326,8 +9036,8 @@
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="86"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="36" t="s">
         <v>223</v>
       </c>
@@ -7348,10 +9058,10 @@
       </c>
       <c r="K42" s="50"/>
     </row>
-    <row r="43" spans="2:11" ht="66">
+    <row r="43" spans="2:11" ht="68">
       <c r="B43" s="86"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88" t="s">
+      <c r="C43" s="98"/>
+      <c r="D43" s="98" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="36" t="s">
@@ -7374,10 +9084,10 @@
       </c>
       <c r="K43" s="50"/>
     </row>
-    <row r="44" spans="2:11" ht="33">
+    <row r="44" spans="2:11" ht="34">
       <c r="B44" s="86"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
       <c r="E44" s="36" t="s">
         <v>225</v>
       </c>
@@ -7398,10 +9108,10 @@
       </c>
       <c r="K44" s="50"/>
     </row>
-    <row r="45" spans="2:11" ht="33">
+    <row r="45" spans="2:11" ht="34">
       <c r="B45" s="86"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
       <c r="E45" s="36" t="s">
         <v>226</v>
       </c>
@@ -7422,9 +9132,9 @@
       </c>
       <c r="K45" s="50"/>
     </row>
-    <row r="46" spans="2:11" ht="33">
+    <row r="46" spans="2:11" ht="34">
       <c r="B46" s="86"/>
-      <c r="C46" s="88"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="36" t="s">
         <v>112</v>
       </c>
@@ -7448,9 +9158,9 @@
       </c>
       <c r="K46" s="50"/>
     </row>
-    <row r="47" spans="2:11" ht="33">
+    <row r="47" spans="2:11" ht="34">
       <c r="B47" s="86"/>
-      <c r="C47" s="88"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="36" t="s">
         <v>111</v>
       </c>
@@ -7474,9 +9184,9 @@
       </c>
       <c r="K47" s="50"/>
     </row>
-    <row r="48" spans="2:11" ht="33">
+    <row r="48" spans="2:11" ht="34">
       <c r="B48" s="86"/>
-      <c r="C48" s="88"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="36" t="s">
         <v>107</v>
       </c>
@@ -7502,7 +9212,7 @@
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="86"/>
-      <c r="C49" s="88"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="36" t="s">
         <v>85</v>
       </c>
@@ -7528,7 +9238,7 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="86"/>
-      <c r="C50" s="88"/>
+      <c r="C50" s="98"/>
       <c r="D50" s="36" t="s">
         <v>77</v>
       </c>
@@ -7554,7 +9264,7 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="86"/>
-      <c r="C51" s="88"/>
+      <c r="C51" s="98"/>
       <c r="D51" s="36" t="s">
         <v>77</v>
       </c>
@@ -7578,7 +9288,7 @@
       </c>
       <c r="K51" s="50"/>
     </row>
-    <row r="52" spans="2:11" ht="33">
+    <row r="52" spans="2:11" ht="34">
       <c r="B52" s="86"/>
       <c r="C52" s="36" t="s">
         <v>56</v>
@@ -7606,9 +9316,9 @@
       </c>
       <c r="K52" s="50"/>
     </row>
-    <row r="53" spans="2:11" ht="33">
+    <row r="53" spans="2:11" ht="34">
       <c r="B53" s="86"/>
-      <c r="C53" s="88" t="s">
+      <c r="C53" s="98" t="s">
         <v>84</v>
       </c>
       <c r="D53" s="36" t="s">
@@ -7636,9 +9346,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="33">
+    <row r="54" spans="2:11" ht="34">
       <c r="B54" s="86"/>
-      <c r="C54" s="88"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="36" t="s">
         <v>39</v>
       </c>
@@ -7662,9 +9372,9 @@
       </c>
       <c r="K54" s="52"/>
     </row>
-    <row r="55" spans="2:11" ht="132">
+    <row r="55" spans="2:11" ht="119">
       <c r="B55" s="86"/>
-      <c r="C55" s="88"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="36" t="s">
         <v>39</v>
       </c>
@@ -7690,9 +9400,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="33">
+    <row r="56" spans="2:11" ht="34">
       <c r="B56" s="86"/>
-      <c r="C56" s="88"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="36" t="s">
         <v>39</v>
       </c>
@@ -7806,7 +9516,7 @@
       </c>
       <c r="K59" s="50"/>
     </row>
-    <row r="60" spans="2:11" ht="49.5">
+    <row r="60" spans="2:11" ht="51">
       <c r="B60" s="86"/>
       <c r="C60" s="87"/>
       <c r="D60" s="36" t="s">
@@ -7864,7 +9574,7 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="86"/>
-      <c r="C62" s="88" t="s">
+      <c r="C62" s="98" t="s">
         <v>68</v>
       </c>
       <c r="D62" s="36" t="s">
@@ -7892,7 +9602,7 @@
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="86"/>
-      <c r="C63" s="88"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="36" t="s">
         <v>118</v>
       </c>
@@ -7972,7 +9682,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="99">
+    <row r="66" spans="2:11" ht="102">
       <c r="B66" s="86" t="s">
         <v>16</v>
       </c>
@@ -8002,7 +9712,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="33">
+    <row r="67" spans="2:11" ht="34">
       <c r="B67" s="86" t="s">
         <v>268</v>
       </c>
@@ -8028,11 +9738,11 @@
       <c r="J67" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="95"/>
-    </row>
-    <row r="68" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
-      <c r="B68" s="93"/>
-      <c r="C68" s="94"/>
+      <c r="K67" s="90"/>
+    </row>
+    <row r="68" spans="2:11" ht="301" customHeight="1" thickBot="1">
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="53" t="s">
         <v>75</v>
       </c>
@@ -8054,7 +9764,7 @@
       <c r="J68" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K68" s="96"/>
+      <c r="K68" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8088,7 +9798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2F09C0-156E-4DA5-A577-69CE2AAC7D43}">
   <dimension ref="A2:H55"/>
   <sheetViews>
@@ -8096,15 +9806,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="101.75" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8135,11 +9845,11 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
+      <c r="A3" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
       <c r="D3" s="2" t="s">
         <v>180</v>
       </c>
@@ -8155,9 +9865,9 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="30" t="s">
         <v>181</v>
       </c>
@@ -8172,10 +9882,10 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="42.6" customHeight="1">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
+    <row r="5" spans="1:8" ht="42.65" customHeight="1">
+      <c r="A5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="30" t="s">
         <v>182</v>
       </c>
@@ -8191,9 +9901,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="30" t="s">
         <v>183</v>
       </c>
@@ -8209,9 +9919,9 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="30" t="s">
         <v>184</v>
       </c>
@@ -8227,9 +9937,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="30" t="s">
         <v>185</v>
       </c>
@@ -8245,10 +9955,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="165" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="125"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
@@ -8266,9 +9976,9 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="81.95" customHeight="1">
-      <c r="A10" s="125"/>
-      <c r="B10" s="125"/>
+    <row r="10" spans="1:8" ht="82" customHeight="1">
+      <c r="A10" s="129"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="2" t="s">
         <v>141</v>
       </c>
@@ -8286,14 +9996,14 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="69.95" customHeight="1">
-      <c r="A11" s="125" t="s">
+    <row r="11" spans="1:8" ht="70" customHeight="1">
+      <c r="A11" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="98" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -8311,9 +10021,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="125"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="88"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="30" t="s">
         <v>189</v>
       </c>
@@ -8329,9 +10039,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="125"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="88"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="30" t="s">
         <v>190</v>
       </c>
@@ -8347,9 +10057,9 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="125"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="89" t="s">
+      <c r="A14" s="129"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="103" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -8367,9 +10077,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="125"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="90"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="30" t="s">
         <v>192</v>
       </c>
@@ -8385,9 +10095,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="125"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="90"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="30" t="s">
         <v>193</v>
       </c>
@@ -8402,10 +10112,10 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A17" s="125"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="89" t="s">
+    <row r="17" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A17" s="129"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="103" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -8422,10 +10132,10 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="90"/>
+    <row r="18" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A18" s="129"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="30" t="s">
         <v>195</v>
       </c>
@@ -8440,10 +10150,10 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="90"/>
+    <row r="19" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A19" s="129"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="30" t="s">
         <v>196</v>
       </c>
@@ -8458,10 +10168,10 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="90"/>
+    <row r="20" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A20" s="129"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="30" t="s">
         <v>197</v>
       </c>
@@ -8476,10 +10186,10 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="91"/>
+    <row r="21" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A21" s="129"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="30" t="s">
         <v>198</v>
       </c>
@@ -8494,10 +10204,10 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="89" t="s">
+    <row r="22" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A22" s="129"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="103" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -8514,10 +10224,10 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="90"/>
+    <row r="23" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A23" s="129"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="30" t="s">
         <v>200</v>
       </c>
@@ -8532,10 +10242,10 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="91"/>
+    <row r="24" spans="1:8" ht="39.65" customHeight="1">
+      <c r="A24" s="129"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="30" t="s">
         <v>201</v>
       </c>
@@ -8550,9 +10260,9 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="89" t="s">
+    <row r="25" spans="1:8" ht="39.65" customHeight="1">
+      <c r="A25" s="129"/>
+      <c r="B25" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -8572,9 +10282,9 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="90"/>
+    <row r="26" spans="1:8" ht="39.65" customHeight="1">
+      <c r="A26" s="129"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
@@ -8592,9 +10302,9 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="56.1" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="91"/>
+    <row r="27" spans="1:8" ht="56.15" customHeight="1">
+      <c r="A27" s="129"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
@@ -8613,13 +10323,13 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="103" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -8637,9 +10347,9 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="109"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="30" t="s">
         <v>206</v>
       </c>
@@ -8654,10 +10364,10 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="66">
-      <c r="A30" s="109"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="89" t="s">
+    <row r="30" spans="1:8" ht="68">
+      <c r="A30" s="113"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="103" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="30" t="s">
@@ -8674,10 +10384,10 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="33">
-      <c r="A31" s="109"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
+    <row r="31" spans="1:8" ht="34">
+      <c r="A31" s="113"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="30" t="s">
         <v>208</v>
       </c>
@@ -8692,10 +10402,10 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="33">
-      <c r="A32" s="109"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+    <row r="32" spans="1:8" ht="34">
+      <c r="A32" s="113"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="30" t="s">
         <v>209</v>
       </c>
@@ -8710,9 +10420,9 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="33">
-      <c r="A33" s="109"/>
-      <c r="B33" s="90"/>
+    <row r="33" spans="1:8" ht="34">
+      <c r="A33" s="113"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="2" t="s">
         <v>112</v>
       </c>
@@ -8730,9 +10440,9 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="109"/>
-      <c r="B34" s="90"/>
+    <row r="34" spans="1:8" ht="34">
+      <c r="A34" s="113"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="2" t="s">
         <v>111</v>
       </c>
@@ -8750,9 +10460,9 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="33">
-      <c r="A35" s="109"/>
-      <c r="B35" s="90"/>
+    <row r="35" spans="1:8" ht="34">
+      <c r="A35" s="113"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
@@ -8771,8 +10481,8 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="109"/>
-      <c r="B36" s="90"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="2" t="s">
         <v>85</v>
       </c>
@@ -8791,8 +10501,8 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="109"/>
-      <c r="B37" s="90"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="2" t="s">
         <v>77</v>
       </c>
@@ -8811,8 +10521,8 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="109"/>
-      <c r="B38" s="91"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
@@ -8830,8 +10540,8 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="33">
-      <c r="A39" s="109"/>
+    <row r="39" spans="1:8" ht="34">
+      <c r="A39" s="113"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
@@ -8852,9 +10562,9 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="33">
-      <c r="A40" s="109"/>
-      <c r="B40" s="89" t="s">
+    <row r="40" spans="1:8" ht="34">
+      <c r="A40" s="113"/>
+      <c r="B40" s="103" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -8876,9 +10586,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33">
-      <c r="A41" s="109"/>
-      <c r="B41" s="90"/>
+    <row r="41" spans="1:8" ht="34">
+      <c r="A41" s="113"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
@@ -8896,9 +10606,9 @@
       </c>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" ht="132">
-      <c r="A42" s="109"/>
-      <c r="B42" s="90"/>
+    <row r="42" spans="1:8" ht="119">
+      <c r="A42" s="113"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
@@ -8918,9 +10628,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="33">
-      <c r="A43" s="110"/>
-      <c r="B43" s="91"/>
+    <row r="43" spans="1:8" ht="34">
+      <c r="A43" s="114"/>
+      <c r="B43" s="105"/>
       <c r="C43" s="2" t="s">
         <v>39</v>
       </c>
@@ -8939,7 +10649,7 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="107" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -8965,7 +10675,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="105"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
@@ -8989,10 +10699,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="103" t="s">
+      <c r="A46" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="104"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
@@ -9010,9 +10720,9 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="49.5">
-      <c r="A47" s="105"/>
-      <c r="B47" s="106"/>
+    <row r="47" spans="1:8" ht="51">
+      <c r="A47" s="109"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="2" t="s">
         <v>75</v>
       </c>
@@ -9031,7 +10741,7 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="107" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -9055,8 +10765,8 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="107"/>
-      <c r="B49" s="88" t="s">
+      <c r="A49" s="111"/>
+      <c r="B49" s="98" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -9077,8 +10787,8 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="107"/>
-      <c r="B50" s="88"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="2" t="s">
         <v>118</v>
       </c>
@@ -9097,7 +10807,7 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="107"/>
+      <c r="A51" s="111"/>
       <c r="B51" s="2" t="s">
         <v>124</v>
       </c>
@@ -9119,7 +10829,7 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="105"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
@@ -9140,11 +10850,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="99">
-      <c r="A53" s="111" t="s">
+    <row r="53" spans="1:8" ht="102">
+      <c r="A53" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="112"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
@@ -9164,11 +10874,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="33">
-      <c r="A54" s="103" t="s">
+    <row r="54" spans="1:8" ht="34">
+      <c r="A54" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="104"/>
+      <c r="B54" s="108"/>
       <c r="C54" s="2" t="s">
         <v>137</v>
       </c>
@@ -9184,11 +10894,11 @@
       <c r="G54" s="3">
         <v>3</v>
       </c>
-      <c r="H54" s="89"/>
-    </row>
-    <row r="55" spans="1:8" ht="300.95" customHeight="1">
-      <c r="A55" s="105"/>
-      <c r="B55" s="106"/>
+      <c r="H54" s="103"/>
+    </row>
+    <row r="55" spans="1:8" ht="301" customHeight="1">
+      <c r="A55" s="109"/>
+      <c r="B55" s="110"/>
       <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
@@ -9204,7 +10914,7 @@
       <c r="G55" s="4">
         <v>3</v>
       </c>
-      <c r="H55" s="91"/>
+      <c r="H55" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9237,7 +10947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A756F41A-28DD-4412-A372-3C92ED27208E}">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -9245,7 +10955,7 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -9253,158 +10963,158 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="157" t="s">
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="158"/>
+      <c r="J2" s="162"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="160"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="128"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="152" t="s">
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="153"/>
+      <c r="J4" s="157"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="153"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="157"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="153"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="157"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="153"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="157"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="153"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="157"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="153"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="157"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="128"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="153"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="157"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="149" t="s">
+      <c r="A11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="157"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="128"/>
-      <c r="B12" s="129"/>
+    <row r="12" spans="1:12" ht="17.149999999999999" customHeight="1">
+      <c r="A12" s="132"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -9413,14 +11123,14 @@
       <c r="H12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="154"/>
-      <c r="J12" s="153"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="157"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="130"/>
-      <c r="B13" s="131"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="135"/>
       <c r="C13" s="19"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -9429,210 +11139,210 @@
       <c r="H13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="154"/>
-      <c r="J13" s="153"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="157"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="142"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="19"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="153"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="157"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="143"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="19"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="153"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="157"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="143"/>
-      <c r="B16" s="144"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="19"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="153"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="157"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="143"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="19"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="153"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="157"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="143"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="19"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="156"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="160"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="143"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="161" t="s">
+      <c r="A19" s="147"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="165" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="147" t="s">
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="148"/>
+      <c r="J19" s="152"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="19"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="143"/>
-      <c r="B21" s="144"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="19"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144"/>
+      <c r="A22" s="147"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="19"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="19"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
+      <c r="A24" s="147"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="19"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="19"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
+      <c r="A26" s="147"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="19"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="145"/>
-      <c r="B27" s="146"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>

--- a/ViT_docs/GDBMS_시각화도구_요구사항_정의서.xlsx
+++ b/ViT_docs/GDBMS_시각화도구_요구사항_정의서.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\gdbms_document\mockup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\fork_visual_tool\ViT_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97557A40-7E67-4E34-AF42-8CA3844368D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD793352-C0ED-4621-83FF-0E02CAF1627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="2480" windowWidth="28800" windowHeight="15500" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
+    <workbookView xWindow="1140" yWindow="860" windowWidth="27390" windowHeight="20140" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="4" r:id="rId1"/>
-    <sheet name="v0.5" sheetId="8" r:id="rId2"/>
-    <sheet name="v0.4" sheetId="7" r:id="rId3"/>
-    <sheet name="v0.3" sheetId="6" r:id="rId4"/>
-    <sheet name="v0.2" sheetId="5" r:id="rId5"/>
-    <sheet name="v0.1" sheetId="2" r:id="rId6"/>
-    <sheet name="UI" sheetId="3" r:id="rId7"/>
+    <sheet name="v0.6" sheetId="9" r:id="rId2"/>
+    <sheet name="v0.5" sheetId="8" r:id="rId3"/>
+    <sheet name="v0.4" sheetId="7" r:id="rId4"/>
+    <sheet name="v0.3" sheetId="6" r:id="rId5"/>
+    <sheet name="v0.2" sheetId="5" r:id="rId6"/>
+    <sheet name="v0.1" sheetId="2" r:id="rId7"/>
+    <sheet name="UI" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="322">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,6 +1332,22 @@
   <si>
     <t>UI 위치 관련 내용 변경 (DBeaver UI 관련)
 기능 변경 : 검색 -&gt; 질의변환 (기능 변경에 따른 질의 변환 내용 변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준화 목표로 개발된 GQL(Graph Query Language)를 이용하여 TurboGraph++와 통신이 가능하도록 구성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI-COMM-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GQL 이용하여 입력 할 수 있는 Query View를 제공한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI-COMM-04, VI-QURY-01 : Gremlin -&gt; GQL 변경 사항 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2008,7 +2025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2265,6 +2282,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2531,6 +2560,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1279070</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3537940</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E1306D-8817-4823-8FA1-9C399BAADA5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19401970" y="25292050"/>
+          <a:ext cx="3535220" cy="4336143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4680857</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>367392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DE05AD-1E21-497F-9EFF-4F2C04299590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19562536" y="23619278"/>
+          <a:ext cx="4517571" cy="312964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2623,7 +2745,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2716,7 +2838,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2821,7 +2943,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2926,7 +3048,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3453,10 +3575,18 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="67"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44547</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="F10" s="68"/>
     </row>
     <row r="11" spans="2:6">
@@ -3593,11 +3723,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94F1E-AEAC-412C-924D-C2896C7D07BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B644C1-4917-4B7C-B04E-DB88783D9058}">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3623,10 +3753,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="100"/>
+      <c r="C3" s="104"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -3716,7 +3846,7 @@
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="88" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -3748,63 +3878,63 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="84" t="s">
+      <c r="B16" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="89" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="89">
         <v>1</v>
       </c>
       <c r="I16" s="62">
         <v>44475</v>
       </c>
-      <c r="J16" s="84" t="s">
+      <c r="J16" s="89" t="s">
         <v>171</v>
       </c>
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="83" t="s">
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="87" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H17" s="87">
         <v>1</v>
       </c>
       <c r="I17" s="62">
         <v>44475</v>
       </c>
-      <c r="J17" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="85"/>
+      <c r="J17" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="86"/>
     </row>
     <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="83" t="s">
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="87" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="11" t="s">
@@ -3816,67 +3946,67 @@
       <c r="I18" s="62">
         <v>44475</v>
       </c>
-      <c r="J18" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="85"/>
+      <c r="J18" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="86"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="83" t="s">
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="F19" s="87" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="83">
+        <v>318</v>
+      </c>
+      <c r="H19" s="87">
         <v>1</v>
       </c>
       <c r="I19" s="62">
         <v>44475</v>
       </c>
-      <c r="J19" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="85"/>
+      <c r="J19" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="86"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="83" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="83" t="s">
+      <c r="F20" s="87" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="83">
+      <c r="H20" s="87">
         <v>1</v>
       </c>
       <c r="I20" s="62">
         <v>44475</v>
       </c>
-      <c r="J20" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="85"/>
+      <c r="J20" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="86"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="83" t="s">
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="F21" s="83" t="s">
+      <c r="F21" s="87" t="s">
         <v>102</v>
       </c>
       <c r="G21" s="59" t="s">
@@ -3888,23 +4018,23 @@
       <c r="I21" s="62">
         <v>44475</v>
       </c>
-      <c r="J21" s="83" t="s">
+      <c r="J21" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="K21" s="85"/>
+      <c r="K21" s="86"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="83" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="87" t="s">
         <v>110</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -3916,25 +4046,25 @@
       <c r="I22" s="62">
         <v>44475</v>
       </c>
-      <c r="J22" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="85"/>
+      <c r="J22" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="86"/>
     </row>
     <row r="23" spans="2:11" ht="70" customHeight="1">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="87" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -3946,114 +4076,114 @@
       <c r="I23" s="62">
         <v>44475</v>
       </c>
-      <c r="J23" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K23" s="85"/>
+      <c r="J23" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="86"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="86"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="83" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="F24" s="87" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="83">
+      <c r="H24" s="87">
         <v>1</v>
       </c>
       <c r="I24" s="62">
         <v>44475</v>
       </c>
-      <c r="J24" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="85"/>
+      <c r="J24" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="86"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="86"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="83" t="s">
+      <c r="B25" s="90"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="F25" s="87" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="83">
+      <c r="H25" s="87">
         <v>1</v>
       </c>
       <c r="I25" s="62">
         <v>44475</v>
       </c>
-      <c r="J25" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="85"/>
+      <c r="J25" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="86"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="86"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98" t="s">
+      <c r="B26" s="90"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="83" t="s">
+      <c r="F26" s="87" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="83">
+      <c r="H26" s="87">
         <v>1</v>
       </c>
       <c r="I26" s="62">
         <v>44475</v>
       </c>
-      <c r="J26" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="85"/>
+      <c r="J26" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="86"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="86"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="83" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F27" s="87" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="83">
+      <c r="H27" s="87">
         <v>1</v>
       </c>
       <c r="I27" s="62">
         <v>44475</v>
       </c>
-      <c r="J27" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="85"/>
+      <c r="J27" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="86"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="86"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="83" t="s">
+      <c r="B28" s="90"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="87" t="s">
         <v>193</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -4068,21 +4198,21 @@
       <c r="I28" s="62">
         <v>44475</v>
       </c>
-      <c r="J28" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K28" s="85"/>
+      <c r="J28" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="86"/>
     </row>
     <row r="29" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B29" s="86"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="103" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="E29" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="87" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="11" t="s">
@@ -4094,19 +4224,19 @@
       <c r="I29" s="62">
         <v>44475</v>
       </c>
-      <c r="J29" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="85"/>
+      <c r="J29" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="86"/>
     </row>
     <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="86"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="83" t="s">
+      <c r="B30" s="90"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="87" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="11" t="s">
@@ -4118,16 +4248,16 @@
       <c r="I30" s="62">
         <v>44475</v>
       </c>
-      <c r="J30" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="85"/>
+      <c r="J30" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="86"/>
     </row>
     <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="83" t="s">
+      <c r="B31" s="90"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="87" t="s">
         <v>196</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -4142,18 +4272,18 @@
       <c r="I31" s="62">
         <v>44475</v>
       </c>
-      <c r="J31" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K31" s="85"/>
+      <c r="J31" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="86"/>
     </row>
     <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="86"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="106" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="110" t="s">
         <v>284</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="87" t="s">
         <v>197</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -4168,42 +4298,42 @@
       <c r="I32" s="62">
         <v>44475</v>
       </c>
-      <c r="J32" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K32" s="85"/>
+      <c r="J32" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="86"/>
     </row>
     <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="83" t="s">
+      <c r="B33" s="90"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="87" t="s">
         <v>53</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="83">
+      <c r="H33" s="87">
         <v>1</v>
       </c>
       <c r="I33" s="62">
         <v>44475</v>
       </c>
-      <c r="J33" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K33" s="85"/>
+      <c r="J33" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="86"/>
     </row>
     <row r="34" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="83" t="s">
+      <c r="B34" s="90"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="87" t="s">
         <v>199</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -4218,23 +4348,23 @@
       <c r="I34" s="62">
         <v>44475</v>
       </c>
-      <c r="J34" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="85"/>
+      <c r="J34" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="86"/>
     </row>
     <row r="35" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="98" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="83" t="s">
+      <c r="E35" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="87" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -4246,21 +4376,21 @@
       <c r="I35" s="62">
         <v>44475</v>
       </c>
-      <c r="J35" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K35" s="85"/>
+      <c r="J35" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="86"/>
     </row>
     <row r="36" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B36" s="86"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="83" t="s">
+      <c r="B36" s="90"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="87" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="11" t="s">
@@ -4272,21 +4402,21 @@
       <c r="I36" s="62">
         <v>44475</v>
       </c>
-      <c r="J36" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="85"/>
+      <c r="J36" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="86"/>
     </row>
     <row r="37" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B37" s="86"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="83" t="s">
+      <c r="B37" s="90"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="F37" s="87" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="11" t="s">
@@ -4298,49 +4428,49 @@
       <c r="I37" s="62">
         <v>44475</v>
       </c>
-      <c r="J37" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K37" s="85"/>
+      <c r="J37" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="86"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="96" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="83" t="s">
+      <c r="C38" s="97"/>
+      <c r="D38" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="F38" s="83" t="s">
+      <c r="F38" s="87" t="s">
         <v>311</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="H38" s="83">
+      <c r="H38" s="87">
         <v>2</v>
       </c>
       <c r="I38" s="62">
         <v>44475</v>
       </c>
-      <c r="J38" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K38" s="85"/>
+      <c r="J38" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="86"/>
     </row>
     <row r="39" spans="2:11" ht="34">
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="83" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="83" t="s">
+      <c r="E39" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="87" t="s">
         <v>312</v>
       </c>
       <c r="G39" s="11" t="s">
@@ -4352,21 +4482,21 @@
       <c r="I39" s="62">
         <v>44475</v>
       </c>
-      <c r="J39" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K39" s="85"/>
+      <c r="J39" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="86"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="96"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="83" t="s">
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="F40" s="83" t="s">
+      <c r="F40" s="87" t="s">
         <v>313</v>
       </c>
       <c r="G40" s="11" t="s">
@@ -4378,181 +4508,181 @@
       <c r="I40" s="62">
         <v>44515</v>
       </c>
-      <c r="J40" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40" s="85"/>
+      <c r="J40" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="86"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="83" t="s">
+      <c r="C41" s="97"/>
+      <c r="D41" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="83" t="s">
+      <c r="E41" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="F41" s="83" t="s">
+      <c r="F41" s="87" t="s">
         <v>69</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="83">
+        <v>320</v>
+      </c>
+      <c r="H41" s="87">
         <v>1</v>
       </c>
       <c r="I41" s="62">
         <v>44475</v>
       </c>
-      <c r="J41" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="85"/>
+      <c r="J41" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="86"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="94"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="83" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="83" t="s">
+      <c r="E42" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="F42" s="83" t="s">
+      <c r="F42" s="87" t="s">
         <v>121</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H42" s="83">
+      <c r="H42" s="87">
         <v>3</v>
       </c>
       <c r="I42" s="62">
         <v>44475</v>
       </c>
-      <c r="J42" s="83" t="s">
+      <c r="J42" s="87" t="s">
         <v>171</v>
       </c>
       <c r="K42" s="51"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="83" t="s">
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="F43" s="83" t="s">
+      <c r="F43" s="87" t="s">
         <v>120</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H43" s="83">
+      <c r="H43" s="87">
         <v>3</v>
       </c>
       <c r="I43" s="62">
         <v>44475</v>
       </c>
-      <c r="J43" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="85"/>
+      <c r="J43" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="86"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="94"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="83" t="s">
+      <c r="B44" s="98"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="83" t="s">
+      <c r="E44" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="F44" s="83" t="s">
+      <c r="F44" s="87" t="s">
         <v>126</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H44" s="83">
+      <c r="H44" s="87">
         <v>4</v>
       </c>
       <c r="I44" s="62">
         <v>44475</v>
       </c>
-      <c r="J44" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="85"/>
+      <c r="J44" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="86"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="83" t="s">
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="E45" s="83" t="s">
+      <c r="E45" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="F45" s="83" t="s">
+      <c r="F45" s="87" t="s">
         <v>292</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H45" s="83">
+      <c r="H45" s="87">
         <v>1</v>
       </c>
       <c r="I45" s="62">
         <v>44475</v>
       </c>
-      <c r="J45" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="85"/>
+      <c r="J45" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="86"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="96"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="83" t="s">
+      <c r="B46" s="100"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="F46" s="83" t="s">
+      <c r="F46" s="87" t="s">
         <v>291</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="H46" s="83">
+      <c r="H46" s="87">
         <v>3</v>
       </c>
       <c r="I46" s="62">
         <v>44515</v>
       </c>
-      <c r="J46" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="85"/>
+      <c r="J46" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="86"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="83" t="s">
+      <c r="C47" s="97"/>
+      <c r="D47" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="83" t="s">
+      <c r="E47" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="F47" s="83" t="s">
+      <c r="F47" s="87" t="s">
         <v>130</v>
       </c>
       <c r="G47" s="11" t="s">
@@ -4564,23 +4694,23 @@
       <c r="I47" s="62">
         <v>44475</v>
       </c>
-      <c r="J47" s="83" t="s">
+      <c r="J47" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="K47" s="85" t="s">
+      <c r="K47" s="86" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="94"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="83" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="83" t="s">
+      <c r="E48" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="F48" s="83" t="s">
+      <c r="F48" s="87" t="s">
         <v>133</v>
       </c>
       <c r="G48" s="11" t="s">
@@ -4592,105 +4722,105 @@
       <c r="I48" s="62">
         <v>44475</v>
       </c>
-      <c r="J48" s="83" t="s">
+      <c r="J48" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="K48" s="85" t="s">
+      <c r="K48" s="86" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="96"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="83" t="s">
+      <c r="B49" s="100"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="83" t="s">
+      <c r="E49" s="87" t="s">
         <v>298</v>
       </c>
-      <c r="F49" s="83" t="s">
+      <c r="F49" s="87" t="s">
         <v>289</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H49" s="83">
+      <c r="H49" s="87">
         <v>1</v>
       </c>
       <c r="I49" s="62">
         <v>44515</v>
       </c>
-      <c r="J49" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K49" s="85" t="s">
+      <c r="J49" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="86" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="98" t="s">
+      <c r="C50" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="98" t="s">
+      <c r="D50" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="83" t="s">
+      <c r="E50" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="83" t="s">
+      <c r="F50" s="87" t="s">
         <v>103</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="83">
+      <c r="H50" s="87">
         <v>1</v>
       </c>
       <c r="I50" s="62">
         <v>44475</v>
       </c>
-      <c r="J50" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="85"/>
+      <c r="J50" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="86"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="86"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="83" t="s">
+      <c r="B51" s="90"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="83" t="s">
+      <c r="F51" s="87" t="s">
         <v>82</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="H51" s="83">
+      <c r="H51" s="87">
         <v>2</v>
       </c>
       <c r="I51" s="62">
         <v>44475</v>
       </c>
-      <c r="J51" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="85"/>
+      <c r="J51" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="86"/>
     </row>
     <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="86"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98" t="s">
+      <c r="B52" s="90"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="83" t="s">
+      <c r="E52" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="F52" s="83" t="s">
+      <c r="F52" s="87" t="s">
         <v>104</v>
       </c>
       <c r="G52" s="15" t="s">
@@ -4702,19 +4832,19 @@
       <c r="I52" s="62">
         <v>44475</v>
       </c>
-      <c r="J52" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K52" s="85"/>
+      <c r="J52" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="86"/>
     </row>
     <row r="53" spans="2:11" ht="34">
-      <c r="B53" s="86"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="83" t="s">
+      <c r="B53" s="90"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="F53" s="83" t="s">
+      <c r="F53" s="87" t="s">
         <v>92</v>
       </c>
       <c r="G53" s="15" t="s">
@@ -4726,21 +4856,21 @@
       <c r="I53" s="62">
         <v>44475</v>
       </c>
-      <c r="J53" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K53" s="85"/>
+      <c r="J53" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="86"/>
     </row>
     <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="86"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="83" t="s">
+      <c r="B54" s="90"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="83" t="s">
+      <c r="E54" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="F54" s="83" t="s">
+      <c r="F54" s="87" t="s">
         <v>88</v>
       </c>
       <c r="G54" s="15" t="s">
@@ -4752,21 +4882,21 @@
       <c r="I54" s="62">
         <v>44475</v>
       </c>
-      <c r="J54" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K54" s="85"/>
+      <c r="J54" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="86"/>
     </row>
     <row r="55" spans="2:11" ht="34">
-      <c r="B55" s="86"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="83" t="s">
+      <c r="B55" s="90"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="83" t="s">
+      <c r="E55" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="F55" s="83" t="s">
+      <c r="F55" s="87" t="s">
         <v>89</v>
       </c>
       <c r="G55" s="15" t="s">
@@ -4778,21 +4908,21 @@
       <c r="I55" s="62">
         <v>44475</v>
       </c>
-      <c r="J55" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K55" s="85"/>
+      <c r="J55" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="86"/>
     </row>
     <row r="56" spans="2:11" ht="85">
-      <c r="B56" s="86"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="83" t="s">
+      <c r="B56" s="90"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="83" t="s">
+      <c r="E56" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="F56" s="83" t="s">
+      <c r="F56" s="87" t="s">
         <v>303</v>
       </c>
       <c r="G56" s="15" t="s">
@@ -4804,21 +4934,21 @@
       <c r="I56" s="62">
         <v>44475</v>
       </c>
-      <c r="J56" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K56" s="85"/>
+      <c r="J56" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="86"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="86"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="83" t="s">
+      <c r="B57" s="90"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="E57" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="F57" s="83" t="s">
+      <c r="F57" s="87" t="s">
         <v>80</v>
       </c>
       <c r="G57" s="29" t="s">
@@ -4830,75 +4960,75 @@
       <c r="I57" s="62">
         <v>44475</v>
       </c>
-      <c r="J57" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K57" s="85"/>
+      <c r="J57" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="86"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="86"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="83" t="s">
+      <c r="B58" s="90"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="83" t="s">
+      <c r="E58" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="F58" s="83" t="s">
+      <c r="F58" s="87" t="s">
         <v>81</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H58" s="83">
+      <c r="H58" s="87">
         <v>3</v>
       </c>
       <c r="I58" s="62">
         <v>44475</v>
       </c>
-      <c r="J58" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K58" s="85"/>
+      <c r="J58" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="86"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="86"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="83" t="s">
+      <c r="B59" s="90"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="83" t="s">
+      <c r="E59" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="F59" s="83" t="s">
+      <c r="F59" s="87" t="s">
         <v>105</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H59" s="83">
+      <c r="H59" s="87">
         <v>3</v>
       </c>
       <c r="I59" s="62">
         <v>44475</v>
       </c>
-      <c r="J59" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K59" s="85"/>
+      <c r="J59" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="86"/>
     </row>
     <row r="60" spans="2:11" ht="34">
-      <c r="B60" s="86"/>
-      <c r="C60" s="83" t="s">
+      <c r="B60" s="90"/>
+      <c r="C60" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="83" t="s">
+      <c r="D60" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="83" t="s">
+      <c r="E60" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="F60" s="83" t="s">
+      <c r="F60" s="87" t="s">
         <v>93</v>
       </c>
       <c r="G60" s="15" t="s">
@@ -4910,23 +5040,23 @@
       <c r="I60" s="62">
         <v>44475</v>
       </c>
-      <c r="J60" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K60" s="85"/>
+      <c r="J60" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="86"/>
     </row>
     <row r="61" spans="2:11" ht="34">
-      <c r="B61" s="86"/>
-      <c r="C61" s="98" t="s">
+      <c r="B61" s="90"/>
+      <c r="C61" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="83" t="s">
+      <c r="D61" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="83" t="s">
+      <c r="E61" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="F61" s="83" t="s">
+      <c r="F61" s="87" t="s">
         <v>57</v>
       </c>
       <c r="G61" s="11" t="s">
@@ -4938,7 +5068,7 @@
       <c r="I61" s="62">
         <v>44475</v>
       </c>
-      <c r="J61" s="83" t="s">
+      <c r="J61" s="87" t="s">
         <v>173</v>
       </c>
       <c r="K61" s="51" t="s">
@@ -4946,15 +5076,15 @@
       </c>
     </row>
     <row r="62" spans="2:11" ht="34">
-      <c r="B62" s="86"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="83" t="s">
+      <c r="B62" s="90"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="83" t="s">
+      <c r="E62" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="F62" s="83" t="s">
+      <c r="F62" s="87" t="s">
         <v>299</v>
       </c>
       <c r="G62" s="11" t="s">
@@ -4966,21 +5096,21 @@
       <c r="I62" s="62">
         <v>44475</v>
       </c>
-      <c r="J62" s="83" t="s">
+      <c r="J62" s="87" t="s">
         <v>171</v>
       </c>
       <c r="K62" s="52"/>
     </row>
     <row r="63" spans="2:11" ht="119">
-      <c r="B63" s="86"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="83" t="s">
+      <c r="B63" s="90"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="83" t="s">
+      <c r="E63" s="87" t="s">
         <v>301</v>
       </c>
-      <c r="F63" s="83" t="s">
+      <c r="F63" s="87" t="s">
         <v>300</v>
       </c>
       <c r="G63" s="11" t="s">
@@ -4992,7 +5122,7 @@
       <c r="I63" s="62">
         <v>44475</v>
       </c>
-      <c r="J63" s="83" t="s">
+      <c r="J63" s="87" t="s">
         <v>171</v>
       </c>
       <c r="K63" s="52" t="s">
@@ -5000,15 +5130,15 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="34">
-      <c r="B64" s="86"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="83" t="s">
+      <c r="B64" s="90"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="83" t="s">
+      <c r="E64" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="83" t="s">
+      <c r="F64" s="87" t="s">
         <v>58</v>
       </c>
       <c r="G64" s="11" t="s">
@@ -5020,35 +5150,35 @@
       <c r="I64" s="62">
         <v>44475</v>
       </c>
-      <c r="J64" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K64" s="85"/>
+      <c r="J64" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="86"/>
     </row>
     <row r="65" spans="2:11" ht="102">
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="87"/>
-      <c r="D65" s="83" t="s">
+      <c r="C65" s="91"/>
+      <c r="D65" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="83" t="s">
+      <c r="E65" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="F65" s="83" t="s">
+      <c r="F65" s="87" t="s">
         <v>65</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H65" s="83">
+      <c r="H65" s="87">
         <v>1</v>
       </c>
       <c r="I65" s="62">
         <v>44475</v>
       </c>
-      <c r="J65" s="83" t="s">
+      <c r="J65" s="87" t="s">
         <v>171</v>
       </c>
       <c r="K65" s="51" t="s">
@@ -5056,17 +5186,17 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="34">
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="87"/>
-      <c r="D66" s="83" t="s">
+      <c r="C66" s="91"/>
+      <c r="D66" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="83" t="s">
+      <c r="E66" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="F66" s="83" t="s">
+      <c r="F66" s="87" t="s">
         <v>61</v>
       </c>
       <c r="G66" s="11" t="s">
@@ -5078,14 +5208,14 @@
       <c r="I66" s="62">
         <v>44475</v>
       </c>
-      <c r="J66" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K66" s="90"/>
+      <c r="J66" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="94"/>
     </row>
     <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="93"/>
       <c r="D67" s="53" t="s">
         <v>75</v>
       </c>
@@ -5107,7 +5237,7 @@
       <c r="J67" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="91"/>
+      <c r="K67" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5141,6 +5271,1554 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94F1E-AEAC-412C-924D-C2896C7D07BA}">
+  <dimension ref="B1:K67"/>
+  <sheetViews>
+    <sheetView topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.75" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="76" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="30">
+      <c r="B1" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1">
+      <c r="B3" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="104"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5"/>
+      <c r="G5" s="1"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
+      <c r="B13" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
+      <c r="B14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" thickBot="1">
+      <c r="B15" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="84">
+        <v>1</v>
+      </c>
+      <c r="I16" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J16" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="83">
+        <v>1</v>
+      </c>
+      <c r="I17" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J17" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="85"/>
+    </row>
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J18" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="85"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="83">
+        <v>1</v>
+      </c>
+      <c r="I19" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J19" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="85"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="83">
+        <v>1</v>
+      </c>
+      <c r="I20" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J20" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="85"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="8">
+        <v>4</v>
+      </c>
+      <c r="I21" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J21" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="85"/>
+    </row>
+    <row r="22" spans="2:11" ht="165" customHeight="1">
+      <c r="B22" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="91"/>
+      <c r="D22" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J22" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="85"/>
+    </row>
+    <row r="23" spans="2:11" ht="70" customHeight="1">
+      <c r="B23" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J23" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="85"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="90"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="83">
+        <v>1</v>
+      </c>
+      <c r="I24" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J24" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="85"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="90"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="83">
+        <v>1</v>
+      </c>
+      <c r="I25" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J25" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="85"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="90"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="83">
+        <v>1</v>
+      </c>
+      <c r="I26" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J26" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="85"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="90"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="83">
+        <v>1</v>
+      </c>
+      <c r="I27" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J27" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="85"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="90"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+      <c r="I28" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J28" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="85"/>
+    </row>
+    <row r="29" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B29" s="90"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J29" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="85"/>
+    </row>
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B30" s="90"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J30" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="85"/>
+    </row>
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B31" s="90"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J31" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="85"/>
+    </row>
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B32" s="90"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J32" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="85"/>
+    </row>
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B33" s="90"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="83">
+        <v>1</v>
+      </c>
+      <c r="I33" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J33" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="85"/>
+    </row>
+    <row r="34" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B34" s="90"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2</v>
+      </c>
+      <c r="I34" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J34" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="85"/>
+    </row>
+    <row r="35" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B35" s="90"/>
+      <c r="C35" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J35" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="85"/>
+    </row>
+    <row r="36" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B36" s="90"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J36" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="85"/>
+    </row>
+    <row r="37" spans="2:11" ht="56.15" customHeight="1">
+      <c r="B37" s="90"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J37" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="85"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="97"/>
+      <c r="D38" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="H38" s="83">
+        <v>2</v>
+      </c>
+      <c r="I38" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J38" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="85"/>
+    </row>
+    <row r="39" spans="2:11" ht="34">
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J39" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="85"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="83" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="83" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J40" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="85"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="97"/>
+      <c r="D41" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="83">
+        <v>1</v>
+      </c>
+      <c r="I41" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J41" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="85"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="83">
+        <v>3</v>
+      </c>
+      <c r="I42" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J42" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="83">
+        <v>3</v>
+      </c>
+      <c r="I43" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="85"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="98"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="83">
+        <v>4</v>
+      </c>
+      <c r="I44" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J44" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="85"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="83">
+        <v>1</v>
+      </c>
+      <c r="I45" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J45" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="85"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="100"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="83">
+        <v>3</v>
+      </c>
+      <c r="I46" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J46" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="85"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="97"/>
+      <c r="D47" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J47" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="98"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="83" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J48" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="K48" s="85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="100"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="83">
+        <v>1</v>
+      </c>
+      <c r="I49" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J49" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="83">
+        <v>1</v>
+      </c>
+      <c r="I50" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J50" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="85"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="90"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="83">
+        <v>2</v>
+      </c>
+      <c r="I51" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J51" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="85"/>
+    </row>
+    <row r="52" spans="2:11" ht="34">
+      <c r="B52" s="90"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+      <c r="I52" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J52" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="85"/>
+    </row>
+    <row r="53" spans="2:11" ht="34">
+      <c r="B53" s="90"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J53" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="85"/>
+    </row>
+    <row r="54" spans="2:11" ht="34">
+      <c r="B54" s="90"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J54" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="85"/>
+    </row>
+    <row r="55" spans="2:11" ht="34">
+      <c r="B55" s="90"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J55" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="85"/>
+    </row>
+    <row r="56" spans="2:11" ht="85">
+      <c r="B56" s="90"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="83" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="83" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J56" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="85"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="90"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="16">
+        <v>3</v>
+      </c>
+      <c r="I57" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J57" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="85"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="90"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="83">
+        <v>3</v>
+      </c>
+      <c r="I58" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J58" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="85"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="90"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="83">
+        <v>3</v>
+      </c>
+      <c r="I59" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J59" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="85"/>
+    </row>
+    <row r="60" spans="2:11" ht="34">
+      <c r="B60" s="90"/>
+      <c r="C60" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J60" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="85"/>
+    </row>
+    <row r="61" spans="2:11" ht="34">
+      <c r="B61" s="90"/>
+      <c r="C61" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4</v>
+      </c>
+      <c r="I61" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J61" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="34">
+      <c r="B62" s="90"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J62" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62" s="52"/>
+    </row>
+    <row r="63" spans="2:11" ht="119">
+      <c r="B63" s="90"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
+      <c r="I63" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J63" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="34">
+      <c r="B64" s="90"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3</v>
+      </c>
+      <c r="I64" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J64" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="85"/>
+    </row>
+    <row r="65" spans="2:11" ht="102">
+      <c r="B65" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="91"/>
+      <c r="D65" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="83">
+        <v>1</v>
+      </c>
+      <c r="I65" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J65" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="34">
+      <c r="B66" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="91"/>
+      <c r="D66" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="F66" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J66" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="94"/>
+    </row>
+    <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
+      <c r="B67" s="92"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="53">
+        <v>3</v>
+      </c>
+      <c r="I67" s="64">
+        <v>44475</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C61:C64"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A63A04-B32C-4EF7-98CC-E072E813450C}">
   <dimension ref="B1:K67"/>
   <sheetViews>
@@ -5171,10 +6849,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="100"/>
+      <c r="C3" s="104"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -5296,11 +6974,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="80" t="s">
         <v>180</v>
       </c>
@@ -5322,9 +7000,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="78" t="s">
         <v>181</v>
       </c>
@@ -5346,9 +7024,9 @@
       <c r="K17" s="79"/>
     </row>
     <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="78" t="s">
         <v>182</v>
       </c>
@@ -5370,9 +7048,9 @@
       <c r="K18" s="79"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="78" t="s">
         <v>183</v>
       </c>
@@ -5394,9 +7072,9 @@
       <c r="K19" s="79"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="78" t="s">
         <v>184</v>
       </c>
@@ -5418,9 +7096,9 @@
       <c r="K20" s="79"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="78" t="s">
         <v>185</v>
       </c>
@@ -5442,10 +7120,10 @@
       <c r="K21" s="79"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="78" t="s">
         <v>115</v>
       </c>
@@ -5470,13 +7148,13 @@
       <c r="K22" s="79"/>
     </row>
     <row r="23" spans="2:11" ht="70" customHeight="1">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="102" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="78" t="s">
@@ -5500,9 +7178,9 @@
       <c r="K23" s="79"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="86"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="78" t="s">
         <v>189</v>
       </c>
@@ -5524,9 +7202,9 @@
       <c r="K24" s="79"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="86"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="78" t="s">
         <v>190</v>
       </c>
@@ -5548,9 +7226,9 @@
       <c r="K25" s="79"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="86"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98" t="s">
+      <c r="B26" s="90"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="78" t="s">
@@ -5574,9 +7252,9 @@
       <c r="K26" s="79"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="86"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="78" t="s">
         <v>192</v>
       </c>
@@ -5598,9 +7276,9 @@
       <c r="K27" s="79"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="86"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="78" t="s">
         <v>193</v>
       </c>
@@ -5622,9 +7300,9 @@
       <c r="K28" s="79"/>
     </row>
     <row r="29" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B29" s="86"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="103" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="107" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="78" t="s">
@@ -5648,9 +7326,9 @@
       <c r="K29" s="79"/>
     </row>
     <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="86"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="104"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="108"/>
       <c r="E30" s="78" t="s">
         <v>195</v>
       </c>
@@ -5672,9 +7350,9 @@
       <c r="K30" s="79"/>
     </row>
     <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="105"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="109"/>
       <c r="E31" s="78" t="s">
         <v>196</v>
       </c>
@@ -5696,9 +7374,9 @@
       <c r="K31" s="79"/>
     </row>
     <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="86"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="106" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="110" t="s">
         <v>284</v>
       </c>
       <c r="E32" s="78" t="s">
@@ -5722,9 +7400,9 @@
       <c r="K32" s="79"/>
     </row>
     <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="105"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="109"/>
       <c r="E33" s="78" t="s">
         <v>198</v>
       </c>
@@ -5746,8 +7424,8 @@
       <c r="K33" s="79"/>
     </row>
     <row r="34" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="98"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="78" t="s">
         <v>39</v>
       </c>
@@ -5772,8 +7450,8 @@
       <c r="K34" s="79"/>
     </row>
     <row r="35" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="98" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="102" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="78" t="s">
@@ -5800,8 +7478,8 @@
       <c r="K35" s="79"/>
     </row>
     <row r="36" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B36" s="86"/>
-      <c r="C36" s="98"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="78" t="s">
         <v>39</v>
       </c>
@@ -5826,8 +7504,8 @@
       <c r="K36" s="79"/>
     </row>
     <row r="37" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B37" s="86"/>
-      <c r="C37" s="98"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="78" t="s">
         <v>45</v>
       </c>
@@ -5852,10 +7530,10 @@
       <c r="K37" s="79"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="96" t="s">
         <v>294</v>
       </c>
-      <c r="C38" s="93"/>
+      <c r="C38" s="97"/>
       <c r="D38" s="78" t="s">
         <v>74</v>
       </c>
@@ -5880,8 +7558,8 @@
       <c r="K38" s="79"/>
     </row>
     <row r="39" spans="2:11" ht="51">
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="78" t="s">
         <v>75</v>
       </c>
@@ -5906,8 +7584,8 @@
       <c r="K39" s="79"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="96"/>
-      <c r="C40" s="97"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="78" t="s">
         <v>285</v>
       </c>
@@ -5932,10 +7610,10 @@
       <c r="K40" s="79"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="93"/>
+      <c r="C41" s="97"/>
       <c r="D41" s="78" t="s">
         <v>30</v>
       </c>
@@ -5960,8 +7638,8 @@
       <c r="K41" s="79"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="94"/>
-      <c r="C42" s="95"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="78" t="s">
         <v>117</v>
       </c>
@@ -5986,8 +7664,8 @@
       <c r="K42" s="51"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="78" t="s">
         <v>118</v>
       </c>
@@ -6012,8 +7690,8 @@
       <c r="K43" s="79"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="94"/>
-      <c r="C44" s="95"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="78" t="s">
         <v>125</v>
       </c>
@@ -6038,8 +7716,8 @@
       <c r="K44" s="79"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="78" t="s">
         <v>290</v>
       </c>
@@ -6064,8 +7742,8 @@
       <c r="K45" s="79"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="96"/>
-      <c r="C46" s="97"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="101"/>
       <c r="D46" s="78" t="s">
         <v>290</v>
       </c>
@@ -6090,10 +7768,10 @@
       <c r="K46" s="79"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="C47" s="93"/>
+      <c r="C47" s="97"/>
       <c r="D47" s="78" t="s">
         <v>30</v>
       </c>
@@ -6120,8 +7798,8 @@
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="94"/>
-      <c r="C48" s="95"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="99"/>
       <c r="D48" s="78" t="s">
         <v>30</v>
       </c>
@@ -6148,8 +7826,8 @@
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="96"/>
-      <c r="C49" s="97"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="78" t="s">
         <v>30</v>
       </c>
@@ -6176,13 +7854,13 @@
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="98" t="s">
+      <c r="C50" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="98" t="s">
+      <c r="D50" s="102" t="s">
         <v>49</v>
       </c>
       <c r="E50" s="78" t="s">
@@ -6206,9 +7884,9 @@
       <c r="K50" s="79"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="86"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
       <c r="E51" s="81" t="s">
         <v>223</v>
       </c>
@@ -6230,9 +7908,9 @@
       <c r="K51" s="79"/>
     </row>
     <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="86"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98" t="s">
+      <c r="B52" s="90"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="81" t="s">
@@ -6256,9 +7934,9 @@
       <c r="K52" s="79"/>
     </row>
     <row r="53" spans="2:11" ht="34">
-      <c r="B53" s="86"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
       <c r="E53" s="81" t="s">
         <v>225</v>
       </c>
@@ -6280,8 +7958,8 @@
       <c r="K53" s="79"/>
     </row>
     <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="86"/>
-      <c r="C54" s="98"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="102"/>
       <c r="D54" s="78" t="s">
         <v>112</v>
       </c>
@@ -6306,8 +7984,8 @@
       <c r="K54" s="79"/>
     </row>
     <row r="55" spans="2:11" ht="34">
-      <c r="B55" s="86"/>
-      <c r="C55" s="98"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="102"/>
       <c r="D55" s="78" t="s">
         <v>111</v>
       </c>
@@ -6332,8 +8010,8 @@
       <c r="K55" s="79"/>
     </row>
     <row r="56" spans="2:11" ht="85">
-      <c r="B56" s="86"/>
-      <c r="C56" s="98"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="78" t="s">
         <v>304</v>
       </c>
@@ -6358,8 +8036,8 @@
       <c r="K56" s="79"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="86"/>
-      <c r="C57" s="98"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="102"/>
       <c r="D57" s="78" t="s">
         <v>85</v>
       </c>
@@ -6384,8 +8062,8 @@
       <c r="K57" s="79"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="86"/>
-      <c r="C58" s="98"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="102"/>
       <c r="D58" s="78" t="s">
         <v>77</v>
       </c>
@@ -6410,8 +8088,8 @@
       <c r="K58" s="79"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="86"/>
-      <c r="C59" s="98"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="102"/>
       <c r="D59" s="78" t="s">
         <v>77</v>
       </c>
@@ -6436,7 +8114,7 @@
       <c r="K59" s="79"/>
     </row>
     <row r="60" spans="2:11" ht="34">
-      <c r="B60" s="86"/>
+      <c r="B60" s="90"/>
       <c r="C60" s="78" t="s">
         <v>56</v>
       </c>
@@ -6464,8 +8142,8 @@
       <c r="K60" s="79"/>
     </row>
     <row r="61" spans="2:11" ht="34">
-      <c r="B61" s="86"/>
-      <c r="C61" s="98" t="s">
+      <c r="B61" s="90"/>
+      <c r="C61" s="102" t="s">
         <v>84</v>
       </c>
       <c r="D61" s="78" t="s">
@@ -6494,8 +8172,8 @@
       </c>
     </row>
     <row r="62" spans="2:11" ht="34">
-      <c r="B62" s="86"/>
-      <c r="C62" s="98"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="102"/>
       <c r="D62" s="78" t="s">
         <v>39</v>
       </c>
@@ -6520,8 +8198,8 @@
       <c r="K62" s="52"/>
     </row>
     <row r="63" spans="2:11" ht="119">
-      <c r="B63" s="86"/>
-      <c r="C63" s="98"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="78" t="s">
         <v>39</v>
       </c>
@@ -6548,8 +8226,8 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="34">
-      <c r="B64" s="86"/>
-      <c r="C64" s="98"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="102"/>
       <c r="D64" s="78" t="s">
         <v>39</v>
       </c>
@@ -6574,10 +8252,10 @@
       <c r="K64" s="79"/>
     </row>
     <row r="65" spans="2:11" ht="102">
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="87"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="78" t="s">
         <v>30</v>
       </c>
@@ -6604,10 +8282,10 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="34">
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="87"/>
+      <c r="C66" s="91"/>
       <c r="D66" s="78" t="s">
         <v>137</v>
       </c>
@@ -6629,11 +8307,11 @@
       <c r="J66" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="90"/>
+      <c r="K66" s="94"/>
     </row>
     <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="93"/>
       <c r="D67" s="53" t="s">
         <v>75</v>
       </c>
@@ -6655,7 +8333,7 @@
       <c r="J67" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="91"/>
+      <c r="K67" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -6688,7 +8366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF8E6D5-6820-4B3F-ABEE-B157CB23A55C}">
   <dimension ref="B1:K66"/>
   <sheetViews>
@@ -6719,10 +8397,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="100"/>
+      <c r="C3" s="104"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -6844,11 +8522,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="41" t="s">
         <v>180</v>
       </c>
@@ -6870,9 +8548,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="40" t="s">
         <v>181</v>
       </c>
@@ -6894,9 +8572,9 @@
       <c r="K17" s="60"/>
     </row>
     <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="40" t="s">
         <v>182</v>
       </c>
@@ -6918,9 +8596,9 @@
       <c r="K18" s="60"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="40" t="s">
         <v>183</v>
       </c>
@@ -6942,9 +8620,9 @@
       <c r="K19" s="60"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="40" t="s">
         <v>184</v>
       </c>
@@ -6966,9 +8644,9 @@
       <c r="K20" s="60"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="40" t="s">
         <v>185</v>
       </c>
@@ -6990,10 +8668,10 @@
       <c r="K21" s="60"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="40" t="s">
         <v>115</v>
       </c>
@@ -7018,8 +8696,8 @@
       <c r="K22" s="60"/>
     </row>
     <row r="23" spans="2:11" ht="82" customHeight="1">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="40" t="s">
         <v>270</v>
       </c>
@@ -7044,13 +8722,13 @@
       <c r="K23" s="60"/>
     </row>
     <row r="24" spans="2:11" ht="70" customHeight="1">
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="102" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="40" t="s">
@@ -7074,9 +8752,9 @@
       <c r="K24" s="60"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="86"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="40" t="s">
         <v>189</v>
       </c>
@@ -7098,9 +8776,9 @@
       <c r="K25" s="60"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="86"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="40" t="s">
         <v>190</v>
       </c>
@@ -7122,9 +8800,9 @@
       <c r="K26" s="60"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="86"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="40" t="s">
@@ -7148,9 +8826,9 @@
       <c r="K27" s="60"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="86"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="40" t="s">
         <v>192</v>
       </c>
@@ -7172,9 +8850,9 @@
       <c r="K28" s="60"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="86"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="40" t="s">
         <v>193</v>
       </c>
@@ -7196,9 +8874,9 @@
       <c r="K29" s="60"/>
     </row>
     <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="86"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="103" t="s">
+      <c r="B30" s="90"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="107" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="40" t="s">
@@ -7222,9 +8900,9 @@
       <c r="K30" s="60"/>
     </row>
     <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="104"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="108"/>
       <c r="E31" s="40" t="s">
         <v>195</v>
       </c>
@@ -7246,9 +8924,9 @@
       <c r="K31" s="60"/>
     </row>
     <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="86"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="105"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="109"/>
       <c r="E32" s="40" t="s">
         <v>196</v>
       </c>
@@ -7270,9 +8948,9 @@
       <c r="K32" s="60"/>
     </row>
     <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="106" t="s">
+      <c r="B33" s="90"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="110" t="s">
         <v>284</v>
       </c>
       <c r="E33" s="40" t="s">
@@ -7296,9 +8974,9 @@
       <c r="K33" s="60"/>
     </row>
     <row r="34" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="105"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="40" t="s">
         <v>198</v>
       </c>
@@ -7320,8 +8998,8 @@
       <c r="K34" s="60"/>
     </row>
     <row r="35" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="98"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="76" t="s">
         <v>39</v>
       </c>
@@ -7346,8 +9024,8 @@
       <c r="K35" s="60"/>
     </row>
     <row r="36" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B36" s="86"/>
-      <c r="C36" s="98" t="s">
+      <c r="B36" s="90"/>
+      <c r="C36" s="102" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="40" t="s">
@@ -7374,8 +9052,8 @@
       <c r="K36" s="60"/>
     </row>
     <row r="37" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B37" s="86"/>
-      <c r="C37" s="98"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="40" t="s">
         <v>39</v>
       </c>
@@ -7400,8 +9078,8 @@
       <c r="K37" s="60"/>
     </row>
     <row r="38" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B38" s="86"/>
-      <c r="C38" s="98"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
@@ -7426,13 +9104,13 @@
       <c r="K38" s="60"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="98" t="s">
+      <c r="D39" s="102" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="40" t="s">
@@ -7456,9 +9134,9 @@
       <c r="K39" s="60"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="86"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
       <c r="E40" s="40" t="s">
         <v>223</v>
       </c>
@@ -7480,9 +9158,9 @@
       <c r="K40" s="60"/>
     </row>
     <row r="41" spans="2:11" ht="68">
-      <c r="B41" s="86"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98" t="s">
+      <c r="B41" s="90"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="40" t="s">
@@ -7506,9 +9184,9 @@
       <c r="K41" s="60"/>
     </row>
     <row r="42" spans="2:11" ht="34">
-      <c r="B42" s="86"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="40" t="s">
         <v>225</v>
       </c>
@@ -7530,9 +9208,9 @@
       <c r="K42" s="60"/>
     </row>
     <row r="43" spans="2:11" ht="34">
-      <c r="B43" s="86"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
       <c r="E43" s="40" t="s">
         <v>226</v>
       </c>
@@ -7554,8 +9232,8 @@
       <c r="K43" s="60"/>
     </row>
     <row r="44" spans="2:11" ht="34">
-      <c r="B44" s="86"/>
-      <c r="C44" s="98"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="102"/>
       <c r="D44" s="40" t="s">
         <v>112</v>
       </c>
@@ -7580,8 +9258,8 @@
       <c r="K44" s="60"/>
     </row>
     <row r="45" spans="2:11" ht="34">
-      <c r="B45" s="86"/>
-      <c r="C45" s="98"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="102"/>
       <c r="D45" s="40" t="s">
         <v>111</v>
       </c>
@@ -7606,8 +9284,8 @@
       <c r="K45" s="60"/>
     </row>
     <row r="46" spans="2:11" ht="34">
-      <c r="B46" s="86"/>
-      <c r="C46" s="98"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="102"/>
       <c r="D46" s="40" t="s">
         <v>107</v>
       </c>
@@ -7632,8 +9310,8 @@
       <c r="K46" s="60"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="86"/>
-      <c r="C47" s="98"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="102"/>
       <c r="D47" s="40" t="s">
         <v>85</v>
       </c>
@@ -7658,8 +9336,8 @@
       <c r="K47" s="60"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="86"/>
-      <c r="C48" s="98"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="102"/>
       <c r="D48" s="40" t="s">
         <v>77</v>
       </c>
@@ -7684,8 +9362,8 @@
       <c r="K48" s="60"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="86"/>
-      <c r="C49" s="98"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="40" t="s">
         <v>77</v>
       </c>
@@ -7710,7 +9388,7 @@
       <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" ht="34">
-      <c r="B50" s="86"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="40" t="s">
         <v>56</v>
       </c>
@@ -7738,8 +9416,8 @@
       <c r="K50" s="60"/>
     </row>
     <row r="51" spans="2:11" ht="34">
-      <c r="B51" s="86"/>
-      <c r="C51" s="98" t="s">
+      <c r="B51" s="90"/>
+      <c r="C51" s="102" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -7768,8 +9446,8 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="86"/>
-      <c r="C52" s="98"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="102"/>
       <c r="D52" s="40" t="s">
         <v>39</v>
       </c>
@@ -7794,8 +9472,8 @@
       <c r="K52" s="52"/>
     </row>
     <row r="53" spans="2:11" ht="119">
-      <c r="B53" s="86"/>
-      <c r="C53" s="98"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="102"/>
       <c r="D53" s="40" t="s">
         <v>39</v>
       </c>
@@ -7822,8 +9500,8 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="86"/>
-      <c r="C54" s="98"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="102"/>
       <c r="D54" s="40" t="s">
         <v>39</v>
       </c>
@@ -7848,7 +9526,7 @@
       <c r="K54" s="60"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="90" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -7880,7 +9558,7 @@
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="86"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="40" t="s">
         <v>278</v>
       </c>
@@ -7910,10 +9588,10 @@
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="87"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="40" t="s">
         <v>74</v>
       </c>
@@ -7938,8 +9616,8 @@
       <c r="K57" s="60"/>
     </row>
     <row r="58" spans="2:11" ht="51">
-      <c r="B58" s="86"/>
-      <c r="C58" s="87"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="40" t="s">
         <v>75</v>
       </c>
@@ -7964,7 +9642,7 @@
       <c r="K58" s="60"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="90" t="s">
         <v>267</v>
       </c>
       <c r="C59" s="40" t="s">
@@ -7994,8 +9672,8 @@
       <c r="K59" s="60"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="86"/>
-      <c r="C60" s="98" t="s">
+      <c r="B60" s="90"/>
+      <c r="C60" s="102" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="40" t="s">
@@ -8022,8 +9700,8 @@
       <c r="K60" s="51"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="86"/>
-      <c r="C61" s="98"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="40" t="s">
         <v>118</v>
       </c>
@@ -8048,7 +9726,7 @@
       <c r="K61" s="60"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="86"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="40" t="s">
         <v>124</v>
       </c>
@@ -8076,7 +9754,7 @@
       <c r="K62" s="60"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="86"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="40" t="s">
         <v>276</v>
       </c>
@@ -8106,10 +9784,10 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="102">
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="87"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="40" t="s">
         <v>30</v>
       </c>
@@ -8136,10 +9814,10 @@
       </c>
     </row>
     <row r="65" spans="2:11" ht="34">
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="87"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="40" t="s">
         <v>137</v>
       </c>
@@ -8161,11 +9839,11 @@
       <c r="J65" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="K65" s="90"/>
+      <c r="K65" s="94"/>
     </row>
     <row r="66" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B66" s="88"/>
-      <c r="C66" s="89"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="53" t="s">
         <v>75</v>
       </c>
@@ -8187,7 +9865,7 @@
       <c r="J66" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="91"/>
+      <c r="K66" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8221,7 +9899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BD3A42-6A7E-4449-A6C1-52E221A53C86}">
   <dimension ref="B1:K68"/>
   <sheetViews>
@@ -8252,10 +9930,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="100"/>
+      <c r="C3" s="104"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -8377,11 +10055,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="35" t="s">
         <v>180</v>
       </c>
@@ -8403,9 +10081,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="36" t="s">
         <v>181</v>
       </c>
@@ -8427,9 +10105,9 @@
       <c r="K17" s="50"/>
     </row>
     <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="36" t="s">
         <v>182</v>
       </c>
@@ -8451,9 +10129,9 @@
       <c r="K18" s="50"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="36" t="s">
         <v>183</v>
       </c>
@@ -8475,9 +10153,9 @@
       <c r="K19" s="50"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="36" t="s">
         <v>184</v>
       </c>
@@ -8499,9 +10177,9 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="36" t="s">
         <v>185</v>
       </c>
@@ -8523,10 +10201,10 @@
       <c r="K21" s="50"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="36" t="s">
         <v>115</v>
       </c>
@@ -8551,8 +10229,8 @@
       <c r="K22" s="50"/>
     </row>
     <row r="23" spans="2:11" ht="82" customHeight="1">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="36" t="s">
         <v>270</v>
       </c>
@@ -8577,13 +10255,13 @@
       <c r="K23" s="50"/>
     </row>
     <row r="24" spans="2:11" ht="70" customHeight="1">
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="102" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="36" t="s">
@@ -8607,9 +10285,9 @@
       <c r="K24" s="50"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="86"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="36" t="s">
         <v>189</v>
       </c>
@@ -8631,9 +10309,9 @@
       <c r="K25" s="50"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="86"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="36" t="s">
         <v>190</v>
       </c>
@@ -8655,9 +10333,9 @@
       <c r="K26" s="50"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="86"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="36" t="s">
@@ -8681,9 +10359,9 @@
       <c r="K27" s="50"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="86"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="36" t="s">
         <v>192</v>
       </c>
@@ -8705,9 +10383,9 @@
       <c r="K28" s="50"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="86"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="36" t="s">
         <v>193</v>
       </c>
@@ -8729,9 +10407,9 @@
       <c r="K29" s="50"/>
     </row>
     <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="86"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98" t="s">
+      <c r="B30" s="90"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="36" t="s">
@@ -8755,9 +10433,9 @@
       <c r="K30" s="50"/>
     </row>
     <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="36" t="s">
         <v>195</v>
       </c>
@@ -8779,9 +10457,9 @@
       <c r="K31" s="50"/>
     </row>
     <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="86"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
       <c r="E32" s="36" t="s">
         <v>196</v>
       </c>
@@ -8803,9 +10481,9 @@
       <c r="K32" s="50"/>
     </row>
     <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
       <c r="E33" s="36" t="s">
         <v>197</v>
       </c>
@@ -8827,9 +10505,9 @@
       <c r="K33" s="50"/>
     </row>
     <row r="34" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="36" t="s">
         <v>198</v>
       </c>
@@ -8851,9 +10529,9 @@
       <c r="K34" s="50"/>
     </row>
     <row r="35" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="36" t="s">
@@ -8877,9 +10555,9 @@
       <c r="K35" s="50"/>
     </row>
     <row r="36" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B36" s="86"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="36" t="s">
         <v>200</v>
       </c>
@@ -8901,9 +10579,9 @@
       <c r="K36" s="50"/>
     </row>
     <row r="37" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B37" s="86"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="36" t="s">
         <v>201</v>
       </c>
@@ -8925,8 +10603,8 @@
       <c r="K37" s="50"/>
     </row>
     <row r="38" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B38" s="86"/>
-      <c r="C38" s="98" t="s">
+      <c r="B38" s="90"/>
+      <c r="C38" s="102" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="36" t="s">
@@ -8953,8 +10631,8 @@
       <c r="K38" s="50"/>
     </row>
     <row r="39" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B39" s="86"/>
-      <c r="C39" s="98"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="36" t="s">
         <v>39</v>
       </c>
@@ -8979,8 +10657,8 @@
       <c r="K39" s="50"/>
     </row>
     <row r="40" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B40" s="86"/>
-      <c r="C40" s="98"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="36" t="s">
         <v>45</v>
       </c>
@@ -9005,13 +10683,13 @@
       <c r="K40" s="50"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="102" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -9035,9 +10713,9 @@
       <c r="K41" s="50"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="86"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="36" t="s">
         <v>223</v>
       </c>
@@ -9059,9 +10737,9 @@
       <c r="K42" s="50"/>
     </row>
     <row r="43" spans="2:11" ht="68">
-      <c r="B43" s="86"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98" t="s">
+      <c r="B43" s="90"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="36" t="s">
@@ -9085,9 +10763,9 @@
       <c r="K43" s="50"/>
     </row>
     <row r="44" spans="2:11" ht="34">
-      <c r="B44" s="86"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
       <c r="E44" s="36" t="s">
         <v>225</v>
       </c>
@@ -9109,9 +10787,9 @@
       <c r="K44" s="50"/>
     </row>
     <row r="45" spans="2:11" ht="34">
-      <c r="B45" s="86"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
       <c r="E45" s="36" t="s">
         <v>226</v>
       </c>
@@ -9133,8 +10811,8 @@
       <c r="K45" s="50"/>
     </row>
     <row r="46" spans="2:11" ht="34">
-      <c r="B46" s="86"/>
-      <c r="C46" s="98"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="102"/>
       <c r="D46" s="36" t="s">
         <v>112</v>
       </c>
@@ -9159,8 +10837,8 @@
       <c r="K46" s="50"/>
     </row>
     <row r="47" spans="2:11" ht="34">
-      <c r="B47" s="86"/>
-      <c r="C47" s="98"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="102"/>
       <c r="D47" s="36" t="s">
         <v>111</v>
       </c>
@@ -9185,8 +10863,8 @@
       <c r="K47" s="50"/>
     </row>
     <row r="48" spans="2:11" ht="34">
-      <c r="B48" s="86"/>
-      <c r="C48" s="98"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="102"/>
       <c r="D48" s="36" t="s">
         <v>107</v>
       </c>
@@ -9211,8 +10889,8 @@
       <c r="K48" s="50"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="86"/>
-      <c r="C49" s="98"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="36" t="s">
         <v>85</v>
       </c>
@@ -9237,8 +10915,8 @@
       <c r="K49" s="50"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="86"/>
-      <c r="C50" s="98"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="36" t="s">
         <v>77</v>
       </c>
@@ -9263,8 +10941,8 @@
       <c r="K50" s="50"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="86"/>
-      <c r="C51" s="98"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="36" t="s">
         <v>77</v>
       </c>
@@ -9289,7 +10967,7 @@
       <c r="K51" s="50"/>
     </row>
     <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="86"/>
+      <c r="B52" s="90"/>
       <c r="C52" s="36" t="s">
         <v>56</v>
       </c>
@@ -9317,8 +10995,8 @@
       <c r="K52" s="50"/>
     </row>
     <row r="53" spans="2:11" ht="34">
-      <c r="B53" s="86"/>
-      <c r="C53" s="98" t="s">
+      <c r="B53" s="90"/>
+      <c r="C53" s="102" t="s">
         <v>84</v>
       </c>
       <c r="D53" s="36" t="s">
@@ -9347,8 +11025,8 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="86"/>
-      <c r="C54" s="98"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="102"/>
       <c r="D54" s="36" t="s">
         <v>39</v>
       </c>
@@ -9373,8 +11051,8 @@
       <c r="K54" s="52"/>
     </row>
     <row r="55" spans="2:11" ht="119">
-      <c r="B55" s="86"/>
-      <c r="C55" s="98"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="102"/>
       <c r="D55" s="36" t="s">
         <v>39</v>
       </c>
@@ -9401,8 +11079,8 @@
       </c>
     </row>
     <row r="56" spans="2:11" ht="34">
-      <c r="B56" s="86"/>
-      <c r="C56" s="98"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="36" t="s">
         <v>39</v>
       </c>
@@ -9427,7 +11105,7 @@
       <c r="K56" s="50"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="90" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -9459,7 +11137,7 @@
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="86"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="36" t="s">
         <v>132</v>
       </c>
@@ -9489,10 +11167,10 @@
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="87"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="36" t="s">
         <v>74</v>
       </c>
@@ -9517,8 +11195,8 @@
       <c r="K59" s="50"/>
     </row>
     <row r="60" spans="2:11" ht="51">
-      <c r="B60" s="86"/>
-      <c r="C60" s="87"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="36" t="s">
         <v>75</v>
       </c>
@@ -9543,7 +11221,7 @@
       <c r="K60" s="50"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="86" t="s">
+      <c r="B61" s="90" t="s">
         <v>267</v>
       </c>
       <c r="C61" s="36" t="s">
@@ -9573,8 +11251,8 @@
       <c r="K61" s="50"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="86"/>
-      <c r="C62" s="98" t="s">
+      <c r="B62" s="90"/>
+      <c r="C62" s="102" t="s">
         <v>68</v>
       </c>
       <c r="D62" s="36" t="s">
@@ -9601,8 +11279,8 @@
       <c r="K62" s="51"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="86"/>
-      <c r="C63" s="98"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="36" t="s">
         <v>118</v>
       </c>
@@ -9627,7 +11305,7 @@
       <c r="K63" s="50"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="86"/>
+      <c r="B64" s="90"/>
       <c r="C64" s="36" t="s">
         <v>124</v>
       </c>
@@ -9655,7 +11333,7 @@
       <c r="K64" s="50"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="86"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="36" t="s">
         <v>131</v>
       </c>
@@ -9683,10 +11361,10 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="102">
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="87"/>
+      <c r="C66" s="91"/>
       <c r="D66" s="36" t="s">
         <v>30</v>
       </c>
@@ -9713,10 +11391,10 @@
       </c>
     </row>
     <row r="67" spans="2:11" ht="34">
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="C67" s="87"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="36" t="s">
         <v>137</v>
       </c>
@@ -9738,11 +11416,11 @@
       <c r="J67" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="90"/>
+      <c r="K67" s="94"/>
     </row>
     <row r="68" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="93"/>
       <c r="D68" s="53" t="s">
         <v>75</v>
       </c>
@@ -9764,7 +11442,7 @@
       <c r="J68" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K68" s="91"/>
+      <c r="K68" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -9798,7 +11476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2F09C0-156E-4DA5-A577-69CE2AAC7D43}">
   <dimension ref="A2:H55"/>
   <sheetViews>
@@ -9845,11 +11523,11 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
+      <c r="A3" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="2" t="s">
         <v>180</v>
       </c>
@@ -9865,9 +11543,9 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="120"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="30" t="s">
         <v>181</v>
       </c>
@@ -9883,9 +11561,9 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="42.65" customHeight="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
       <c r="D5" s="30" t="s">
         <v>182</v>
       </c>
@@ -9901,9 +11579,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="122"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
       <c r="D6" s="30" t="s">
         <v>183</v>
       </c>
@@ -9919,9 +11597,9 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="120"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="122"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="30" t="s">
         <v>184</v>
       </c>
@@ -9937,9 +11615,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="123"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="125"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
       <c r="D8" s="30" t="s">
         <v>185</v>
       </c>
@@ -9955,10 +11633,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="165" customHeight="1">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="129"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
@@ -9977,8 +11655,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="82" customHeight="1">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="2" t="s">
         <v>141</v>
       </c>
@@ -9997,13 +11675,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="70" customHeight="1">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="102" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -10021,9 +11699,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="129"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="98"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="30" t="s">
         <v>189</v>
       </c>
@@ -10039,9 +11717,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="129"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="98"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="30" t="s">
         <v>190</v>
       </c>
@@ -10057,9 +11735,9 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="129"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="103" t="s">
+      <c r="A14" s="133"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="107" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -10077,9 +11755,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="129"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="104"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="30" t="s">
         <v>192</v>
       </c>
@@ -10095,9 +11773,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="129"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="104"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="30" t="s">
         <v>193</v>
       </c>
@@ -10113,9 +11791,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="103" t="s">
+      <c r="A17" s="133"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="107" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -10133,9 +11811,9 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A18" s="129"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="104"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="30" t="s">
         <v>195</v>
       </c>
@@ -10151,9 +11829,9 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A19" s="129"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="104"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="30" t="s">
         <v>196</v>
       </c>
@@ -10169,9 +11847,9 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A20" s="129"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="104"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="30" t="s">
         <v>197</v>
       </c>
@@ -10187,9 +11865,9 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A21" s="129"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="105"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="30" t="s">
         <v>198</v>
       </c>
@@ -10205,9 +11883,9 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A22" s="129"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="103" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="107" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -10225,9 +11903,9 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A23" s="129"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="104"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="30" t="s">
         <v>200</v>
       </c>
@@ -10243,9 +11921,9 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A24" s="129"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="105"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="30" t="s">
         <v>201</v>
       </c>
@@ -10261,8 +11939,8 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A25" s="129"/>
-      <c r="B25" s="103" t="s">
+      <c r="A25" s="133"/>
+      <c r="B25" s="107" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -10283,8 +11961,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A26" s="129"/>
-      <c r="B26" s="104"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
@@ -10303,8 +11981,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="56.15" customHeight="1">
-      <c r="A27" s="129"/>
-      <c r="B27" s="105"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
@@ -10323,13 +12001,13 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="107" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -10347,9 +12025,9 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="113"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="30" t="s">
         <v>206</v>
       </c>
@@ -10365,9 +12043,9 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="68">
-      <c r="A30" s="113"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="103" t="s">
+      <c r="A30" s="117"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="107" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="30" t="s">
@@ -10385,9 +12063,9 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="34">
-      <c r="A31" s="113"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="30" t="s">
         <v>208</v>
       </c>
@@ -10403,9 +12081,9 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="34">
-      <c r="A32" s="113"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="30" t="s">
         <v>209</v>
       </c>
@@ -10421,8 +12099,8 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="34">
-      <c r="A33" s="113"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="2" t="s">
         <v>112</v>
       </c>
@@ -10441,8 +12119,8 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="34">
-      <c r="A34" s="113"/>
-      <c r="B34" s="104"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="2" t="s">
         <v>111</v>
       </c>
@@ -10461,8 +12139,8 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="34">
-      <c r="A35" s="113"/>
-      <c r="B35" s="104"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
@@ -10481,8 +12159,8 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="113"/>
-      <c r="B36" s="104"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="2" t="s">
         <v>85</v>
       </c>
@@ -10501,8 +12179,8 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="113"/>
-      <c r="B37" s="104"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="2" t="s">
         <v>77</v>
       </c>
@@ -10521,8 +12199,8 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="113"/>
-      <c r="B38" s="105"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
@@ -10541,7 +12219,7 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="34">
-      <c r="A39" s="113"/>
+      <c r="A39" s="117"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
@@ -10563,8 +12241,8 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="34">
-      <c r="A40" s="113"/>
-      <c r="B40" s="103" t="s">
+      <c r="A40" s="117"/>
+      <c r="B40" s="107" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -10587,8 +12265,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="34">
-      <c r="A41" s="113"/>
-      <c r="B41" s="104"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
@@ -10607,8 +12285,8 @@
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" ht="119">
-      <c r="A42" s="113"/>
-      <c r="B42" s="104"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="108"/>
       <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
@@ -10629,8 +12307,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="34">
-      <c r="A43" s="114"/>
-      <c r="B43" s="105"/>
+      <c r="A43" s="118"/>
+      <c r="B43" s="109"/>
       <c r="C43" s="2" t="s">
         <v>39</v>
       </c>
@@ -10649,7 +12327,7 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="107" t="s">
+      <c r="A44" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -10675,7 +12353,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="109"/>
+      <c r="A45" s="113"/>
       <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
@@ -10699,10 +12377,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="107" t="s">
+      <c r="A46" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="108"/>
+      <c r="B46" s="112"/>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
@@ -10721,8 +12399,8 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="51">
-      <c r="A47" s="109"/>
-      <c r="B47" s="110"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="114"/>
       <c r="C47" s="2" t="s">
         <v>75</v>
       </c>
@@ -10741,7 +12419,7 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="111" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -10765,8 +12443,8 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="111"/>
-      <c r="B49" s="98" t="s">
+      <c r="A49" s="115"/>
+      <c r="B49" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -10787,8 +12465,8 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="111"/>
-      <c r="B50" s="98"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="2" t="s">
         <v>118</v>
       </c>
@@ -10807,7 +12485,7 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="111"/>
+      <c r="A51" s="115"/>
       <c r="B51" s="2" t="s">
         <v>124</v>
       </c>
@@ -10829,7 +12507,7 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="109"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
@@ -10851,10 +12529,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="102">
-      <c r="A53" s="115" t="s">
+      <c r="A53" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="116"/>
+      <c r="B53" s="120"/>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
@@ -10875,10 +12553,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="34">
-      <c r="A54" s="107" t="s">
+      <c r="A54" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="108"/>
+      <c r="B54" s="112"/>
       <c r="C54" s="2" t="s">
         <v>137</v>
       </c>
@@ -10894,11 +12572,11 @@
       <c r="G54" s="3">
         <v>3</v>
       </c>
-      <c r="H54" s="103"/>
+      <c r="H54" s="107"/>
     </row>
     <row r="55" spans="1:8" ht="301" customHeight="1">
-      <c r="A55" s="109"/>
-      <c r="B55" s="110"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
@@ -10914,7 +12592,7 @@
       <c r="G55" s="4">
         <v>3</v>
       </c>
-      <c r="H55" s="105"/>
+      <c r="H55" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -10947,7 +12625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A756F41A-28DD-4412-A372-3C92ED27208E}">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -10963,158 +12641,158 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="136" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="161" t="s">
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="162"/>
+      <c r="J2" s="166"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="164"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="132"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="156" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="160" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="157"/>
+      <c r="J4" s="161"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="157"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="161"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="157"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="161"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="157"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="161"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="157"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="161"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="157"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="161"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="132"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="157"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="161"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="132"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="153" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="157"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="161"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="17.149999999999999" customHeight="1">
-      <c r="A12" s="132"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -11123,14 +12801,14 @@
       <c r="H12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="158"/>
-      <c r="J12" s="157"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="134"/>
-      <c r="B13" s="135"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="19"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -11139,210 +12817,210 @@
       <c r="H13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="158"/>
-      <c r="J13" s="157"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="161"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="146"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="19"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="157"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="161"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="147"/>
-      <c r="B15" s="148"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="19"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="157"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="161"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="147"/>
-      <c r="B16" s="148"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="19"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="157"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="161"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="147"/>
-      <c r="B17" s="148"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="19"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="157"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="161"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="19"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="160"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="164"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="147"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="165" t="s">
+      <c r="A19" s="151"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="151" t="s">
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="152"/>
+      <c r="J19" s="156"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
+      <c r="A20" s="151"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="19"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="147"/>
-      <c r="B21" s="148"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="19"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="152"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="147"/>
-      <c r="B22" s="148"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="19"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="147"/>
-      <c r="B23" s="148"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="19"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="147"/>
-      <c r="B24" s="148"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="19"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="147"/>
-      <c r="B25" s="148"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="19"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="147"/>
-      <c r="B26" s="148"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="19"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="149"/>
-      <c r="B27" s="150"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>

--- a/ViT_docs/GDBMS_시각화도구_요구사항_정의서.xlsx
+++ b/ViT_docs/GDBMS_시각화도구_요구사항_정의서.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\fork_visual_tool\ViT_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\source\iitp\fork\visual-tool\ViT_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD793352-C0ED-4621-83FF-0E02CAF1627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633BBD1A-35E1-4D79-BDDA-718C4810BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="860" windowWidth="27390" windowHeight="20140" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
+    <workbookView xWindow="19800" yWindow="4000" windowWidth="14400" windowHeight="7470" activeTab="1" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="4" r:id="rId1"/>
-    <sheet name="v0.6" sheetId="9" r:id="rId2"/>
-    <sheet name="v0.5" sheetId="8" r:id="rId3"/>
-    <sheet name="v0.4" sheetId="7" r:id="rId4"/>
-    <sheet name="v0.3" sheetId="6" r:id="rId5"/>
-    <sheet name="v0.2" sheetId="5" r:id="rId6"/>
-    <sheet name="v0.1" sheetId="2" r:id="rId7"/>
-    <sheet name="UI" sheetId="3" r:id="rId8"/>
+    <sheet name="v0.7" sheetId="10" r:id="rId2"/>
+    <sheet name="v0.6" sheetId="9" r:id="rId3"/>
+    <sheet name="v0.5" sheetId="8" r:id="rId4"/>
+    <sheet name="v0.4" sheetId="7" r:id="rId5"/>
+    <sheet name="v0.3" sheetId="6" r:id="rId6"/>
+    <sheet name="v0.2" sheetId="5" r:id="rId7"/>
+    <sheet name="v0.1" sheetId="2" r:id="rId8"/>
+    <sheet name="UI" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="382">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1348,6 +1349,270 @@
   </si>
   <si>
     <t>VI-COMM-04, VI-QURY-01 : Gremlin -&gt; GQL 변경 사항 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오명환/한기수 설계문서 리뷰 내용 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurboGraph++와 표준화된 driver interface와 GQL 언어를 이용하여 통신이 가능하도록 구성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 perspective는 확정해서 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단 – 연결탐색기 (DBeaver 기본)
+왼쪽 하단 – 프로젝트 View (DBeaver 기본)
+오른쪽 상단은 변환 기능, 질의 창, output 창, Log창이 한 묶음이다.
+상단에서 변환 기능은 상단에 위치하고 질의창은 하단에 위치한다.
+OutputView와 LogView은 질의 창 오른쪽에 표시되며, 활성화, 비활성화가 가능하다.
+오른쪽 하단은 시각화View, TableView, PlanView, Properties, ChartView, 다지인, 설정 View가 한 묶음이다,
+하단에서 왼쪽에 시각화View와 TableView, PlanView가 위치하며 
+하단에서 오른쪽은 Properties, ChartView, 디자인, 설정이 위치한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동연결은 프로그램 재시작 또는 연결 실패 시 자동연결을 시도한다.
+(1번 자동연결을 시도한 후 에는 재시도 하지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Connection </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 서버에 정보를 수정할 수 있도록 연결창(Popup)을 Open한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 서버가 연결되어 있지 않을 경우 활성화되며 연결/재연결을 시도한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 서버가 연결되어 있는 경우 활성화되며 연결을 종료한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결되지 않은 서버는 목록에서 비활성화 할 수 있도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버를 목록에 추가할 수 있는 연결창(Popup)을 Open한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결되지 않은 서버를 목록에서 활성화/비활성화 할 수 있도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동연결기능을 ON/OFF을 할 수 있도록 한다. (기본값 : OFF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결 테스트 결과창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 정점(Vertex), 속성(Properties), 간선(Edge)을 대상으로 검색 문자열을 질의로 변환할 수 있는 기능을 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 또는 복수로 선택한 정점, 속성, 간선을 대상으로 검색 문자열을 질의로 변환하는 기능을 제공한다. 
+(기본값 : 정점만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextBox에 검색문자열을 입력 후에 실행 버튼을 누르면 질의창에 변환한 질의가 입력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의창(Query View) 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GQL입력할 수 있는 질의창을 제공한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의(Query) 저장 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의창에서 자주 사용하는 질의를 파일로 저장할 수 있는 기능을 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의창에서 자주 사용하는 질의를 파일에서 불러오기를 할 수 있는 기능을 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의 입력 시 자동완성 기능이 팝업 형태로 보여주고 선택 시 입력이 가능하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의창에 질의를 입력한 후 실행 버튼을 누르면 질의가 수행된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의창에 질의를 입력한 후 질의 실행 계획 보기 버튼을 누르면 질의계획을 얻어와 
+질의 실행 계획 창(Query Plan View)에 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">질의 결과를 표(Table)형태로 보여준다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의 실행 계획 정보를 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의 실행 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행된 질의의 성공/실패 여부 제공 (로그 형태)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의 결과를 정점과 간선로 시각화하여 표현한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 된 정점 또는 간선을 개별, 복수, 범위 선택이 가능하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 된 정점 또는 간선의 삭제 기능과
+다시 실행(Undo), 되돌리기(Redo) 기능을 지원한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이라이트(Highlight)표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 정점에서 간선까지 하이라이트 표시 기능을 제공하며,
+정점을 선택 시 활성화된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정에 따라 표현 개수를 제한할 수 있도록 한다.
+기본 설정 개수 및 최대 개수는 성능테스트 후 결정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 결과에서 라벨(Label), 속성, 간선 등 원하는 정보만 출력하도록 지원
+기본 출력은 라벨만 대상이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정점과 간선 선택 시 디자인 변경이 가능하다.
+정점과 간선 선택 시 디자인 변경 뷰를 통해
+변경할 수 있는 디자인 항목은 색상, 크기/두께, 글씨 크기, 색상이 가능하다.
+개별,복수, 범위를 선택하여 변경할 수 있으며,
+정점의 기본 색상은 파란색이며, 간선은 검은색이다. 크기의 기본값은 추후 정해진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+', '-' 버튼을 통해 확대/축소가 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + 마우스휠 버튼을 통해 확대/축소가 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드로 삭제 기능 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정점 선택 시 delete버튼을 통해 결과 수정 기능이 가능하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵(Mini-Map) 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵을 통해 시각화 창의 해당 포인트로 이동 가능하도록 한다.
+전체UI에 오른쪽 하단에 위치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴(Pattern) 검색 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 된 결과에서 패턴과 동일한 결과를 찾을 수 있는 기능을 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지(Image) 내보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 결과를 이미지 파일(png)로 내보내기 기능 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과를 CSV 파일로 내보내기 기능으로 정점, 간선별로 구분해서 내보낼 수 있다.
+라벨과 속성 정보가 내보내기에 포함된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼을 통해 시각화 결과 형태을 변경하는 기능을 제공한다.
+(세로정렬, 가로정렬, 원형등 총 7가지 버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보 뷰 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정점 또는 간선 선택 시 속성 정보를 상세하게 확인할 수 있는 뷰를 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 결과 정보 중 속성의 정보를 Table, chart등으로 표현한다.
+(검색된 결과에서 속성 종류를 검색하여 리스트(List)로 만들고 속성을 선택하여 결과를 만듬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 속성 선택을 위해 체크박스(CheckBox)로 현재 시각화에서 로드 된 속성 정보를 보여주고 선택할 수 있도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐색&amp;분석을 목표하여 개발(e.g.Neo4J Bloom)
+시각화 화면을 통해 GDBMS에 추가, 삭제 기능은 미제공한다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결창 안에서 서버 연결을 테스트할 수 있는 버튼(Button)을 제공합니다.
+연결 결과는 연결창으로 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 계획 정보표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의(Query) 불러오기 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2025,7 +2290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2296,12 +2561,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2332,32 +2636,44 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2387,45 +2703,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2560,6 +2837,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1279070</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3537940</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D06A55-A2AD-4856-A003-CC5444521D48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19401970" y="25292050"/>
+          <a:ext cx="3535220" cy="4336143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4680857</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>367392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF3EA64-08DE-4FC7-A3A2-67CB79B83328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19562536" y="23619278"/>
+          <a:ext cx="4517571" cy="312964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2652,7 +3022,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2745,7 +3115,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2838,7 +3208,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2943,7 +3313,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3048,7 +3418,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3452,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C83389-05E5-4B5F-B445-C5C5AA49E047}">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3590,11 +3960,21 @@
       <c r="F10" s="68"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="67"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="67">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="42">
+        <v>44557</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="67"/>
@@ -3723,6 +4103,1554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC5A66E-26F0-4886-9613-648174D9D4AD}">
+  <dimension ref="B1:K67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.75" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="76" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="30">
+      <c r="B1" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1">
+      <c r="B3" s="94" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="95"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5"/>
+      <c r="G5" s="1"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
+      <c r="B13" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
+      <c r="B14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" thickBot="1">
+      <c r="B15" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="93">
+        <v>1</v>
+      </c>
+      <c r="I16" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J16" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="91">
+        <v>1</v>
+      </c>
+      <c r="I17" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J17" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="90"/>
+    </row>
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J18" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="90"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="F19" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H19" s="91">
+        <v>1</v>
+      </c>
+      <c r="I19" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J19" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="90"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H20" s="91">
+        <v>1</v>
+      </c>
+      <c r="I20" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J20" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="90"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="8">
+        <v>4</v>
+      </c>
+      <c r="I21" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J21" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="90"/>
+    </row>
+    <row r="22" spans="2:11" ht="165" customHeight="1">
+      <c r="B22" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="99"/>
+      <c r="D22" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J22" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="90"/>
+    </row>
+    <row r="23" spans="2:11" ht="70" customHeight="1">
+      <c r="B23" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J23" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="90"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="98"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="91">
+        <v>1</v>
+      </c>
+      <c r="I24" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J24" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="90"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="98"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="91">
+        <v>1</v>
+      </c>
+      <c r="I25" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J25" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="90"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="91">
+        <v>1</v>
+      </c>
+      <c r="I26" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J26" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="90"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="98"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="91">
+        <v>1</v>
+      </c>
+      <c r="I27" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J27" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="90"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+      <c r="I28" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J28" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="90"/>
+    </row>
+    <row r="29" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B29" s="98"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J29" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="90"/>
+    </row>
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B30" s="98"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J30" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="90"/>
+    </row>
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B31" s="98"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J31" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="90"/>
+    </row>
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B32" s="98"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J32" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="90"/>
+    </row>
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B33" s="98"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="91">
+        <v>1</v>
+      </c>
+      <c r="I33" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J33" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="90"/>
+    </row>
+    <row r="34" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B34" s="98"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2</v>
+      </c>
+      <c r="I34" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J34" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="90"/>
+    </row>
+    <row r="35" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B35" s="98"/>
+      <c r="C35" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="91" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J35" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="90"/>
+    </row>
+    <row r="36" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B36" s="98"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J36" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="90"/>
+    </row>
+    <row r="37" spans="2:11" ht="56.15" customHeight="1">
+      <c r="B37" s="98"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="91" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J37" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="90"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="109" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H38" s="91">
+        <v>2</v>
+      </c>
+      <c r="I38" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J38" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="90"/>
+    </row>
+    <row r="39" spans="2:11" ht="34">
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="91" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J39" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="90"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="91" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J40" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="90"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="110"/>
+      <c r="D41" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H41" s="91">
+        <v>1</v>
+      </c>
+      <c r="I41" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J41" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="90"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="H42" s="91">
+        <v>3</v>
+      </c>
+      <c r="I42" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J42" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="111"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H43" s="91">
+        <v>3</v>
+      </c>
+      <c r="I43" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J43" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="90"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="111"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H44" s="91">
+        <v>4</v>
+      </c>
+      <c r="I44" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J44" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="90"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="111"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="H45" s="91">
+        <v>1</v>
+      </c>
+      <c r="I45" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J45" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="90"/>
+    </row>
+    <row r="46" spans="2:11" ht="34">
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="91" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H46" s="91">
+        <v>3</v>
+      </c>
+      <c r="I46" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J46" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="90"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="110"/>
+      <c r="D47" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="91" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J47" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="111"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="91" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J48" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="K48" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="H49" s="91">
+        <v>1</v>
+      </c>
+      <c r="I49" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J49" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="H50" s="91">
+        <v>1</v>
+      </c>
+      <c r="I50" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J50" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="90"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="98"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="H51" s="91">
+        <v>2</v>
+      </c>
+      <c r="I51" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J51" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="90"/>
+    </row>
+    <row r="52" spans="2:11" ht="34">
+      <c r="B52" s="98"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+      <c r="I52" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J52" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="90"/>
+    </row>
+    <row r="53" spans="2:11" ht="34">
+      <c r="B53" s="98"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J53" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="90"/>
+    </row>
+    <row r="54" spans="2:11" ht="34">
+      <c r="B54" s="98"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J54" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="90"/>
+    </row>
+    <row r="55" spans="2:11" ht="34">
+      <c r="B55" s="98"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J55" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="90"/>
+    </row>
+    <row r="56" spans="2:11" ht="85">
+      <c r="B56" s="98"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="91" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J56" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="90"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="98"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="H57" s="16">
+        <v>3</v>
+      </c>
+      <c r="I57" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J57" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="90"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="98"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H58" s="91">
+        <v>3</v>
+      </c>
+      <c r="I58" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J58" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="90"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="98"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="H59" s="91">
+        <v>3</v>
+      </c>
+      <c r="I59" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J59" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="90"/>
+    </row>
+    <row r="60" spans="2:11" ht="34">
+      <c r="B60" s="98"/>
+      <c r="C60" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J60" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="90"/>
+    </row>
+    <row r="61" spans="2:11" ht="34">
+      <c r="B61" s="98"/>
+      <c r="C61" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4</v>
+      </c>
+      <c r="I61" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J61" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="98"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="91" t="s">
+        <v>369</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J62" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62" s="52"/>
+    </row>
+    <row r="63" spans="2:11" ht="119">
+      <c r="B63" s="98"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="91" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="91" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
+      <c r="I63" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J63" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="34">
+      <c r="B64" s="98"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3</v>
+      </c>
+      <c r="I64" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J64" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="90"/>
+    </row>
+    <row r="65" spans="2:11" ht="102">
+      <c r="B65" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="99"/>
+      <c r="D65" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="91" t="s">
+        <v>373</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="H65" s="91">
+        <v>1</v>
+      </c>
+      <c r="I65" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J65" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="34">
+      <c r="B66" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="99"/>
+      <c r="D66" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="F66" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J66" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="107"/>
+    </row>
+    <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="H67" s="53">
+        <v>3</v>
+      </c>
+      <c r="I67" s="64">
+        <v>44475</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C35:C37"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B644C1-4917-4B7C-B04E-DB88783D9058}">
   <dimension ref="B1:K67"/>
   <sheetViews>
@@ -3753,10 +5681,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="104"/>
+      <c r="C3" s="95"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -3878,11 +5806,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
+      <c r="B16" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="89" t="s">
         <v>180</v>
       </c>
@@ -3904,9 +5832,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="87" t="s">
         <v>181</v>
       </c>
@@ -3928,9 +5856,9 @@
       <c r="K17" s="86"/>
     </row>
     <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="87" t="s">
         <v>182</v>
       </c>
@@ -3952,9 +5880,9 @@
       <c r="K18" s="86"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="87" t="s">
         <v>319</v>
       </c>
@@ -3976,9 +5904,9 @@
       <c r="K19" s="86"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="87" t="s">
         <v>184</v>
       </c>
@@ -4000,9 +5928,9 @@
       <c r="K20" s="86"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="87" t="s">
         <v>185</v>
       </c>
@@ -4024,10 +5952,10 @@
       <c r="K21" s="86"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="87" t="s">
         <v>115</v>
       </c>
@@ -4052,13 +5980,13 @@
       <c r="K22" s="86"/>
     </row>
     <row r="23" spans="2:11" ht="70" customHeight="1">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="100" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="87" t="s">
@@ -4082,9 +6010,9 @@
       <c r="K23" s="86"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="90"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="87" t="s">
         <v>189</v>
       </c>
@@ -4106,9 +6034,9 @@
       <c r="K24" s="86"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="90"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="87" t="s">
         <v>190</v>
       </c>
@@ -4130,9 +6058,9 @@
       <c r="K25" s="86"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="90"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102" t="s">
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="87" t="s">
@@ -4156,9 +6084,9 @@
       <c r="K26" s="86"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="90"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="87" t="s">
         <v>192</v>
       </c>
@@ -4180,9 +6108,9 @@
       <c r="K27" s="86"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="90"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="87" t="s">
         <v>193</v>
       </c>
@@ -4204,9 +6132,9 @@
       <c r="K28" s="86"/>
     </row>
     <row r="29" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B29" s="90"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="107" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="87" t="s">
@@ -4230,9 +6158,9 @@
       <c r="K29" s="86"/>
     </row>
     <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="90"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="108"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="102"/>
       <c r="E30" s="87" t="s">
         <v>195</v>
       </c>
@@ -4254,9 +6182,9 @@
       <c r="K30" s="86"/>
     </row>
     <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="90"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="109"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="87" t="s">
         <v>196</v>
       </c>
@@ -4278,9 +6206,9 @@
       <c r="K31" s="86"/>
     </row>
     <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="90"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="110" t="s">
+      <c r="B32" s="98"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="104" t="s">
         <v>284</v>
       </c>
       <c r="E32" s="87" t="s">
@@ -4304,9 +6232,9 @@
       <c r="K32" s="86"/>
     </row>
     <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="90"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="109"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="87" t="s">
         <v>198</v>
       </c>
@@ -4328,8 +6256,8 @@
       <c r="K33" s="86"/>
     </row>
     <row r="34" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B34" s="90"/>
-      <c r="C34" s="102"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="87" t="s">
         <v>39</v>
       </c>
@@ -4354,8 +6282,8 @@
       <c r="K34" s="86"/>
     </row>
     <row r="35" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B35" s="90"/>
-      <c r="C35" s="102" t="s">
+      <c r="B35" s="98"/>
+      <c r="C35" s="100" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="87" t="s">
@@ -4382,8 +6310,8 @@
       <c r="K35" s="86"/>
     </row>
     <row r="36" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B36" s="90"/>
-      <c r="C36" s="102"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="87" t="s">
         <v>39</v>
       </c>
@@ -4408,8 +6336,8 @@
       <c r="K36" s="86"/>
     </row>
     <row r="37" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B37" s="90"/>
-      <c r="C37" s="102"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="87" t="s">
         <v>45</v>
       </c>
@@ -4434,10 +6362,10 @@
       <c r="K37" s="86"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="109" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="97"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="87" t="s">
         <v>74</v>
       </c>
@@ -4462,8 +6390,8 @@
       <c r="K38" s="86"/>
     </row>
     <row r="39" spans="2:11" ht="34">
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="87" t="s">
         <v>75</v>
       </c>
@@ -4488,8 +6416,8 @@
       <c r="K39" s="86"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="87" t="s">
         <v>285</v>
       </c>
@@ -4514,10 +6442,10 @@
       <c r="K40" s="86"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="97"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="87" t="s">
         <v>30</v>
       </c>
@@ -4542,8 +6470,8 @@
       <c r="K41" s="86"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="87" t="s">
         <v>117</v>
       </c>
@@ -4568,8 +6496,8 @@
       <c r="K42" s="51"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="112"/>
       <c r="D43" s="87" t="s">
         <v>118</v>
       </c>
@@ -4594,8 +6522,8 @@
       <c r="K43" s="86"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="98"/>
-      <c r="C44" s="99"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="87" t="s">
         <v>125</v>
       </c>
@@ -4620,8 +6548,8 @@
       <c r="K44" s="86"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="98"/>
-      <c r="C45" s="99"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="112"/>
       <c r="D45" s="87" t="s">
         <v>290</v>
       </c>
@@ -4646,8 +6574,8 @@
       <c r="K45" s="86"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
       <c r="D46" s="87" t="s">
         <v>290</v>
       </c>
@@ -4672,10 +6600,10 @@
       <c r="K46" s="86"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="109" t="s">
         <v>293</v>
       </c>
-      <c r="C47" s="97"/>
+      <c r="C47" s="110"/>
       <c r="D47" s="87" t="s">
         <v>30</v>
       </c>
@@ -4702,8 +6630,8 @@
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="98"/>
-      <c r="C48" s="99"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="87" t="s">
         <v>30</v>
       </c>
@@ -4730,8 +6658,8 @@
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="87" t="s">
         <v>30</v>
       </c>
@@ -4758,13 +6686,13 @@
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="100" t="s">
         <v>49</v>
       </c>
       <c r="E50" s="87" t="s">
@@ -4788,9 +6716,9 @@
       <c r="K50" s="86"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="90"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
       <c r="E51" s="87" t="s">
         <v>223</v>
       </c>
@@ -4812,9 +6740,9 @@
       <c r="K51" s="86"/>
     </row>
     <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="90"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102" t="s">
+      <c r="B52" s="98"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="87" t="s">
@@ -4838,9 +6766,9 @@
       <c r="K52" s="86"/>
     </row>
     <row r="53" spans="2:11" ht="34">
-      <c r="B53" s="90"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
       <c r="E53" s="87" t="s">
         <v>225</v>
       </c>
@@ -4862,8 +6790,8 @@
       <c r="K53" s="86"/>
     </row>
     <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="90"/>
-      <c r="C54" s="102"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="87" t="s">
         <v>112</v>
       </c>
@@ -4888,8 +6816,8 @@
       <c r="K54" s="86"/>
     </row>
     <row r="55" spans="2:11" ht="34">
-      <c r="B55" s="90"/>
-      <c r="C55" s="102"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="100"/>
       <c r="D55" s="87" t="s">
         <v>111</v>
       </c>
@@ -4914,8 +6842,8 @@
       <c r="K55" s="86"/>
     </row>
     <row r="56" spans="2:11" ht="85">
-      <c r="B56" s="90"/>
-      <c r="C56" s="102"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="100"/>
       <c r="D56" s="87" t="s">
         <v>304</v>
       </c>
@@ -4940,8 +6868,8 @@
       <c r="K56" s="86"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="90"/>
-      <c r="C57" s="102"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="100"/>
       <c r="D57" s="87" t="s">
         <v>85</v>
       </c>
@@ -4966,8 +6894,8 @@
       <c r="K57" s="86"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="90"/>
-      <c r="C58" s="102"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="100"/>
       <c r="D58" s="87" t="s">
         <v>77</v>
       </c>
@@ -4992,8 +6920,8 @@
       <c r="K58" s="86"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="90"/>
-      <c r="C59" s="102"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="100"/>
       <c r="D59" s="87" t="s">
         <v>77</v>
       </c>
@@ -5018,7 +6946,7 @@
       <c r="K59" s="86"/>
     </row>
     <row r="60" spans="2:11" ht="34">
-      <c r="B60" s="90"/>
+      <c r="B60" s="98"/>
       <c r="C60" s="87" t="s">
         <v>56</v>
       </c>
@@ -5046,8 +6974,8 @@
       <c r="K60" s="86"/>
     </row>
     <row r="61" spans="2:11" ht="34">
-      <c r="B61" s="90"/>
-      <c r="C61" s="102" t="s">
+      <c r="B61" s="98"/>
+      <c r="C61" s="100" t="s">
         <v>84</v>
       </c>
       <c r="D61" s="87" t="s">
@@ -5076,8 +7004,8 @@
       </c>
     </row>
     <row r="62" spans="2:11" ht="34">
-      <c r="B62" s="90"/>
-      <c r="C62" s="102"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="100"/>
       <c r="D62" s="87" t="s">
         <v>39</v>
       </c>
@@ -5102,8 +7030,8 @@
       <c r="K62" s="52"/>
     </row>
     <row r="63" spans="2:11" ht="119">
-      <c r="B63" s="90"/>
-      <c r="C63" s="102"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="100"/>
       <c r="D63" s="87" t="s">
         <v>39</v>
       </c>
@@ -5130,8 +7058,8 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="34">
-      <c r="B64" s="90"/>
-      <c r="C64" s="102"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="100"/>
       <c r="D64" s="87" t="s">
         <v>39</v>
       </c>
@@ -5156,10 +7084,10 @@
       <c r="K64" s="86"/>
     </row>
     <row r="65" spans="2:11" ht="102">
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="91"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="87" t="s">
         <v>30</v>
       </c>
@@ -5186,10 +7114,10 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="34">
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="91"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="87" t="s">
         <v>137</v>
       </c>
@@ -5211,11 +7139,11 @@
       <c r="J66" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="94"/>
+      <c r="K66" s="107"/>
     </row>
     <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B67" s="92"/>
-      <c r="C67" s="93"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
       <c r="D67" s="53" t="s">
         <v>75</v>
       </c>
@@ -5237,20 +7165,10 @@
       <c r="J67" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="95"/>
+      <c r="K67" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:D21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:B37"/>
-    <mergeCell ref="C23:C34"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C35:C37"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C67"/>
     <mergeCell ref="K66:K67"/>
@@ -5262,6 +7180,16 @@
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="D52:D53"/>
     <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5270,7 +7198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94F1E-AEAC-412C-924D-C2896C7D07BA}">
   <dimension ref="B1:K67"/>
   <sheetViews>
@@ -5301,10 +7229,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="104"/>
+      <c r="C3" s="95"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -5426,11 +7354,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
+      <c r="B16" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="84" t="s">
         <v>180</v>
       </c>
@@ -5452,9 +7380,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="83" t="s">
         <v>181</v>
       </c>
@@ -5476,9 +7404,9 @@
       <c r="K17" s="85"/>
     </row>
     <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="83" t="s">
         <v>182</v>
       </c>
@@ -5500,9 +7428,9 @@
       <c r="K18" s="85"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="83" t="s">
         <v>183</v>
       </c>
@@ -5524,9 +7452,9 @@
       <c r="K19" s="85"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="83" t="s">
         <v>184</v>
       </c>
@@ -5548,9 +7476,9 @@
       <c r="K20" s="85"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="83" t="s">
         <v>185</v>
       </c>
@@ -5572,10 +7500,10 @@
       <c r="K21" s="85"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="83" t="s">
         <v>115</v>
       </c>
@@ -5600,13 +7528,13 @@
       <c r="K22" s="85"/>
     </row>
     <row r="23" spans="2:11" ht="70" customHeight="1">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="100" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="83" t="s">
@@ -5630,9 +7558,9 @@
       <c r="K23" s="85"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="90"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="83" t="s">
         <v>189</v>
       </c>
@@ -5654,9 +7582,9 @@
       <c r="K24" s="85"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="90"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="83" t="s">
         <v>190</v>
       </c>
@@ -5678,9 +7606,9 @@
       <c r="K25" s="85"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="90"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102" t="s">
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="83" t="s">
@@ -5704,9 +7632,9 @@
       <c r="K26" s="85"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="90"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="83" t="s">
         <v>192</v>
       </c>
@@ -5728,9 +7656,9 @@
       <c r="K27" s="85"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="90"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="83" t="s">
         <v>193</v>
       </c>
@@ -5752,9 +7680,9 @@
       <c r="K28" s="85"/>
     </row>
     <row r="29" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B29" s="90"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="107" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="83" t="s">
@@ -5778,9 +7706,9 @@
       <c r="K29" s="85"/>
     </row>
     <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="90"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="108"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="102"/>
       <c r="E30" s="83" t="s">
         <v>195</v>
       </c>
@@ -5802,9 +7730,9 @@
       <c r="K30" s="85"/>
     </row>
     <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="90"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="109"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="83" t="s">
         <v>196</v>
       </c>
@@ -5826,9 +7754,9 @@
       <c r="K31" s="85"/>
     </row>
     <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="90"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="110" t="s">
+      <c r="B32" s="98"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="104" t="s">
         <v>284</v>
       </c>
       <c r="E32" s="83" t="s">
@@ -5852,9 +7780,9 @@
       <c r="K32" s="85"/>
     </row>
     <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="90"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="109"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="83" t="s">
         <v>198</v>
       </c>
@@ -5876,8 +7804,8 @@
       <c r="K33" s="85"/>
     </row>
     <row r="34" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B34" s="90"/>
-      <c r="C34" s="102"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="83" t="s">
         <v>39</v>
       </c>
@@ -5902,8 +7830,8 @@
       <c r="K34" s="85"/>
     </row>
     <row r="35" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B35" s="90"/>
-      <c r="C35" s="102" t="s">
+      <c r="B35" s="98"/>
+      <c r="C35" s="100" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="83" t="s">
@@ -5930,8 +7858,8 @@
       <c r="K35" s="85"/>
     </row>
     <row r="36" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B36" s="90"/>
-      <c r="C36" s="102"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="83" t="s">
         <v>39</v>
       </c>
@@ -5956,8 +7884,8 @@
       <c r="K36" s="85"/>
     </row>
     <row r="37" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B37" s="90"/>
-      <c r="C37" s="102"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="83" t="s">
         <v>45</v>
       </c>
@@ -5982,10 +7910,10 @@
       <c r="K37" s="85"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="109" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="97"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="83" t="s">
         <v>74</v>
       </c>
@@ -6010,8 +7938,8 @@
       <c r="K38" s="85"/>
     </row>
     <row r="39" spans="2:11" ht="34">
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="83" t="s">
         <v>75</v>
       </c>
@@ -6036,8 +7964,8 @@
       <c r="K39" s="85"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="83" t="s">
         <v>285</v>
       </c>
@@ -6062,10 +7990,10 @@
       <c r="K40" s="85"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="97"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="83" t="s">
         <v>30</v>
       </c>
@@ -6090,8 +8018,8 @@
       <c r="K41" s="85"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="83" t="s">
         <v>117</v>
       </c>
@@ -6116,8 +8044,8 @@
       <c r="K42" s="51"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="112"/>
       <c r="D43" s="83" t="s">
         <v>118</v>
       </c>
@@ -6142,8 +8070,8 @@
       <c r="K43" s="85"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="98"/>
-      <c r="C44" s="99"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="83" t="s">
         <v>125</v>
       </c>
@@ -6168,8 +8096,8 @@
       <c r="K44" s="85"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="98"/>
-      <c r="C45" s="99"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="112"/>
       <c r="D45" s="83" t="s">
         <v>290</v>
       </c>
@@ -6194,8 +8122,8 @@
       <c r="K45" s="85"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
       <c r="D46" s="83" t="s">
         <v>290</v>
       </c>
@@ -6220,10 +8148,10 @@
       <c r="K46" s="85"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="109" t="s">
         <v>293</v>
       </c>
-      <c r="C47" s="97"/>
+      <c r="C47" s="110"/>
       <c r="D47" s="83" t="s">
         <v>30</v>
       </c>
@@ -6250,8 +8178,8 @@
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="98"/>
-      <c r="C48" s="99"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="83" t="s">
         <v>30</v>
       </c>
@@ -6278,8 +8206,8 @@
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="83" t="s">
         <v>30</v>
       </c>
@@ -6306,13 +8234,13 @@
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="100" t="s">
         <v>49</v>
       </c>
       <c r="E50" s="83" t="s">
@@ -6336,9 +8264,9 @@
       <c r="K50" s="85"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="90"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
       <c r="E51" s="83" t="s">
         <v>223</v>
       </c>
@@ -6360,9 +8288,9 @@
       <c r="K51" s="85"/>
     </row>
     <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="90"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102" t="s">
+      <c r="B52" s="98"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="83" t="s">
@@ -6386,9 +8314,9 @@
       <c r="K52" s="85"/>
     </row>
     <row r="53" spans="2:11" ht="34">
-      <c r="B53" s="90"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
       <c r="E53" s="83" t="s">
         <v>225</v>
       </c>
@@ -6410,8 +8338,8 @@
       <c r="K53" s="85"/>
     </row>
     <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="90"/>
-      <c r="C54" s="102"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="83" t="s">
         <v>112</v>
       </c>
@@ -6436,8 +8364,8 @@
       <c r="K54" s="85"/>
     </row>
     <row r="55" spans="2:11" ht="34">
-      <c r="B55" s="90"/>
-      <c r="C55" s="102"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="100"/>
       <c r="D55" s="83" t="s">
         <v>111</v>
       </c>
@@ -6462,8 +8390,8 @@
       <c r="K55" s="85"/>
     </row>
     <row r="56" spans="2:11" ht="85">
-      <c r="B56" s="90"/>
-      <c r="C56" s="102"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="100"/>
       <c r="D56" s="83" t="s">
         <v>304</v>
       </c>
@@ -6488,8 +8416,8 @@
       <c r="K56" s="85"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="90"/>
-      <c r="C57" s="102"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="100"/>
       <c r="D57" s="83" t="s">
         <v>85</v>
       </c>
@@ -6514,8 +8442,8 @@
       <c r="K57" s="85"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="90"/>
-      <c r="C58" s="102"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="100"/>
       <c r="D58" s="83" t="s">
         <v>77</v>
       </c>
@@ -6540,8 +8468,8 @@
       <c r="K58" s="85"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="90"/>
-      <c r="C59" s="102"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="100"/>
       <c r="D59" s="83" t="s">
         <v>77</v>
       </c>
@@ -6566,7 +8494,7 @@
       <c r="K59" s="85"/>
     </row>
     <row r="60" spans="2:11" ht="34">
-      <c r="B60" s="90"/>
+      <c r="B60" s="98"/>
       <c r="C60" s="83" t="s">
         <v>56</v>
       </c>
@@ -6594,8 +8522,8 @@
       <c r="K60" s="85"/>
     </row>
     <row r="61" spans="2:11" ht="34">
-      <c r="B61" s="90"/>
-      <c r="C61" s="102" t="s">
+      <c r="B61" s="98"/>
+      <c r="C61" s="100" t="s">
         <v>84</v>
       </c>
       <c r="D61" s="83" t="s">
@@ -6624,8 +8552,8 @@
       </c>
     </row>
     <row r="62" spans="2:11" ht="34">
-      <c r="B62" s="90"/>
-      <c r="C62" s="102"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="100"/>
       <c r="D62" s="83" t="s">
         <v>39</v>
       </c>
@@ -6650,8 +8578,8 @@
       <c r="K62" s="52"/>
     </row>
     <row r="63" spans="2:11" ht="119">
-      <c r="B63" s="90"/>
-      <c r="C63" s="102"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="100"/>
       <c r="D63" s="83" t="s">
         <v>39</v>
       </c>
@@ -6678,8 +8606,8 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="34">
-      <c r="B64" s="90"/>
-      <c r="C64" s="102"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="100"/>
       <c r="D64" s="83" t="s">
         <v>39</v>
       </c>
@@ -6704,10 +8632,10 @@
       <c r="K64" s="85"/>
     </row>
     <row r="65" spans="2:11" ht="102">
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="91"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="83" t="s">
         <v>30</v>
       </c>
@@ -6734,10 +8662,10 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="34">
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="91"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="83" t="s">
         <v>137</v>
       </c>
@@ -6759,11 +8687,11 @@
       <c r="J66" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="94"/>
+      <c r="K66" s="107"/>
     </row>
     <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B67" s="92"/>
-      <c r="C67" s="93"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
       <c r="D67" s="53" t="s">
         <v>75</v>
       </c>
@@ -6785,1555 +8713,7 @@
       <c r="J67" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="95"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:D21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:B37"/>
-    <mergeCell ref="C23:C34"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="B38:C40"/>
-    <mergeCell ref="B41:C46"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="B50:B64"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C61:C64"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A63A04-B32C-4EF7-98CC-E072E813450C}">
-  <dimension ref="B1:K67"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="76" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="30">
-      <c r="B1" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" ht="30.5" thickBot="1">
-      <c r="B2" s="43"/>
-    </row>
-    <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="104"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5"/>
-      <c r="G5" s="1"/>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="17.5" thickBot="1">
-      <c r="B13" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
-      <c r="B14" s="43"/>
-    </row>
-    <row r="15" spans="2:11" ht="18" thickBot="1">
-      <c r="B15" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="80">
-        <v>1</v>
-      </c>
-      <c r="I16" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J16" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="78">
-        <v>1</v>
-      </c>
-      <c r="I17" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J17" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="79"/>
-    </row>
-    <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J18" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="79"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="78">
-        <v>1</v>
-      </c>
-      <c r="I19" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J19" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="79"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="78">
-        <v>1</v>
-      </c>
-      <c r="I20" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J20" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="79"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="8">
-        <v>4</v>
-      </c>
-      <c r="I21" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J21" s="78" t="s">
-        <v>272</v>
-      </c>
-      <c r="K21" s="79"/>
-    </row>
-    <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="90" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J22" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="79"/>
-    </row>
-    <row r="23" spans="2:11" ht="70" customHeight="1">
-      <c r="B23" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-      <c r="I23" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J23" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K23" s="79"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="90"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="78">
-        <v>1</v>
-      </c>
-      <c r="I24" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J24" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="79"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="90"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="78">
-        <v>1</v>
-      </c>
-      <c r="I25" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J25" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="79"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="90"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="78">
-        <v>1</v>
-      </c>
-      <c r="I26" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J26" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="79"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="90"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="78">
-        <v>1</v>
-      </c>
-      <c r="I27" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J27" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="79"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="90"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="8">
-        <v>2</v>
-      </c>
-      <c r="I28" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J28" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K28" s="79"/>
-    </row>
-    <row r="29" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B29" s="90"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2</v>
-      </c>
-      <c r="I29" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J29" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="79"/>
-    </row>
-    <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="90"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J30" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="79"/>
-    </row>
-    <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="90"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1</v>
-      </c>
-      <c r="I31" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J31" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K31" s="79"/>
-    </row>
-    <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="90"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="110" t="s">
-        <v>284</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1</v>
-      </c>
-      <c r="I32" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J32" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K32" s="79"/>
-    </row>
-    <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="90"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="78">
-        <v>1</v>
-      </c>
-      <c r="I33" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J33" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K33" s="79"/>
-    </row>
-    <row r="34" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B34" s="90"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2</v>
-      </c>
-      <c r="I34" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J34" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="79"/>
-    </row>
-    <row r="35" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B35" s="90"/>
-      <c r="C35" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-      <c r="I35" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J35" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K35" s="79"/>
-    </row>
-    <row r="36" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B36" s="90"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J36" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="79"/>
-    </row>
-    <row r="37" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B37" s="90"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J37" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K37" s="79"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="96" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="F38" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="78">
-        <v>2</v>
-      </c>
-      <c r="I38" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J38" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K38" s="79"/>
-    </row>
-    <row r="39" spans="2:11" ht="51">
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="78" t="s">
-        <v>257</v>
-      </c>
-      <c r="F39" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2</v>
-      </c>
-      <c r="I39" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J39" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K39" s="79"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="F40" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="62">
-        <v>44515</v>
-      </c>
-      <c r="J40" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40" s="79"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="F41" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="78">
-        <v>1</v>
-      </c>
-      <c r="I41" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J41" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="79"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="F42" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="78">
-        <v>3</v>
-      </c>
-      <c r="I42" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J42" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K42" s="51"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="78">
-        <v>3</v>
-      </c>
-      <c r="I43" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J43" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="79"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="98"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="78">
-        <v>4</v>
-      </c>
-      <c r="I44" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J44" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="79"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="98"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="78" t="s">
-        <v>290</v>
-      </c>
-      <c r="E45" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="F45" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H45" s="78">
-        <v>1</v>
-      </c>
-      <c r="I45" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J45" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="79"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="78" t="s">
-        <v>290</v>
-      </c>
-      <c r="E46" s="78" t="s">
-        <v>295</v>
-      </c>
-      <c r="F46" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="H46" s="78">
-        <v>3</v>
-      </c>
-      <c r="I46" s="62">
-        <v>44515</v>
-      </c>
-      <c r="J46" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="79"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="F47" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2</v>
-      </c>
-      <c r="I47" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J47" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K47" s="79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="98"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="F48" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3</v>
-      </c>
-      <c r="I48" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J48" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K48" s="79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="F49" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="H49" s="78">
-        <v>1</v>
-      </c>
-      <c r="I49" s="62">
-        <v>44515</v>
-      </c>
-      <c r="J49" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K49" s="79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" s="78">
-        <v>1</v>
-      </c>
-      <c r="I50" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J50" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="79"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="90"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="F51" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H51" s="78">
-        <v>2</v>
-      </c>
-      <c r="I51" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J51" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="79"/>
-    </row>
-    <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="90"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="F52" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3</v>
-      </c>
-      <c r="I52" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J52" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K52" s="79"/>
-    </row>
-    <row r="53" spans="2:11" ht="34">
-      <c r="B53" s="90"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="F53" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H53" s="3">
-        <v>2</v>
-      </c>
-      <c r="I53" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J53" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K53" s="79"/>
-    </row>
-    <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="90"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="F54" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J54" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K54" s="79"/>
-    </row>
-    <row r="55" spans="2:11" ht="34">
-      <c r="B55" s="90"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="F55" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="3">
-        <v>2</v>
-      </c>
-      <c r="I55" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J55" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K55" s="79"/>
-    </row>
-    <row r="56" spans="2:11" ht="85">
-      <c r="B56" s="90"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="E56" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="F56" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="H56" s="3">
-        <v>2</v>
-      </c>
-      <c r="I56" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J56" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K56" s="79"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="90"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H57" s="16">
-        <v>3</v>
-      </c>
-      <c r="I57" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J57" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K57" s="79"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="90"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="F58" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H58" s="78">
-        <v>3</v>
-      </c>
-      <c r="I58" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J58" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K58" s="79"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="90"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="81" t="s">
-        <v>231</v>
-      </c>
-      <c r="F59" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59" s="78">
-        <v>3</v>
-      </c>
-      <c r="I59" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J59" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K59" s="79"/>
-    </row>
-    <row r="60" spans="2:11" ht="34">
-      <c r="B60" s="90"/>
-      <c r="C60" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="F60" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2</v>
-      </c>
-      <c r="I60" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J60" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K60" s="79"/>
-    </row>
-    <row r="61" spans="2:11" ht="34">
-      <c r="B61" s="90"/>
-      <c r="C61" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="F61" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="3">
-        <v>4</v>
-      </c>
-      <c r="I61" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J61" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K61" s="51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="34">
-      <c r="B62" s="90"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="F62" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3</v>
-      </c>
-      <c r="I62" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J62" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K62" s="52"/>
-    </row>
-    <row r="63" spans="2:11" ht="119">
-      <c r="B63" s="90"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="F63" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="H63" s="3">
-        <v>3</v>
-      </c>
-      <c r="I63" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J63" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K63" s="52" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" ht="34">
-      <c r="B64" s="90"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="F64" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H64" s="3">
-        <v>3</v>
-      </c>
-      <c r="I64" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J64" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K64" s="79"/>
-    </row>
-    <row r="65" spans="2:11" ht="102">
-      <c r="B65" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="F65" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="78">
-        <v>1</v>
-      </c>
-      <c r="I65" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J65" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K65" s="51" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="34">
-      <c r="B66" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="78" t="s">
-        <v>264</v>
-      </c>
-      <c r="F66" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3</v>
-      </c>
-      <c r="I66" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J66" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K66" s="94"/>
-    </row>
-    <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B67" s="92"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="F67" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="H67" s="53">
-        <v>3</v>
-      </c>
-      <c r="I67" s="64">
-        <v>44475</v>
-      </c>
-      <c r="J67" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="K67" s="95"/>
+      <c r="K67" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -8367,6 +8747,1554 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A63A04-B32C-4EF7-98CC-E072E813450C}">
+  <dimension ref="B1:K67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.75" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="76" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="30">
+      <c r="B1" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1">
+      <c r="B3" s="94" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="95"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5"/>
+      <c r="G5" s="1"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
+      <c r="B13" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
+      <c r="B14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" thickBot="1">
+      <c r="B15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="80">
+        <v>1</v>
+      </c>
+      <c r="I16" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J16" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="78">
+        <v>1</v>
+      </c>
+      <c r="I17" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="79"/>
+    </row>
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="79"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="78">
+        <v>1</v>
+      </c>
+      <c r="I19" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="79"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="78">
+        <v>1</v>
+      </c>
+      <c r="I20" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="79"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="8">
+        <v>4</v>
+      </c>
+      <c r="I21" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="79"/>
+    </row>
+    <row r="22" spans="2:11" ht="165" customHeight="1">
+      <c r="B22" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="99"/>
+      <c r="D22" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="79"/>
+    </row>
+    <row r="23" spans="2:11" ht="70" customHeight="1">
+      <c r="B23" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J23" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="79"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="98"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="78">
+        <v>1</v>
+      </c>
+      <c r="I24" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J24" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="79"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="98"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="78">
+        <v>1</v>
+      </c>
+      <c r="I25" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J25" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="79"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="78">
+        <v>1</v>
+      </c>
+      <c r="I26" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J26" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="79"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="98"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="78">
+        <v>1</v>
+      </c>
+      <c r="I27" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="79"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+      <c r="I28" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="79"/>
+    </row>
+    <row r="29" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B29" s="98"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B30" s="98"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="79"/>
+    </row>
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B31" s="98"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J31" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="79"/>
+    </row>
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B32" s="98"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="79"/>
+    </row>
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B33" s="98"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="78">
+        <v>1</v>
+      </c>
+      <c r="I33" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="79"/>
+    </row>
+    <row r="34" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B34" s="98"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2</v>
+      </c>
+      <c r="I34" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="79"/>
+    </row>
+    <row r="35" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B35" s="98"/>
+      <c r="C35" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J35" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="79"/>
+    </row>
+    <row r="36" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B36" s="98"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J36" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="79"/>
+    </row>
+    <row r="37" spans="2:11" ht="56.15" customHeight="1">
+      <c r="B37" s="98"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J37" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="79"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="109" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="78">
+        <v>2</v>
+      </c>
+      <c r="I38" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="79"/>
+    </row>
+    <row r="39" spans="2:11" ht="51">
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J39" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="79"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J40" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="79"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="110"/>
+      <c r="D41" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="78">
+        <v>1</v>
+      </c>
+      <c r="I41" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="79"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="78">
+        <v>3</v>
+      </c>
+      <c r="I42" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="111"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="78">
+        <v>3</v>
+      </c>
+      <c r="I43" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="79"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="111"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="78">
+        <v>4</v>
+      </c>
+      <c r="I44" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="79"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="111"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="78">
+        <v>1</v>
+      </c>
+      <c r="I45" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J45" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="79"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="78">
+        <v>3</v>
+      </c>
+      <c r="I46" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J46" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="79"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="110"/>
+      <c r="D47" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J47" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="111"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J48" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K48" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="78">
+        <v>1</v>
+      </c>
+      <c r="I49" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J49" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="78">
+        <v>1</v>
+      </c>
+      <c r="I50" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J50" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="79"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="98"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="78">
+        <v>2</v>
+      </c>
+      <c r="I51" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J51" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="79"/>
+    </row>
+    <row r="52" spans="2:11" ht="34">
+      <c r="B52" s="98"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+      <c r="I52" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J52" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="79"/>
+    </row>
+    <row r="53" spans="2:11" ht="34">
+      <c r="B53" s="98"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J53" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="79"/>
+    </row>
+    <row r="54" spans="2:11" ht="34">
+      <c r="B54" s="98"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J54" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="79"/>
+    </row>
+    <row r="55" spans="2:11" ht="34">
+      <c r="B55" s="98"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J55" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="79"/>
+    </row>
+    <row r="56" spans="2:11" ht="85">
+      <c r="B56" s="98"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J56" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="79"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="98"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="16">
+        <v>3</v>
+      </c>
+      <c r="I57" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J57" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="79"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="98"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="78">
+        <v>3</v>
+      </c>
+      <c r="I58" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J58" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="79"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="98"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="78">
+        <v>3</v>
+      </c>
+      <c r="I59" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J59" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="79"/>
+    </row>
+    <row r="60" spans="2:11" ht="34">
+      <c r="B60" s="98"/>
+      <c r="C60" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J60" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="79"/>
+    </row>
+    <row r="61" spans="2:11" ht="34">
+      <c r="B61" s="98"/>
+      <c r="C61" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4</v>
+      </c>
+      <c r="I61" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J61" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="34">
+      <c r="B62" s="98"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J62" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62" s="52"/>
+    </row>
+    <row r="63" spans="2:11" ht="119">
+      <c r="B63" s="98"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
+      <c r="I63" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J63" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="34">
+      <c r="B64" s="98"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3</v>
+      </c>
+      <c r="I64" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J64" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="79"/>
+    </row>
+    <row r="65" spans="2:11" ht="102">
+      <c r="B65" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="99"/>
+      <c r="D65" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="78">
+        <v>1</v>
+      </c>
+      <c r="I65" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J65" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="34">
+      <c r="B66" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="99"/>
+      <c r="D66" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="F66" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J66" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="107"/>
+    </row>
+    <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="53">
+        <v>3</v>
+      </c>
+      <c r="I67" s="64">
+        <v>44475</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C61:C64"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF8E6D5-6820-4B3F-ABEE-B157CB23A55C}">
   <dimension ref="B1:K66"/>
   <sheetViews>
@@ -8397,10 +10325,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="104"/>
+      <c r="C3" s="95"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -8522,11 +10450,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
+      <c r="B16" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="41" t="s">
         <v>180</v>
       </c>
@@ -8548,9 +10476,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="40" t="s">
         <v>181</v>
       </c>
@@ -8572,9 +10500,9 @@
       <c r="K17" s="60"/>
     </row>
     <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="40" t="s">
         <v>182</v>
       </c>
@@ -8596,9 +10524,9 @@
       <c r="K18" s="60"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="40" t="s">
         <v>183</v>
       </c>
@@ -8620,9 +10548,9 @@
       <c r="K19" s="60"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="40" t="s">
         <v>184</v>
       </c>
@@ -8644,9 +10572,9 @@
       <c r="K20" s="60"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="40" t="s">
         <v>185</v>
       </c>
@@ -8668,10 +10596,10 @@
       <c r="K21" s="60"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="40" t="s">
         <v>115</v>
       </c>
@@ -8696,8 +10624,8 @@
       <c r="K22" s="60"/>
     </row>
     <row r="23" spans="2:11" ht="82" customHeight="1">
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="40" t="s">
         <v>270</v>
       </c>
@@ -8722,13 +10650,13 @@
       <c r="K23" s="60"/>
     </row>
     <row r="24" spans="2:11" ht="70" customHeight="1">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="100" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="40" t="s">
@@ -8752,9 +10680,9 @@
       <c r="K24" s="60"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="90"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="40" t="s">
         <v>189</v>
       </c>
@@ -8776,9 +10704,9 @@
       <c r="K25" s="60"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="90"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="40" t="s">
         <v>190</v>
       </c>
@@ -8800,9 +10728,9 @@
       <c r="K26" s="60"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="90"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="40" t="s">
@@ -8826,9 +10754,9 @@
       <c r="K27" s="60"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="90"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="40" t="s">
         <v>192</v>
       </c>
@@ -8850,9 +10778,9 @@
       <c r="K28" s="60"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="90"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="40" t="s">
         <v>193</v>
       </c>
@@ -8874,9 +10802,9 @@
       <c r="K29" s="60"/>
     </row>
     <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="90"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="107" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="101" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="40" t="s">
@@ -8900,9 +10828,9 @@
       <c r="K30" s="60"/>
     </row>
     <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="90"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="108"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="40" t="s">
         <v>195</v>
       </c>
@@ -8924,9 +10852,9 @@
       <c r="K31" s="60"/>
     </row>
     <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="90"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="109"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="103"/>
       <c r="E32" s="40" t="s">
         <v>196</v>
       </c>
@@ -8948,9 +10876,9 @@
       <c r="K32" s="60"/>
     </row>
     <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="90"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="110" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="104" t="s">
         <v>284</v>
       </c>
       <c r="E33" s="40" t="s">
@@ -8974,9 +10902,9 @@
       <c r="K33" s="60"/>
     </row>
     <row r="34" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B34" s="90"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="109"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="40" t="s">
         <v>198</v>
       </c>
@@ -8998,8 +10926,8 @@
       <c r="K34" s="60"/>
     </row>
     <row r="35" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B35" s="90"/>
-      <c r="C35" s="102"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="76" t="s">
         <v>39</v>
       </c>
@@ -9024,8 +10952,8 @@
       <c r="K35" s="60"/>
     </row>
     <row r="36" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B36" s="90"/>
-      <c r="C36" s="102" t="s">
+      <c r="B36" s="98"/>
+      <c r="C36" s="100" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="40" t="s">
@@ -9052,8 +10980,8 @@
       <c r="K36" s="60"/>
     </row>
     <row r="37" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B37" s="90"/>
-      <c r="C37" s="102"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="40" t="s">
         <v>39</v>
       </c>
@@ -9078,8 +11006,8 @@
       <c r="K37" s="60"/>
     </row>
     <row r="38" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B38" s="90"/>
-      <c r="C38" s="102"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
@@ -9104,13 +11032,13 @@
       <c r="K38" s="60"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="100" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="40" t="s">
@@ -9134,9 +11062,9 @@
       <c r="K39" s="60"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="90"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
       <c r="E40" s="40" t="s">
         <v>223</v>
       </c>
@@ -9158,9 +11086,9 @@
       <c r="K40" s="60"/>
     </row>
     <row r="41" spans="2:11" ht="68">
-      <c r="B41" s="90"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="40" t="s">
@@ -9184,9 +11112,9 @@
       <c r="K41" s="60"/>
     </row>
     <row r="42" spans="2:11" ht="34">
-      <c r="B42" s="90"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
       <c r="E42" s="40" t="s">
         <v>225</v>
       </c>
@@ -9208,9 +11136,9 @@
       <c r="K42" s="60"/>
     </row>
     <row r="43" spans="2:11" ht="34">
-      <c r="B43" s="90"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
       <c r="E43" s="40" t="s">
         <v>226</v>
       </c>
@@ -9232,8 +11160,8 @@
       <c r="K43" s="60"/>
     </row>
     <row r="44" spans="2:11" ht="34">
-      <c r="B44" s="90"/>
-      <c r="C44" s="102"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="100"/>
       <c r="D44" s="40" t="s">
         <v>112</v>
       </c>
@@ -9258,8 +11186,8 @@
       <c r="K44" s="60"/>
     </row>
     <row r="45" spans="2:11" ht="34">
-      <c r="B45" s="90"/>
-      <c r="C45" s="102"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="100"/>
       <c r="D45" s="40" t="s">
         <v>111</v>
       </c>
@@ -9284,8 +11212,8 @@
       <c r="K45" s="60"/>
     </row>
     <row r="46" spans="2:11" ht="34">
-      <c r="B46" s="90"/>
-      <c r="C46" s="102"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="40" t="s">
         <v>107</v>
       </c>
@@ -9310,8 +11238,8 @@
       <c r="K46" s="60"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="90"/>
-      <c r="C47" s="102"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="40" t="s">
         <v>85</v>
       </c>
@@ -9336,8 +11264,8 @@
       <c r="K47" s="60"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="90"/>
-      <c r="C48" s="102"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="40" t="s">
         <v>77</v>
       </c>
@@ -9362,8 +11290,8 @@
       <c r="K48" s="60"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="90"/>
-      <c r="C49" s="102"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="40" t="s">
         <v>77</v>
       </c>
@@ -9388,7 +11316,7 @@
       <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" ht="34">
-      <c r="B50" s="90"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="40" t="s">
         <v>56</v>
       </c>
@@ -9416,8 +11344,8 @@
       <c r="K50" s="60"/>
     </row>
     <row r="51" spans="2:11" ht="34">
-      <c r="B51" s="90"/>
-      <c r="C51" s="102" t="s">
+      <c r="B51" s="98"/>
+      <c r="C51" s="100" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -9446,8 +11374,8 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="90"/>
-      <c r="C52" s="102"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="100"/>
       <c r="D52" s="40" t="s">
         <v>39</v>
       </c>
@@ -9472,8 +11400,8 @@
       <c r="K52" s="52"/>
     </row>
     <row r="53" spans="2:11" ht="119">
-      <c r="B53" s="90"/>
-      <c r="C53" s="102"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="100"/>
       <c r="D53" s="40" t="s">
         <v>39</v>
       </c>
@@ -9500,8 +11428,8 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="90"/>
-      <c r="C54" s="102"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="40" t="s">
         <v>39</v>
       </c>
@@ -9526,7 +11454,7 @@
       <c r="K54" s="60"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="98" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -9558,7 +11486,7 @@
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="90"/>
+      <c r="B56" s="98"/>
       <c r="C56" s="40" t="s">
         <v>278</v>
       </c>
@@ -9588,10 +11516,10 @@
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="91"/>
+      <c r="C57" s="99"/>
       <c r="D57" s="40" t="s">
         <v>74</v>
       </c>
@@ -9616,8 +11544,8 @@
       <c r="K57" s="60"/>
     </row>
     <row r="58" spans="2:11" ht="51">
-      <c r="B58" s="90"/>
-      <c r="C58" s="91"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="99"/>
       <c r="D58" s="40" t="s">
         <v>75</v>
       </c>
@@ -9642,7 +11570,7 @@
       <c r="K58" s="60"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="98" t="s">
         <v>267</v>
       </c>
       <c r="C59" s="40" t="s">
@@ -9672,8 +11600,8 @@
       <c r="K59" s="60"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="90"/>
-      <c r="C60" s="102" t="s">
+      <c r="B60" s="98"/>
+      <c r="C60" s="100" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="40" t="s">
@@ -9700,8 +11628,8 @@
       <c r="K60" s="51"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="90"/>
-      <c r="C61" s="102"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="100"/>
       <c r="D61" s="40" t="s">
         <v>118</v>
       </c>
@@ -9726,7 +11654,7 @@
       <c r="K61" s="60"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="90"/>
+      <c r="B62" s="98"/>
       <c r="C62" s="40" t="s">
         <v>124</v>
       </c>
@@ -9754,7 +11682,7 @@
       <c r="K62" s="60"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="90"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="40" t="s">
         <v>276</v>
       </c>
@@ -9784,10 +11712,10 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="102">
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="91"/>
+      <c r="C64" s="99"/>
       <c r="D64" s="40" t="s">
         <v>30</v>
       </c>
@@ -9814,10 +11742,10 @@
       </c>
     </row>
     <row r="65" spans="2:11" ht="34">
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="91"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="40" t="s">
         <v>137</v>
       </c>
@@ -9839,11 +11767,11 @@
       <c r="J65" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="K65" s="94"/>
+      <c r="K65" s="107"/>
     </row>
     <row r="66" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B66" s="92"/>
-      <c r="C66" s="93"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="106"/>
       <c r="D66" s="53" t="s">
         <v>75</v>
       </c>
@@ -9865,20 +11793,10 @@
       <c r="J66" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="95"/>
+      <c r="K66" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:D21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:B38"/>
-    <mergeCell ref="C24:C35"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D34"/>
     <mergeCell ref="K65:K66"/>
     <mergeCell ref="B39:B54"/>
     <mergeCell ref="C39:C49"/>
@@ -9891,6 +11809,16 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C66"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:B38"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9899,7 +11827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BD3A42-6A7E-4449-A6C1-52E221A53C86}">
   <dimension ref="B1:K68"/>
   <sheetViews>
@@ -9930,10 +11858,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="104"/>
+      <c r="C3" s="95"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -10055,11 +11983,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
+      <c r="B16" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="35" t="s">
         <v>180</v>
       </c>
@@ -10081,9 +12009,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="36" t="s">
         <v>181</v>
       </c>
@@ -10105,9 +12033,9 @@
       <c r="K17" s="50"/>
     </row>
     <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="36" t="s">
         <v>182</v>
       </c>
@@ -10129,9 +12057,9 @@
       <c r="K18" s="50"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="36" t="s">
         <v>183</v>
       </c>
@@ -10153,9 +12081,9 @@
       <c r="K19" s="50"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="36" t="s">
         <v>184</v>
       </c>
@@ -10177,9 +12105,9 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="36" t="s">
         <v>185</v>
       </c>
@@ -10201,10 +12129,10 @@
       <c r="K21" s="50"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="36" t="s">
         <v>115</v>
       </c>
@@ -10229,8 +12157,8 @@
       <c r="K22" s="50"/>
     </row>
     <row r="23" spans="2:11" ht="82" customHeight="1">
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="36" t="s">
         <v>270</v>
       </c>
@@ -10255,13 +12183,13 @@
       <c r="K23" s="50"/>
     </row>
     <row r="24" spans="2:11" ht="70" customHeight="1">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="100" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="36" t="s">
@@ -10285,9 +12213,9 @@
       <c r="K24" s="50"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="90"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="36" t="s">
         <v>189</v>
       </c>
@@ -10309,9 +12237,9 @@
       <c r="K25" s="50"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="90"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="36" t="s">
         <v>190</v>
       </c>
@@ -10333,9 +12261,9 @@
       <c r="K26" s="50"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="90"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="36" t="s">
@@ -10359,9 +12287,9 @@
       <c r="K27" s="50"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="90"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="36" t="s">
         <v>192</v>
       </c>
@@ -10383,9 +12311,9 @@
       <c r="K28" s="50"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="90"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="36" t="s">
         <v>193</v>
       </c>
@@ -10407,9 +12335,9 @@
       <c r="K29" s="50"/>
     </row>
     <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="90"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="36" t="s">
@@ -10433,9 +12361,9 @@
       <c r="K30" s="50"/>
     </row>
     <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="90"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="36" t="s">
         <v>195</v>
       </c>
@@ -10457,9 +12385,9 @@
       <c r="K31" s="50"/>
     </row>
     <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="90"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="36" t="s">
         <v>196</v>
       </c>
@@ -10481,9 +12409,9 @@
       <c r="K32" s="50"/>
     </row>
     <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="90"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="36" t="s">
         <v>197</v>
       </c>
@@ -10505,9 +12433,9 @@
       <c r="K33" s="50"/>
     </row>
     <row r="34" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B34" s="90"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="36" t="s">
         <v>198</v>
       </c>
@@ -10529,9 +12457,9 @@
       <c r="K34" s="50"/>
     </row>
     <row r="35" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B35" s="90"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102" t="s">
+      <c r="B35" s="98"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="36" t="s">
@@ -10555,9 +12483,9 @@
       <c r="K35" s="50"/>
     </row>
     <row r="36" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B36" s="90"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
       <c r="E36" s="36" t="s">
         <v>200</v>
       </c>
@@ -10579,9 +12507,9 @@
       <c r="K36" s="50"/>
     </row>
     <row r="37" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B37" s="90"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
       <c r="E37" s="36" t="s">
         <v>201</v>
       </c>
@@ -10603,8 +12531,8 @@
       <c r="K37" s="50"/>
     </row>
     <row r="38" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B38" s="90"/>
-      <c r="C38" s="102" t="s">
+      <c r="B38" s="98"/>
+      <c r="C38" s="100" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="36" t="s">
@@ -10631,8 +12559,8 @@
       <c r="K38" s="50"/>
     </row>
     <row r="39" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B39" s="90"/>
-      <c r="C39" s="102"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="100"/>
       <c r="D39" s="36" t="s">
         <v>39</v>
       </c>
@@ -10657,8 +12585,8 @@
       <c r="K39" s="50"/>
     </row>
     <row r="40" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B40" s="90"/>
-      <c r="C40" s="102"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="100"/>
       <c r="D40" s="36" t="s">
         <v>45</v>
       </c>
@@ -10683,13 +12611,13 @@
       <c r="K40" s="50"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="100" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -10713,9 +12641,9 @@
       <c r="K41" s="50"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="90"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
       <c r="E42" s="36" t="s">
         <v>223</v>
       </c>
@@ -10737,9 +12665,9 @@
       <c r="K42" s="50"/>
     </row>
     <row r="43" spans="2:11" ht="68">
-      <c r="B43" s="90"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102" t="s">
+      <c r="B43" s="98"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="36" t="s">
@@ -10763,9 +12691,9 @@
       <c r="K43" s="50"/>
     </row>
     <row r="44" spans="2:11" ht="34">
-      <c r="B44" s="90"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
       <c r="E44" s="36" t="s">
         <v>225</v>
       </c>
@@ -10787,9 +12715,9 @@
       <c r="K44" s="50"/>
     </row>
     <row r="45" spans="2:11" ht="34">
-      <c r="B45" s="90"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
       <c r="E45" s="36" t="s">
         <v>226</v>
       </c>
@@ -10811,8 +12739,8 @@
       <c r="K45" s="50"/>
     </row>
     <row r="46" spans="2:11" ht="34">
-      <c r="B46" s="90"/>
-      <c r="C46" s="102"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="36" t="s">
         <v>112</v>
       </c>
@@ -10837,8 +12765,8 @@
       <c r="K46" s="50"/>
     </row>
     <row r="47" spans="2:11" ht="34">
-      <c r="B47" s="90"/>
-      <c r="C47" s="102"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="36" t="s">
         <v>111</v>
       </c>
@@ -10863,8 +12791,8 @@
       <c r="K47" s="50"/>
     </row>
     <row r="48" spans="2:11" ht="34">
-      <c r="B48" s="90"/>
-      <c r="C48" s="102"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="36" t="s">
         <v>107</v>
       </c>
@@ -10889,8 +12817,8 @@
       <c r="K48" s="50"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="90"/>
-      <c r="C49" s="102"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="36" t="s">
         <v>85</v>
       </c>
@@ -10915,8 +12843,8 @@
       <c r="K49" s="50"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="90"/>
-      <c r="C50" s="102"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="100"/>
       <c r="D50" s="36" t="s">
         <v>77</v>
       </c>
@@ -10941,8 +12869,8 @@
       <c r="K50" s="50"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="90"/>
-      <c r="C51" s="102"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="36" t="s">
         <v>77</v>
       </c>
@@ -10967,7 +12895,7 @@
       <c r="K51" s="50"/>
     </row>
     <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="90"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="36" t="s">
         <v>56</v>
       </c>
@@ -10995,8 +12923,8 @@
       <c r="K52" s="50"/>
     </row>
     <row r="53" spans="2:11" ht="34">
-      <c r="B53" s="90"/>
-      <c r="C53" s="102" t="s">
+      <c r="B53" s="98"/>
+      <c r="C53" s="100" t="s">
         <v>84</v>
       </c>
       <c r="D53" s="36" t="s">
@@ -11025,8 +12953,8 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="90"/>
-      <c r="C54" s="102"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="36" t="s">
         <v>39</v>
       </c>
@@ -11051,8 +12979,8 @@
       <c r="K54" s="52"/>
     </row>
     <row r="55" spans="2:11" ht="119">
-      <c r="B55" s="90"/>
-      <c r="C55" s="102"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="100"/>
       <c r="D55" s="36" t="s">
         <v>39</v>
       </c>
@@ -11079,8 +13007,8 @@
       </c>
     </row>
     <row r="56" spans="2:11" ht="34">
-      <c r="B56" s="90"/>
-      <c r="C56" s="102"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="100"/>
       <c r="D56" s="36" t="s">
         <v>39</v>
       </c>
@@ -11105,7 +13033,7 @@
       <c r="K56" s="50"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="98" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -11137,7 +13065,7 @@
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="90"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="36" t="s">
         <v>132</v>
       </c>
@@ -11167,10 +13095,10 @@
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="91"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="36" t="s">
         <v>74</v>
       </c>
@@ -11195,8 +13123,8 @@
       <c r="K59" s="50"/>
     </row>
     <row r="60" spans="2:11" ht="51">
-      <c r="B60" s="90"/>
-      <c r="C60" s="91"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="36" t="s">
         <v>75</v>
       </c>
@@ -11221,7 +13149,7 @@
       <c r="K60" s="50"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="90" t="s">
+      <c r="B61" s="98" t="s">
         <v>267</v>
       </c>
       <c r="C61" s="36" t="s">
@@ -11251,8 +13179,8 @@
       <c r="K61" s="50"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="90"/>
-      <c r="C62" s="102" t="s">
+      <c r="B62" s="98"/>
+      <c r="C62" s="100" t="s">
         <v>68</v>
       </c>
       <c r="D62" s="36" t="s">
@@ -11279,8 +13207,8 @@
       <c r="K62" s="51"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="90"/>
-      <c r="C63" s="102"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="100"/>
       <c r="D63" s="36" t="s">
         <v>118</v>
       </c>
@@ -11305,7 +13233,7 @@
       <c r="K63" s="50"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="90"/>
+      <c r="B64" s="98"/>
       <c r="C64" s="36" t="s">
         <v>124</v>
       </c>
@@ -11333,7 +13261,7 @@
       <c r="K64" s="50"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="90"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="36" t="s">
         <v>131</v>
       </c>
@@ -11361,10 +13289,10 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="102">
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="91"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="36" t="s">
         <v>30</v>
       </c>
@@ -11391,10 +13319,10 @@
       </c>
     </row>
     <row r="67" spans="2:11" ht="34">
-      <c r="B67" s="90" t="s">
+      <c r="B67" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="C67" s="91"/>
+      <c r="C67" s="99"/>
       <c r="D67" s="36" t="s">
         <v>137</v>
       </c>
@@ -11416,11 +13344,11 @@
       <c r="J67" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="94"/>
+      <c r="K67" s="107"/>
     </row>
     <row r="68" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B68" s="92"/>
-      <c r="C68" s="93"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="106"/>
       <c r="D68" s="53" t="s">
         <v>75</v>
       </c>
@@ -11442,10 +13370,20 @@
       <c r="J68" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K68" s="95"/>
+      <c r="K68" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B41:B56"/>
@@ -11458,16 +13396,6 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="C41:C51"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11476,7 +13404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2F09C0-156E-4DA5-A577-69CE2AAC7D43}">
   <dimension ref="A2:H55"/>
   <sheetViews>
@@ -11523,11 +13451,11 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
+      <c r="A3" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
       <c r="D3" s="2" t="s">
         <v>180</v>
       </c>
@@ -11543,9 +13471,9 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="30" t="s">
         <v>181</v>
       </c>
@@ -11561,9 +13489,9 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="42.65" customHeight="1">
-      <c r="A5" s="124"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="30" t="s">
         <v>182</v>
       </c>
@@ -11579,9 +13507,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="30" t="s">
         <v>183</v>
       </c>
@@ -11597,9 +13525,9 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="124"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="30" t="s">
         <v>184</v>
       </c>
@@ -11615,9 +13543,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="127"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="30" t="s">
         <v>185</v>
       </c>
@@ -11633,10 +13561,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="165" customHeight="1">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="133"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
@@ -11655,8 +13583,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="82" customHeight="1">
-      <c r="A10" s="133"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="2" t="s">
         <v>141</v>
       </c>
@@ -11675,13 +13603,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="70" customHeight="1">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="100" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -11699,9 +13627,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="133"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="102"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="30" t="s">
         <v>189</v>
       </c>
@@ -11717,9 +13645,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="133"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="30" t="s">
         <v>190</v>
       </c>
@@ -11735,9 +13663,9 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="133"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="107" t="s">
+      <c r="A14" s="127"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="101" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -11755,9 +13683,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="133"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="108"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="30" t="s">
         <v>192</v>
       </c>
@@ -11773,9 +13701,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="133"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="30" t="s">
         <v>193</v>
       </c>
@@ -11791,9 +13719,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A17" s="133"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="107" t="s">
+      <c r="A17" s="127"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="101" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -11811,9 +13739,9 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A18" s="133"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="108"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="30" t="s">
         <v>195</v>
       </c>
@@ -11829,9 +13757,9 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A19" s="133"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="108"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="30" t="s">
         <v>196</v>
       </c>
@@ -11847,9 +13775,9 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A20" s="133"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="30" t="s">
         <v>197</v>
       </c>
@@ -11865,9 +13793,9 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A21" s="133"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="109"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="30" t="s">
         <v>198</v>
       </c>
@@ -11883,9 +13811,9 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A22" s="133"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="107" t="s">
+      <c r="A22" s="127"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="101" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -11903,9 +13831,9 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A23" s="133"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="30" t="s">
         <v>200</v>
       </c>
@@ -11921,9 +13849,9 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A24" s="133"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="109"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="30" t="s">
         <v>201</v>
       </c>
@@ -11939,8 +13867,8 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A25" s="133"/>
-      <c r="B25" s="107" t="s">
+      <c r="A25" s="127"/>
+      <c r="B25" s="101" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -11961,8 +13889,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A26" s="133"/>
-      <c r="B26" s="108"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
@@ -11981,8 +13909,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="56.15" customHeight="1">
-      <c r="A27" s="133"/>
-      <c r="B27" s="109"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
@@ -12001,13 +13929,13 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="101" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -12025,9 +13953,9 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="117"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
       <c r="D29" s="30" t="s">
         <v>206</v>
       </c>
@@ -12043,9 +13971,9 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="68">
-      <c r="A30" s="117"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="107" t="s">
+      <c r="A30" s="134"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="101" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="30" t="s">
@@ -12063,9 +13991,9 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="34">
-      <c r="A31" s="117"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="30" t="s">
         <v>208</v>
       </c>
@@ -12081,9 +14009,9 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="34">
-      <c r="A32" s="117"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="30" t="s">
         <v>209</v>
       </c>
@@ -12099,8 +14027,8 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="34">
-      <c r="A33" s="117"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="2" t="s">
         <v>112</v>
       </c>
@@ -12119,8 +14047,8 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="34">
-      <c r="A34" s="117"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="2" t="s">
         <v>111</v>
       </c>
@@ -12139,8 +14067,8 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="34">
-      <c r="A35" s="117"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
@@ -12159,8 +14087,8 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="117"/>
-      <c r="B36" s="108"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="2" t="s">
         <v>85</v>
       </c>
@@ -12179,8 +14107,8 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="117"/>
-      <c r="B37" s="108"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="2" t="s">
         <v>77</v>
       </c>
@@ -12199,8 +14127,8 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="117"/>
-      <c r="B38" s="109"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
@@ -12219,7 +14147,7 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="34">
-      <c r="A39" s="117"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
@@ -12241,8 +14169,8 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="34">
-      <c r="A40" s="117"/>
-      <c r="B40" s="107" t="s">
+      <c r="A40" s="134"/>
+      <c r="B40" s="101" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -12265,8 +14193,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="34">
-      <c r="A41" s="117"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
@@ -12285,8 +14213,8 @@
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" ht="119">
-      <c r="A42" s="117"/>
-      <c r="B42" s="108"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
@@ -12307,8 +14235,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="34">
-      <c r="A43" s="118"/>
-      <c r="B43" s="109"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="2" t="s">
         <v>39</v>
       </c>
@@ -12327,7 +14255,7 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="128" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -12353,7 +14281,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="113"/>
+      <c r="A45" s="130"/>
       <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
@@ -12377,10 +14305,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="111" t="s">
+      <c r="A46" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="112"/>
+      <c r="B46" s="129"/>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
@@ -12399,8 +14327,8 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="51">
-      <c r="A47" s="113"/>
-      <c r="B47" s="114"/>
+      <c r="A47" s="130"/>
+      <c r="B47" s="131"/>
       <c r="C47" s="2" t="s">
         <v>75</v>
       </c>
@@ -12419,7 +14347,7 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="128" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -12443,8 +14371,8 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="115"/>
-      <c r="B49" s="102" t="s">
+      <c r="A49" s="132"/>
+      <c r="B49" s="100" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -12465,8 +14393,8 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="115"/>
-      <c r="B50" s="102"/>
+      <c r="A50" s="132"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="2" t="s">
         <v>118</v>
       </c>
@@ -12485,7 +14413,7 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="115"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="2" t="s">
         <v>124</v>
       </c>
@@ -12507,7 +14435,7 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="113"/>
+      <c r="A52" s="130"/>
       <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
@@ -12529,10 +14457,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="102">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="120"/>
+      <c r="B53" s="137"/>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
@@ -12553,10 +14481,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="34">
-      <c r="A54" s="111" t="s">
+      <c r="A54" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="112"/>
+      <c r="B54" s="129"/>
       <c r="C54" s="2" t="s">
         <v>137</v>
       </c>
@@ -12572,11 +14500,11 @@
       <c r="G54" s="3">
         <v>3</v>
       </c>
-      <c r="H54" s="107"/>
+      <c r="H54" s="101"/>
     </row>
     <row r="55" spans="1:8" ht="301" customHeight="1">
-      <c r="A55" s="113"/>
-      <c r="B55" s="114"/>
+      <c r="A55" s="130"/>
+      <c r="B55" s="131"/>
       <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
@@ -12592,19 +14520,10 @@
       <c r="G55" s="4">
         <v>3</v>
       </c>
-      <c r="H55" s="109"/>
+      <c r="H55" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A3:C8"/>
-    <mergeCell ref="B11:B24"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A11:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A54:B55"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="H54:H55"/>
@@ -12617,6 +14536,15 @@
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A3:C8"/>
+    <mergeCell ref="B11:B24"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A11:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12625,7 +14553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A756F41A-28DD-4412-A372-3C92ED27208E}">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -12641,158 +14569,158 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="140" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="165" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="166"/>
+      <c r="J2" s="170"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="136"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="168"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="136"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="160" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="161"/>
+      <c r="J4" s="165"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="136"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="161"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="165"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="161"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="165"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="161"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="161"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="165"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="165"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="136"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="161"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="165"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="136"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="157" t="s">
+      <c r="A11" s="140"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="161" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="165"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="17.149999999999999" customHeight="1">
-      <c r="A12" s="136"/>
-      <c r="B12" s="137"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="141"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -12801,14 +14729,14 @@
       <c r="H12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="162"/>
-      <c r="J12" s="161"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="165"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="138"/>
-      <c r="B13" s="139"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="19"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -12817,210 +14745,210 @@
       <c r="H13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="162"/>
-      <c r="J13" s="161"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="165"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="150"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="19"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="161"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="165"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="151"/>
-      <c r="B15" s="152"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="19"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="161"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="165"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="151"/>
-      <c r="B16" s="152"/>
+      <c r="A16" s="155"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="19"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="161"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="165"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="151"/>
-      <c r="B17" s="152"/>
+      <c r="A17" s="155"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="19"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="161"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="165"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
+      <c r="A18" s="155"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="19"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="164"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="168"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="151"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="169" t="s">
+      <c r="A19" s="155"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="173" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="155" t="s">
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="156"/>
+      <c r="J19" s="160"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="151"/>
-      <c r="B20" s="152"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="19"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="151"/>
-      <c r="B21" s="152"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="19"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="151"/>
-      <c r="B22" s="152"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="19"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="151"/>
-      <c r="B23" s="152"/>
+      <c r="A23" s="155"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="19"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="151"/>
-      <c r="B24" s="152"/>
+      <c r="A24" s="155"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="19"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="151"/>
-      <c r="B25" s="152"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="19"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="151"/>
-      <c r="B26" s="152"/>
+      <c r="A26" s="155"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="19"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="153"/>
-      <c r="B27" s="154"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
